--- a/data/nzd0252/nzd0252.xlsx
+++ b/data/nzd0252/nzd0252.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI326"/>
+  <dimension ref="A1:AI331"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28636,9 +28636,7 @@
         <v>311.5252941176471</v>
       </c>
       <c r="C323" t="inlineStr"/>
-      <c r="D323" t="n">
-        <v>251.2233333333333</v>
-      </c>
+      <c r="D323" t="inlineStr"/>
       <c r="E323" t="n">
         <v>318.1669230769231</v>
       </c>
@@ -28649,12 +28647,8 @@
       <c r="H323" t="n">
         <v>295.5871428571429</v>
       </c>
-      <c r="I323" t="n">
-        <v>163.3133333333333</v>
-      </c>
-      <c r="J323" t="n">
-        <v>197.3028571428572</v>
-      </c>
+      <c r="I323" t="inlineStr"/>
+      <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr"/>
       <c r="L323" t="inlineStr"/>
       <c r="M323" t="inlineStr"/>
@@ -28664,9 +28658,7 @@
       <c r="O323" t="n">
         <v>276.6414285714285</v>
       </c>
-      <c r="P323" t="n">
-        <v>217.2271428571429</v>
-      </c>
+      <c r="P323" t="inlineStr"/>
       <c r="Q323" t="n">
         <v>230.09</v>
       </c>
@@ -28735,30 +28727,20 @@
       <c r="C324" t="n">
         <v>265.805</v>
       </c>
-      <c r="D324" t="n">
-        <v>254.0577777777778</v>
-      </c>
+      <c r="D324" t="inlineStr"/>
       <c r="E324" t="n">
         <v>332.95</v>
       </c>
-      <c r="F324" t="n">
-        <v>289.06</v>
-      </c>
+      <c r="F324" t="inlineStr"/>
       <c r="G324" t="n">
         <v>305.2</v>
       </c>
       <c r="H324" t="n">
         <v>318.9471428571428</v>
       </c>
-      <c r="I324" t="n">
-        <v>173.7077777777778</v>
-      </c>
-      <c r="J324" t="n">
-        <v>235.8628571428572</v>
-      </c>
-      <c r="K324" t="n">
-        <v>286.0562068965518</v>
-      </c>
+      <c r="I324" t="inlineStr"/>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="inlineStr"/>
       <c r="M324" t="inlineStr"/>
       <c r="N324" t="n">
@@ -28767,9 +28749,7 @@
       <c r="O324" t="n">
         <v>291.5880952380953</v>
       </c>
-      <c r="P324" t="n">
-        <v>234.5071428571429</v>
-      </c>
+      <c r="P324" t="inlineStr"/>
       <c r="Q324" t="n">
         <v>256.06</v>
       </c>
@@ -28836,9 +28816,7 @@
       <c r="C325" t="n">
         <v>285.95</v>
       </c>
-      <c r="D325" t="n">
-        <v>224.7422222222222</v>
-      </c>
+      <c r="D325" t="inlineStr"/>
       <c r="E325" t="inlineStr"/>
       <c r="F325" t="inlineStr"/>
       <c r="G325" t="inlineStr"/>
@@ -28863,7 +28841,9 @@
       <c r="T325" t="n">
         <v>265.67</v>
       </c>
-      <c r="U325" t="inlineStr"/>
+      <c r="U325" t="n">
+        <v>269.6357142857143</v>
+      </c>
       <c r="V325" t="n">
         <v>249.05</v>
       </c>
@@ -28930,9 +28910,7 @@
       <c r="V326" t="n">
         <v>277.33</v>
       </c>
-      <c r="W326" t="n">
-        <v>241.03</v>
-      </c>
+      <c r="W326" t="inlineStr"/>
       <c r="X326" t="inlineStr"/>
       <c r="Y326" t="n">
         <v>311.4942857142857</v>
@@ -28947,16 +28925,533 @@
       <c r="AC326" t="n">
         <v>330.2183720930233</v>
       </c>
-      <c r="AD326" t="inlineStr"/>
-      <c r="AE326" t="inlineStr"/>
+      <c r="AD326" t="n">
+        <v>328.9663636363636</v>
+      </c>
+      <c r="AE326" t="n">
+        <v>313.19</v>
+      </c>
       <c r="AF326" t="n">
         <v>313.25</v>
       </c>
-      <c r="AG326" t="inlineStr"/>
-      <c r="AH326" t="inlineStr"/>
+      <c r="AG326" t="n">
+        <v>318.8466666666667</v>
+      </c>
+      <c r="AH326" t="n">
+        <v>332.0642857142857</v>
+      </c>
       <c r="AI326" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="inlineStr">
+        <is>
+          <t>2024-11-27 22:06:42+00:00</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>312.0229411764706</v>
+      </c>
+      <c r="C327" t="n">
+        <v>312.13</v>
+      </c>
+      <c r="D327" t="n">
+        <v>326.4844444444445</v>
+      </c>
+      <c r="E327" t="n">
+        <v>347.2653846153846</v>
+      </c>
+      <c r="F327" t="n">
+        <v>351.42</v>
+      </c>
+      <c r="G327" t="n">
+        <v>333.02</v>
+      </c>
+      <c r="H327" t="n">
+        <v>333.0042857142857</v>
+      </c>
+      <c r="I327" t="n">
+        <v>321.6844444444445</v>
+      </c>
+      <c r="J327" t="n">
+        <v>328.0357142857143</v>
+      </c>
+      <c r="K327" t="n">
+        <v>326.2779310344827</v>
+      </c>
+      <c r="L327" t="n">
+        <v>314.59</v>
+      </c>
+      <c r="M327" t="n">
+        <v>315.2563636363636</v>
+      </c>
+      <c r="N327" t="n">
+        <v>319.5371428571428</v>
+      </c>
+      <c r="O327" t="n">
+        <v>314.9695238095238</v>
+      </c>
+      <c r="P327" t="n">
+        <v>320.4742857142857</v>
+      </c>
+      <c r="Q327" t="n">
+        <v>330.09</v>
+      </c>
+      <c r="R327" t="n">
+        <v>312.7466666666667</v>
+      </c>
+      <c r="S327" t="n">
+        <v>310.1633333333333</v>
+      </c>
+      <c r="T327" t="n">
+        <v>304.83</v>
+      </c>
+      <c r="U327" t="n">
+        <v>297.4042857142857</v>
+      </c>
+      <c r="V327" t="n">
+        <v>286.38</v>
+      </c>
+      <c r="W327" t="n">
+        <v>292.5033333333333</v>
+      </c>
+      <c r="X327" t="n">
+        <v>313.3142857142857</v>
+      </c>
+      <c r="Y327" t="n">
+        <v>329.4042857142857</v>
+      </c>
+      <c r="Z327" t="n">
+        <v>329.9871428571428</v>
+      </c>
+      <c r="AA327" t="n">
+        <v>334.73</v>
+      </c>
+      <c r="AB327" t="n">
+        <v>335.6671428571428</v>
+      </c>
+      <c r="AC327" t="n">
+        <v>340.8206976744186</v>
+      </c>
+      <c r="AD327" t="n">
+        <v>332.7572727272727</v>
+      </c>
+      <c r="AE327" t="n">
+        <v>332.3566666666667</v>
+      </c>
+      <c r="AF327" t="n">
+        <v>321.82</v>
+      </c>
+      <c r="AG327" t="n">
+        <v>326.6344444444445</v>
+      </c>
+      <c r="AH327" t="n">
+        <v>338.8642857142857</v>
+      </c>
+      <c r="AI327" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:06:30+00:00</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>312.5911764705882</v>
+      </c>
+      <c r="C328" t="n">
+        <v>315.95</v>
+      </c>
+      <c r="D328" t="n">
+        <v>323.6811111111111</v>
+      </c>
+      <c r="E328" t="n">
+        <v>367.7876923076923</v>
+      </c>
+      <c r="F328" t="n">
+        <v>380.2</v>
+      </c>
+      <c r="G328" t="n">
+        <v>358.8</v>
+      </c>
+      <c r="H328" t="n">
+        <v>346.1328571428572</v>
+      </c>
+      <c r="I328" t="n">
+        <v>313.2011111111111</v>
+      </c>
+      <c r="J328" t="n">
+        <v>337.1571428571428</v>
+      </c>
+      <c r="K328" t="n">
+        <v>347.9617241379311</v>
+      </c>
+      <c r="L328" t="n">
+        <v>309.38</v>
+      </c>
+      <c r="M328" t="n">
+        <v>306.4890909090909</v>
+      </c>
+      <c r="N328" t="n">
+        <v>308.9714285714285</v>
+      </c>
+      <c r="O328" t="n">
+        <v>312.1152380952381</v>
+      </c>
+      <c r="P328" t="n">
+        <v>316.0828571428572</v>
+      </c>
+      <c r="Q328" t="n">
+        <v>311.71</v>
+      </c>
+      <c r="R328" t="n">
+        <v>347.5966666666666</v>
+      </c>
+      <c r="S328" t="n">
+        <v>326.1533333333333</v>
+      </c>
+      <c r="T328" t="n">
+        <v>291.99</v>
+      </c>
+      <c r="U328" t="n">
+        <v>294.6528571428572</v>
+      </c>
+      <c r="V328" t="n">
+        <v>307.02</v>
+      </c>
+      <c r="W328" t="n">
+        <v>318.9933333333333</v>
+      </c>
+      <c r="X328" t="n">
+        <v>322.7028571428572</v>
+      </c>
+      <c r="Y328" t="n">
+        <v>339.2428571428572</v>
+      </c>
+      <c r="Z328" t="n">
+        <v>343.6414285714285</v>
+      </c>
+      <c r="AA328" t="n">
+        <v>331.15</v>
+      </c>
+      <c r="AB328" t="n">
+        <v>336.0814285714285</v>
+      </c>
+      <c r="AC328" t="n">
+        <v>345.1037209302326</v>
+      </c>
+      <c r="AD328" t="n">
+        <v>333.5518181818182</v>
+      </c>
+      <c r="AE328" t="n">
+        <v>334.3966666666666</v>
+      </c>
+      <c r="AF328" t="n">
+        <v>328.96</v>
+      </c>
+      <c r="AG328" t="n">
+        <v>321.3711111111111</v>
+      </c>
+      <c r="AH328" t="n">
+        <v>307.3228571428572</v>
+      </c>
+      <c r="AI328" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:06:37+00:00</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>308.5188235294117</v>
+      </c>
+      <c r="C329" t="n">
+        <v>311.265</v>
+      </c>
+      <c r="D329" t="n">
+        <v>339.1522222222222</v>
+      </c>
+      <c r="E329" t="n">
+        <v>351.8415384615384</v>
+      </c>
+      <c r="F329" t="n">
+        <v>356.26</v>
+      </c>
+      <c r="G329" t="n">
+        <v>337.49</v>
+      </c>
+      <c r="H329" t="n">
+        <v>334.6985714285714</v>
+      </c>
+      <c r="I329" t="n">
+        <v>327.8322222222222</v>
+      </c>
+      <c r="J329" t="n">
+        <v>328.4914285714286</v>
+      </c>
+      <c r="K329" t="n">
+        <v>331.34</v>
+      </c>
+      <c r="L329" t="n">
+        <v>315.66</v>
+      </c>
+      <c r="M329" t="n">
+        <v>304.9136363636364</v>
+      </c>
+      <c r="N329" t="n">
+        <v>317.8642857142857</v>
+      </c>
+      <c r="O329" t="n">
+        <v>310.2890476190476</v>
+      </c>
+      <c r="P329" t="n">
+        <v>333.0885714285715</v>
+      </c>
+      <c r="Q329" t="n">
+        <v>351.7</v>
+      </c>
+      <c r="R329" t="n">
+        <v>314.8133333333333</v>
+      </c>
+      <c r="S329" t="n">
+        <v>320.8666666666667</v>
+      </c>
+      <c r="T329" t="n">
+        <v>325.11</v>
+      </c>
+      <c r="U329" t="n">
+        <v>328.8485714285715</v>
+      </c>
+      <c r="V329" t="inlineStr"/>
+      <c r="W329" t="inlineStr"/>
+      <c r="X329" t="n">
+        <v>314.2985714285714</v>
+      </c>
+      <c r="Y329" t="n">
+        <v>328.9185714285715</v>
+      </c>
+      <c r="Z329" t="n">
+        <v>325.3042857142857</v>
+      </c>
+      <c r="AA329" t="n">
+        <v>333.185</v>
+      </c>
+      <c r="AB329" t="n">
+        <v>341.4742857142857</v>
+      </c>
+      <c r="AC329" t="n">
+        <v>336.8025581395349</v>
+      </c>
+      <c r="AD329" t="n">
+        <v>337.7227272727272</v>
+      </c>
+      <c r="AE329" t="n">
+        <v>331.1133333333333</v>
+      </c>
+      <c r="AF329" t="n">
+        <v>339.16</v>
+      </c>
+      <c r="AG329" t="n">
+        <v>327.5022222222222</v>
+      </c>
+      <c r="AH329" t="n">
+        <v>344.9585714285714</v>
+      </c>
+      <c r="AI329" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-22 22:06:25+00:00</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>314.3735294117647</v>
+      </c>
+      <c r="C330" t="n">
+        <v>319.055</v>
+      </c>
+      <c r="D330" t="n">
+        <v>324.2444444444445</v>
+      </c>
+      <c r="E330" t="n">
+        <v>345.2830769230769</v>
+      </c>
+      <c r="F330" t="n">
+        <v>358.03</v>
+      </c>
+      <c r="G330" t="n">
+        <v>341.42</v>
+      </c>
+      <c r="H330" t="n">
+        <v>335.8014285714286</v>
+      </c>
+      <c r="I330" t="n">
+        <v>319.0744444444445</v>
+      </c>
+      <c r="J330" t="n">
+        <v>322.3785714285714</v>
+      </c>
+      <c r="K330" t="n">
+        <v>329.9993103448276</v>
+      </c>
+      <c r="L330" t="n">
+        <v>308.29</v>
+      </c>
+      <c r="M330" t="n">
+        <v>306.0290909090909</v>
+      </c>
+      <c r="N330" t="n">
+        <v>314.2357142857143</v>
+      </c>
+      <c r="O330" t="n">
+        <v>313.7909523809524</v>
+      </c>
+      <c r="P330" t="n">
+        <v>325.0714285714286</v>
+      </c>
+      <c r="Q330" t="n">
+        <v>315.31</v>
+      </c>
+      <c r="R330" t="n">
+        <v>332.1466666666666</v>
+      </c>
+      <c r="S330" t="n">
+        <v>329.0233333333333</v>
+      </c>
+      <c r="T330" t="n">
+        <v>300.21</v>
+      </c>
+      <c r="U330" t="n">
+        <v>298.3014285714286</v>
+      </c>
+      <c r="V330" t="n">
+        <v>299.76</v>
+      </c>
+      <c r="W330" t="n">
+        <v>328.3233333333333</v>
+      </c>
+      <c r="X330" t="n">
+        <v>331.2614285714285</v>
+      </c>
+      <c r="Y330" t="n">
+        <v>336.7014285714285</v>
+      </c>
+      <c r="Z330" t="n">
+        <v>345.9557142857143</v>
+      </c>
+      <c r="AA330" t="n">
+        <v>341.625</v>
+      </c>
+      <c r="AB330" t="n">
+        <v>331.4357142857143</v>
+      </c>
+      <c r="AC330" t="n">
+        <v>337.9883720930233</v>
+      </c>
+      <c r="AD330" t="n">
+        <v>336.1718181818182</v>
+      </c>
+      <c r="AE330" t="n">
+        <v>333.9566666666666</v>
+      </c>
+      <c r="AF330" t="n">
+        <v>332.69</v>
+      </c>
+      <c r="AG330" t="n">
+        <v>324.1244444444445</v>
+      </c>
+      <c r="AH330" t="n">
+        <v>322.5714285714286</v>
+      </c>
+      <c r="AI330" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:06:08+00:00</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr"/>
+      <c r="C331" t="inlineStr"/>
+      <c r="D331" t="inlineStr"/>
+      <c r="E331" t="inlineStr"/>
+      <c r="F331" t="inlineStr"/>
+      <c r="G331" t="inlineStr"/>
+      <c r="H331" t="inlineStr"/>
+      <c r="I331" t="inlineStr"/>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
+      <c r="L331" t="inlineStr"/>
+      <c r="M331" t="inlineStr"/>
+      <c r="N331" t="inlineStr"/>
+      <c r="O331" t="inlineStr"/>
+      <c r="P331" t="inlineStr"/>
+      <c r="Q331" t="inlineStr"/>
+      <c r="R331" t="inlineStr"/>
+      <c r="S331" t="inlineStr"/>
+      <c r="T331" t="n">
+        <v>315.2</v>
+      </c>
+      <c r="U331" t="n">
+        <v>320.6971428571428</v>
+      </c>
+      <c r="V331" t="n">
+        <v>297.15</v>
+      </c>
+      <c r="W331" t="inlineStr"/>
+      <c r="X331" t="inlineStr"/>
+      <c r="Y331" t="n">
+        <v>312.6271428571428</v>
+      </c>
+      <c r="Z331" t="inlineStr"/>
+      <c r="AA331" t="n">
+        <v>324.535</v>
+      </c>
+      <c r="AB331" t="n">
+        <v>339.3985714285715</v>
+      </c>
+      <c r="AC331" t="n">
+        <v>335.0969767441861</v>
+      </c>
+      <c r="AD331" t="n">
+        <v>328.3490909090909</v>
+      </c>
+      <c r="AE331" t="n">
+        <v>318.8233333333333</v>
+      </c>
+      <c r="AF331" t="n">
+        <v>293.52</v>
+      </c>
+      <c r="AG331" t="n">
+        <v>315.0988888888889</v>
+      </c>
+      <c r="AH331" t="n">
+        <v>356.7771428571428</v>
+      </c>
+      <c r="AI331" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -28971,7 +29466,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B330"/>
+  <dimension ref="A1:B335"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32279,6 +32774,56 @@
       </c>
       <c r="B330" t="n">
         <v>1.11</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>2024-11-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>-0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>2025-01-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>-0.61</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>1.57</v>
       </c>
     </row>
   </sheetData>
@@ -32447,28 +32992,28 @@
         <v>0.0953</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2090835902245357</v>
+        <v>-0.2056350808269588</v>
       </c>
       <c r="J2" t="n">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="K2" t="n">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02504187022494475</v>
+        <v>0.02504630184699852</v>
       </c>
       <c r="M2" t="n">
-        <v>7.163150874264308</v>
+        <v>7.083128103998678</v>
       </c>
       <c r="N2" t="n">
-        <v>85.52345748531587</v>
+        <v>84.24976835100921</v>
       </c>
       <c r="O2" t="n">
-        <v>9.247889352999195</v>
+        <v>9.178767256609637</v>
       </c>
       <c r="P2" t="n">
-        <v>316.0394556218892</v>
+        <v>316.0059032377695</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -32524,28 +33069,28 @@
         <v>0.0954</v>
       </c>
       <c r="I3" t="n">
-        <v>0.07722849674679731</v>
+        <v>0.0935106010766044</v>
       </c>
       <c r="J3" t="n">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="K3" t="n">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0008315493105806038</v>
+        <v>0.001262338108522165</v>
       </c>
       <c r="M3" t="n">
-        <v>11.48045770193695</v>
+        <v>11.34784672210986</v>
       </c>
       <c r="N3" t="n">
-        <v>362.2708948338375</v>
+        <v>356.5294521446196</v>
       </c>
       <c r="O3" t="n">
-        <v>19.03341521729186</v>
+        <v>18.88198750514944</v>
       </c>
       <c r="P3" t="n">
-        <v>307.9592109855949</v>
+        <v>307.8005342702012</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -32601,28 +33146,28 @@
         <v>0.0548</v>
       </c>
       <c r="I4" t="n">
-        <v>-1.150844437125115</v>
+        <v>-0.8856971852968574</v>
       </c>
       <c r="J4" t="n">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="K4" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04454353703124581</v>
+        <v>0.02787306730622141</v>
       </c>
       <c r="M4" t="n">
-        <v>28.45925537879791</v>
+        <v>27.24510356075915</v>
       </c>
       <c r="N4" t="n">
-        <v>1485.552250807447</v>
+        <v>1441.16840549888</v>
       </c>
       <c r="O4" t="n">
-        <v>38.54286251444549</v>
+        <v>37.96272389461641</v>
       </c>
       <c r="P4" t="n">
-        <v>327.8043738587056</v>
+        <v>325.2727021876511</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -32672,28 +33217,28 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>0.1765545072872415</v>
+        <v>0.2103246701700984</v>
       </c>
       <c r="J5" t="n">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="K5" t="n">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="L5" t="n">
-        <v>0.003634773554648141</v>
+        <v>0.005329351611430555</v>
       </c>
       <c r="M5" t="n">
-        <v>16.37581403469955</v>
+        <v>16.21243538834555</v>
       </c>
       <c r="N5" t="n">
-        <v>423.4130302668366</v>
+        <v>418.5410962235859</v>
       </c>
       <c r="O5" t="n">
-        <v>20.57700246068014</v>
+        <v>20.45827696125912</v>
       </c>
       <c r="P5" t="n">
-        <v>339.6370530682893</v>
+        <v>339.3097694554058</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -32743,28 +33288,28 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>1.293462053287631</v>
+        <v>1.378936529175518</v>
       </c>
       <c r="J6" t="n">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="K6" t="n">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03210954573938252</v>
+        <v>0.03795095728487718</v>
       </c>
       <c r="M6" t="n">
-        <v>27.53540905437054</v>
+        <v>26.89670556676181</v>
       </c>
       <c r="N6" t="n">
-        <v>2512.766150093556</v>
+        <v>2452.406472187544</v>
       </c>
       <c r="O6" t="n">
-        <v>50.12749894113566</v>
+        <v>49.52177775673591</v>
       </c>
       <c r="P6" t="n">
-        <v>325.5627277781889</v>
+        <v>324.7565261452804</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -32820,28 +33365,28 @@
         <v>0.0527</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.09828283142517212</v>
+        <v>-0.0333088268609489</v>
       </c>
       <c r="J7" t="n">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="K7" t="n">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0007386217215001878</v>
+        <v>8.803751012154137e-05</v>
       </c>
       <c r="M7" t="n">
-        <v>18.06399284646548</v>
+        <v>17.87041904406749</v>
       </c>
       <c r="N7" t="n">
-        <v>629.9712209860604</v>
+        <v>623.256792555658</v>
       </c>
       <c r="O7" t="n">
-        <v>25.09922749779484</v>
+        <v>24.96511150697425</v>
       </c>
       <c r="P7" t="n">
-        <v>330.1327108133834</v>
+        <v>329.4881446992703</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -32897,28 +33442,28 @@
         <v>0.0386</v>
       </c>
       <c r="I8" t="n">
-        <v>0.338854198672876</v>
+        <v>0.3421455280966605</v>
       </c>
       <c r="J8" t="n">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="K8" t="n">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02227053615717456</v>
+        <v>0.02367634117685968</v>
       </c>
       <c r="M8" t="n">
-        <v>11.93524584266357</v>
+        <v>11.77975674476831</v>
       </c>
       <c r="N8" t="n">
-        <v>246.4488482534435</v>
+        <v>242.1646916012051</v>
       </c>
       <c r="O8" t="n">
-        <v>15.69868938011844</v>
+        <v>15.56164167436087</v>
       </c>
       <c r="P8" t="n">
-        <v>328.1387712552129</v>
+        <v>328.1066907200981</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -32974,28 +33519,28 @@
         <v>0.0507</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1620542051434639</v>
+        <v>0.2006588107661376</v>
       </c>
       <c r="J9" t="n">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="K9" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0007846773733936052</v>
+        <v>0.001404189360790897</v>
       </c>
       <c r="M9" t="n">
-        <v>22.47167980409794</v>
+        <v>20.04272354738519</v>
       </c>
       <c r="N9" t="n">
-        <v>1657.703263691353</v>
+        <v>1441.451103596387</v>
       </c>
       <c r="O9" t="n">
-        <v>40.71490223114079</v>
+        <v>37.96644707628549</v>
       </c>
       <c r="P9" t="n">
-        <v>307.5438442308637</v>
+        <v>304.0825908974669</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -33045,28 +33590,28 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>0.1504463140291234</v>
+        <v>0.3815620264806118</v>
       </c>
       <c r="J10" t="n">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="K10" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L10" t="n">
-        <v>0.002799130039392916</v>
+        <v>0.02615908420790758</v>
       </c>
       <c r="M10" t="n">
-        <v>12.08066067853566</v>
+        <v>10.80042191944113</v>
       </c>
       <c r="N10" t="n">
-        <v>420.5567595609143</v>
+        <v>286.2772905148148</v>
       </c>
       <c r="O10" t="n">
-        <v>20.50748057565615</v>
+        <v>16.91973080503395</v>
       </c>
       <c r="P10" t="n">
-        <v>319.9581840923062</v>
+        <v>317.7807083874827</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -33116,28 +33661,28 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>0.17963560692022</v>
+        <v>0.2508187787378225</v>
       </c>
       <c r="J11" t="n">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="K11" t="n">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="L11" t="n">
-        <v>0.007541688061992846</v>
+        <v>0.01543442514566562</v>
       </c>
       <c r="M11" t="n">
-        <v>11.01555006184468</v>
+        <v>10.71945973516901</v>
       </c>
       <c r="N11" t="n">
-        <v>219.6431468550784</v>
+        <v>211.2649507902859</v>
       </c>
       <c r="O11" t="n">
-        <v>14.82036257502084</v>
+        <v>14.5349561674704</v>
       </c>
       <c r="P11" t="n">
-        <v>320.6923528005512</v>
+        <v>320.0206774175733</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -33193,28 +33738,28 @@
         <v>0.0576</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2453238223442638</v>
+        <v>0.2538546656325135</v>
       </c>
       <c r="J12" t="n">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="K12" t="n">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01922387636824585</v>
+        <v>0.02142294120040489</v>
       </c>
       <c r="M12" t="n">
-        <v>9.728645611356123</v>
+        <v>9.593094265839476</v>
       </c>
       <c r="N12" t="n">
-        <v>156.7864318186582</v>
+        <v>153.8340230019151</v>
       </c>
       <c r="O12" t="n">
-        <v>12.52143888771008</v>
+        <v>12.40298443931601</v>
       </c>
       <c r="P12" t="n">
-        <v>303.7483952453867</v>
+        <v>303.6663586852501</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -33270,28 +33815,28 @@
         <v>0.0663</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3026022369098275</v>
+        <v>0.361268905336069</v>
       </c>
       <c r="J13" t="n">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="K13" t="n">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="L13" t="n">
-        <v>0.006636223235350847</v>
+        <v>0.00984828877396593</v>
       </c>
       <c r="M13" t="n">
-        <v>19.74065185047843</v>
+        <v>19.50547161934493</v>
       </c>
       <c r="N13" t="n">
-        <v>686.825598939476</v>
+        <v>676.467897021358</v>
       </c>
       <c r="O13" t="n">
-        <v>26.20735772525487</v>
+        <v>26.00899646317324</v>
       </c>
       <c r="P13" t="n">
-        <v>287.1014557031666</v>
+        <v>286.5483976645298</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -33347,28 +33892,28 @@
         <v>0.0833</v>
       </c>
       <c r="I14" t="n">
-        <v>0.306365636423965</v>
+        <v>0.3089952716896814</v>
       </c>
       <c r="J14" t="n">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="K14" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L14" t="n">
-        <v>0.02817297417613174</v>
+        <v>0.02971212775269161</v>
       </c>
       <c r="M14" t="n">
-        <v>9.121966067752069</v>
+        <v>9.027230743160525</v>
       </c>
       <c r="N14" t="n">
-        <v>162.4411252881231</v>
+        <v>159.9762389535781</v>
       </c>
       <c r="O14" t="n">
-        <v>12.74523931858963</v>
+        <v>12.64817136797166</v>
       </c>
       <c r="P14" t="n">
-        <v>306.7332203900369</v>
+        <v>306.7083960898869</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -33418,28 +33963,28 @@
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="n">
-        <v>0.2770811273850146</v>
+        <v>0.2964043808991246</v>
       </c>
       <c r="J15" t="n">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="K15" t="n">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="L15" t="n">
-        <v>0.01013972581329203</v>
+        <v>0.0120506938486864</v>
       </c>
       <c r="M15" t="n">
-        <v>14.31634234422997</v>
+        <v>14.14204233893136</v>
       </c>
       <c r="N15" t="n">
-        <v>359.1395471123515</v>
+        <v>353.4389553446215</v>
       </c>
       <c r="O15" t="n">
-        <v>18.95097747115836</v>
+        <v>18.79997221659174</v>
       </c>
       <c r="P15" t="n">
-        <v>300.6728378128568</v>
+        <v>300.4838900123143</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -33495,28 +34040,28 @@
         <v>0.0466</v>
       </c>
       <c r="I16" t="n">
-        <v>0.534030252816976</v>
+        <v>0.7534072996649623</v>
       </c>
       <c r="J16" t="n">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="K16" t="n">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01487404704243545</v>
+        <v>0.0327603585687497</v>
       </c>
       <c r="M16" t="n">
-        <v>22.34484346538455</v>
+        <v>20.99900370924634</v>
       </c>
       <c r="N16" t="n">
-        <v>979.1874584891533</v>
+        <v>880.1693364025728</v>
       </c>
       <c r="O16" t="n">
-        <v>31.29197115058675</v>
+        <v>29.66764797557388</v>
       </c>
       <c r="P16" t="n">
-        <v>300.8637603244755</v>
+        <v>298.7781139779664</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -33572,28 +34117,28 @@
         <v>0.033</v>
       </c>
       <c r="I17" t="n">
-        <v>0.5951182442519964</v>
+        <v>0.6736794665206589</v>
       </c>
       <c r="J17" t="n">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="K17" t="n">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="L17" t="n">
-        <v>0.01540738746728332</v>
+        <v>0.02033157743877489</v>
       </c>
       <c r="M17" t="n">
-        <v>27.81946923334872</v>
+        <v>27.50640273257106</v>
       </c>
       <c r="N17" t="n">
-        <v>1164.801012699001</v>
+        <v>1150.83334533266</v>
       </c>
       <c r="O17" t="n">
-        <v>34.12918124858844</v>
+        <v>33.92393469709343</v>
       </c>
       <c r="P17" t="n">
-        <v>294.2036593525904</v>
+        <v>293.4367398964676</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -33649,28 +34194,28 @@
         <v>0.1387</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.3073671940231701</v>
+        <v>-0.09620481393521027</v>
       </c>
       <c r="J18" t="n">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="K18" t="n">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="L18" t="n">
-        <v>0.002600850766094398</v>
+        <v>0.0002592239629174431</v>
       </c>
       <c r="M18" t="n">
-        <v>38.39067099046959</v>
+        <v>38.4729261921531</v>
       </c>
       <c r="N18" t="n">
-        <v>1842.053239561039</v>
+        <v>1860.455421659973</v>
       </c>
       <c r="O18" t="n">
-        <v>42.91914770310612</v>
+        <v>43.13299690098027</v>
       </c>
       <c r="P18" t="n">
-        <v>282.103212861277</v>
+        <v>280.1006252371037</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -33726,28 +34271,28 @@
         <v>0.068</v>
       </c>
       <c r="I19" t="n">
-        <v>0.4275414214563757</v>
+        <v>0.4995911404033199</v>
       </c>
       <c r="J19" t="n">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="K19" t="n">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L19" t="n">
-        <v>0.01135485879194087</v>
+        <v>0.01588274975656911</v>
       </c>
       <c r="M19" t="n">
-        <v>21.5590434168802</v>
+        <v>21.41504945818773</v>
       </c>
       <c r="N19" t="n">
-        <v>817.3455078547357</v>
+        <v>810.5269555226137</v>
       </c>
       <c r="O19" t="n">
-        <v>28.58925511192511</v>
+        <v>28.46975510120545</v>
       </c>
       <c r="P19" t="n">
-        <v>290.6478521418485</v>
+        <v>289.9566207992785</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -33803,28 +34348,28 @@
         <v>0.0447</v>
       </c>
       <c r="I20" t="n">
-        <v>0.6432542735351462</v>
+        <v>0.6432420166114317</v>
       </c>
       <c r="J20" t="n">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="K20" t="n">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="L20" t="n">
-        <v>0.04763858161492929</v>
+        <v>0.04948189282852145</v>
       </c>
       <c r="M20" t="n">
-        <v>16.15541552885633</v>
+        <v>16.0233844971266</v>
       </c>
       <c r="N20" t="n">
-        <v>421.2683968966754</v>
+        <v>414.9648190311679</v>
       </c>
       <c r="O20" t="n">
-        <v>20.52482391877395</v>
+        <v>20.37068528624327</v>
       </c>
       <c r="P20" t="n">
-        <v>291.3806942645137</v>
+        <v>291.3804506317774</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -33880,28 +34425,28 @@
         <v>0.0387</v>
       </c>
       <c r="I21" t="n">
-        <v>0.307481544709685</v>
+        <v>0.2664208048097144</v>
       </c>
       <c r="J21" t="n">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="K21" t="n">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="L21" t="n">
-        <v>0.01530921758629911</v>
+        <v>0.01180288921680073</v>
       </c>
       <c r="M21" t="n">
-        <v>13.43387149770981</v>
+        <v>13.57448955873909</v>
       </c>
       <c r="N21" t="n">
-        <v>302.3758072547296</v>
+        <v>305.6015197571917</v>
       </c>
       <c r="O21" t="n">
-        <v>17.38895647400182</v>
+        <v>17.48146217446332</v>
       </c>
       <c r="P21" t="n">
-        <v>301.4193626811579</v>
+        <v>301.8096687920965</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -33957,28 +34502,28 @@
         <v>0.0469</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.1006318709230065</v>
+        <v>-0.06558815333240224</v>
       </c>
       <c r="J22" t="n">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="K22" t="n">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0009546853088735485</v>
+        <v>0.0004183120645097071</v>
       </c>
       <c r="M22" t="n">
-        <v>18.51707063132684</v>
+        <v>18.37333949688426</v>
       </c>
       <c r="N22" t="n">
-        <v>529.8872742587129</v>
+        <v>523.2318114259074</v>
       </c>
       <c r="O22" t="n">
-        <v>23.01928048959639</v>
+        <v>22.87426089354381</v>
       </c>
       <c r="P22" t="n">
-        <v>289.9672801680087</v>
+        <v>289.6175422901867</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -34028,28 +34573,28 @@
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="n">
-        <v>-0.2088483935764446</v>
+        <v>-0.1102377425143949</v>
       </c>
       <c r="J23" t="n">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="K23" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L23" t="n">
-        <v>0.003307151549233334</v>
+        <v>0.0009500283483054872</v>
       </c>
       <c r="M23" t="n">
-        <v>19.53100106203036</v>
+        <v>19.33105100902392</v>
       </c>
       <c r="N23" t="n">
-        <v>656.3481658077058</v>
+        <v>643.6429407406075</v>
       </c>
       <c r="O23" t="n">
-        <v>25.61929284363067</v>
+        <v>25.37011905255093</v>
       </c>
       <c r="P23" t="n">
-        <v>300.159063914481</v>
+        <v>299.162184392105</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -34105,28 +34650,28 @@
         <v>0.0385</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.1320037992914908</v>
+        <v>-0.09549925589392599</v>
       </c>
       <c r="J24" t="n">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="K24" t="n">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="L24" t="n">
-        <v>0.002579390516964764</v>
+        <v>0.001386669230613258</v>
       </c>
       <c r="M24" t="n">
-        <v>14.89754257246948</v>
+        <v>14.79647532370115</v>
       </c>
       <c r="N24" t="n">
-        <v>348.5135753883985</v>
+        <v>345.285733811938</v>
       </c>
       <c r="O24" t="n">
-        <v>18.66851829654401</v>
+        <v>18.58186572473114</v>
       </c>
       <c r="P24" t="n">
-        <v>312.7676693356335</v>
+        <v>312.4088394204858</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -34182,28 +34727,28 @@
         <v>0.037</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1655514468598444</v>
+        <v>0.1862176475897653</v>
       </c>
       <c r="J25" t="n">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="K25" t="n">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="L25" t="n">
-        <v>0.004107933147710963</v>
+        <v>0.00535935942120358</v>
       </c>
       <c r="M25" t="n">
-        <v>14.53267680225822</v>
+        <v>14.4266297056384</v>
       </c>
       <c r="N25" t="n">
-        <v>342.5905377769971</v>
+        <v>337.9102414500504</v>
       </c>
       <c r="O25" t="n">
-        <v>18.50920143542117</v>
+        <v>18.38233503802089</v>
       </c>
       <c r="P25" t="n">
-        <v>319.8032939154267</v>
+        <v>319.5992324042105</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -34259,28 +34804,28 @@
         <v>0.0867</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.2861794096822394</v>
+        <v>-0.230858906628477</v>
       </c>
       <c r="J26" t="n">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="K26" t="n">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="L26" t="n">
-        <v>0.007330367716959496</v>
+        <v>0.004890071325565182</v>
       </c>
       <c r="M26" t="n">
-        <v>19.20972564153484</v>
+        <v>19.11349616064228</v>
       </c>
       <c r="N26" t="n">
-        <v>579.6904294366832</v>
+        <v>575.7645620308871</v>
       </c>
       <c r="O26" t="n">
-        <v>24.07676119075577</v>
+        <v>23.99509454098665</v>
       </c>
       <c r="P26" t="n">
-        <v>326.316850079421</v>
+        <v>325.775993807037</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -34336,28 +34881,28 @@
         <v>0.0905</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.1676628754058176</v>
+        <v>-0.1286255293214601</v>
       </c>
       <c r="J27" t="n">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="K27" t="n">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="L27" t="n">
-        <v>0.005508056800471506</v>
+        <v>0.003338263146164366</v>
       </c>
       <c r="M27" t="n">
-        <v>12.29597505586808</v>
+        <v>12.2523006054515</v>
       </c>
       <c r="N27" t="n">
-        <v>264.6684666501459</v>
+        <v>262.3542484577139</v>
       </c>
       <c r="O27" t="n">
-        <v>16.26863444331287</v>
+        <v>16.19735313122838</v>
       </c>
       <c r="P27" t="n">
-        <v>326.3563199572568</v>
+        <v>325.977855937928</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -34413,28 +34958,28 @@
         <v>0.08359999999999999</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.01537963945283296</v>
+        <v>0.005692129787395161</v>
       </c>
       <c r="J28" t="n">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="K28" t="n">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="L28" t="n">
-        <v>5.176530793793432e-05</v>
+        <v>7.339027154218414e-06</v>
       </c>
       <c r="M28" t="n">
-        <v>11.83330457886944</v>
+        <v>11.69824782502</v>
       </c>
       <c r="N28" t="n">
-        <v>239.8807841446634</v>
+        <v>236.1921469812256</v>
       </c>
       <c r="O28" t="n">
-        <v>15.48808523170839</v>
+        <v>15.36854407487012</v>
       </c>
       <c r="P28" t="n">
-        <v>331.3266064630478</v>
+        <v>331.1241092507643</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -34484,28 +35029,28 @@
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="n">
-        <v>0.7298698741034938</v>
+        <v>0.7645482125603364</v>
       </c>
       <c r="J29" t="n">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="K29" t="n">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="L29" t="n">
-        <v>0.01417356571012096</v>
+        <v>0.01631098957997512</v>
       </c>
       <c r="M29" t="n">
-        <v>23.34934007504599</v>
+        <v>22.89665238681508</v>
       </c>
       <c r="N29" t="n">
-        <v>1984.810221846383</v>
+        <v>1937.745796454075</v>
       </c>
       <c r="O29" t="n">
-        <v>44.55120898299375</v>
+        <v>44.01983412569924</v>
       </c>
       <c r="P29" t="n">
-        <v>313.3911817538407</v>
+        <v>313.0669090730557</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -34555,28 +35100,28 @@
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="n">
-        <v>0.4331206969793907</v>
+        <v>0.7104900310644654</v>
       </c>
       <c r="J30" t="n">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="K30" t="n">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="L30" t="n">
-        <v>0.001544381218655078</v>
+        <v>0.004309672314743884</v>
       </c>
       <c r="M30" t="n">
-        <v>72.78798281032822</v>
+        <v>71.86849004541605</v>
       </c>
       <c r="N30" t="n">
-        <v>6192.041682676925</v>
+        <v>6107.428407738174</v>
       </c>
       <c r="O30" t="n">
-        <v>78.68952714737155</v>
+        <v>78.15003779742</v>
       </c>
       <c r="P30" t="n">
-        <v>265.8743858791232</v>
+        <v>263.1564292822638</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -34632,28 +35177,28 @@
         <v>0.1366</v>
       </c>
       <c r="I31" t="n">
-        <v>1.199531985422202</v>
+        <v>1.486900601718696</v>
       </c>
       <c r="J31" t="n">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="K31" t="n">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="L31" t="n">
-        <v>0.0149989564199452</v>
+        <v>0.02392593823871902</v>
       </c>
       <c r="M31" t="n">
-        <v>65.04399022864264</v>
+        <v>64.11777853897996</v>
       </c>
       <c r="N31" t="n">
-        <v>4681.675868499838</v>
+        <v>4606.795682697711</v>
       </c>
       <c r="O31" t="n">
-        <v>68.42277302550546</v>
+        <v>67.8733797795403</v>
       </c>
       <c r="P31" t="n">
-        <v>248.5288023935817</v>
+        <v>245.658211075302</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -34709,28 +35254,28 @@
         <v>0.0565</v>
       </c>
       <c r="I32" t="n">
-        <v>0.08383332805656364</v>
+        <v>0.2643643835695882</v>
       </c>
       <c r="J32" t="n">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="K32" t="n">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="L32" t="n">
-        <v>0.0001011804953325868</v>
+        <v>0.001058436386774941</v>
       </c>
       <c r="M32" t="n">
-        <v>52.26893186749304</v>
+        <v>51.4400031368064</v>
       </c>
       <c r="N32" t="n">
-        <v>3382.502942938744</v>
+        <v>3322.884410410552</v>
       </c>
       <c r="O32" t="n">
-        <v>58.15928939506348</v>
+        <v>57.64446556618035</v>
       </c>
       <c r="P32" t="n">
-        <v>288.9331258223153</v>
+        <v>287.1599899673068</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -34786,28 +35331,28 @@
         <v>0.068</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.4780983675279282</v>
+        <v>-0.307624239275484</v>
       </c>
       <c r="J33" t="n">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="K33" t="n">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="L33" t="n">
-        <v>0.003804658242564596</v>
+        <v>0.001669330522731216</v>
       </c>
       <c r="M33" t="n">
-        <v>47.67269265321715</v>
+        <v>46.76539769373871</v>
       </c>
       <c r="N33" t="n">
-        <v>2942.249162101798</v>
+        <v>2871.782031862133</v>
       </c>
       <c r="O33" t="n">
-        <v>54.24250328019345</v>
+        <v>53.58901036464597</v>
       </c>
       <c r="P33" t="n">
-        <v>306.3876848706888</v>
+        <v>304.6769416195522</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -34863,28 +35408,28 @@
         <v>0.0429</v>
       </c>
       <c r="I34" t="n">
-        <v>-1.511818934251351</v>
+        <v>-1.235532159303154</v>
       </c>
       <c r="J34" t="n">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="K34" t="n">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="L34" t="n">
-        <v>0.03979624965358819</v>
+        <v>0.02802474035057656</v>
       </c>
       <c r="M34" t="n">
-        <v>46.46176513533057</v>
+        <v>46.14596954393743</v>
       </c>
       <c r="N34" t="n">
-        <v>2918.22932217032</v>
+        <v>2887.859278481005</v>
       </c>
       <c r="O34" t="n">
-        <v>54.02063792820592</v>
+        <v>53.73880607606579</v>
       </c>
       <c r="P34" t="n">
-        <v>327.1348008569774</v>
+        <v>324.4735470608531</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -34921,7 +35466,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI326"/>
+  <dimension ref="A1:AI331"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76699,11 +77244,7 @@
         </is>
       </c>
       <c r="C323" t="inlineStr"/>
-      <c r="D323" t="inlineStr">
-        <is>
-          <t>-38.286761195886314,174.71587504222086</t>
-        </is>
-      </c>
+      <c r="D323" t="inlineStr"/>
       <c r="E323" t="inlineStr">
         <is>
           <t>-38.28603743170102,174.71514999794962</t>
@@ -76720,16 +77261,8 @@
           <t>-38.28393066949323,174.7155274285168</t>
         </is>
       </c>
-      <c r="I323" t="inlineStr">
-        <is>
-          <t>-38.28326444796449,174.7170784639247</t>
-        </is>
-      </c>
-      <c r="J323" t="inlineStr">
-        <is>
-          <t>-38.28255017807036,174.71672994102443</t>
-        </is>
-      </c>
+      <c r="I323" t="inlineStr"/>
+      <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr"/>
       <c r="L323" t="inlineStr"/>
       <c r="M323" t="inlineStr"/>
@@ -76743,11 +77276,7 @@
           <t>-38.2790039622429,174.7160226293316</t>
         </is>
       </c>
-      <c r="P323" t="inlineStr">
-        <is>
-          <t>-38.278221979255676,174.71673866075278</t>
-        </is>
-      </c>
+      <c r="P323" t="inlineStr"/>
       <c r="Q323" t="inlineStr">
         <is>
           <t>-38.2774421346151,174.71648935480187</t>
@@ -76852,21 +77381,13 @@
           <t>-38.28746139098894,174.71566862684773</t>
         </is>
       </c>
-      <c r="D324" t="inlineStr">
-        <is>
-          <t>-38.28676037676725,174.7158426573201</t>
-        </is>
-      </c>
+      <c r="D324" t="inlineStr"/>
       <c r="E324" t="inlineStr">
         <is>
           <t>-38.286033158380754,174.7149810958225</t>
         </is>
       </c>
-      <c r="F324" t="inlineStr">
-        <is>
-          <t>-38.28534142210045,174.71552237069753</t>
-        </is>
-      </c>
+      <c r="F324" t="inlineStr"/>
       <c r="G324" t="inlineStr">
         <is>
           <t>-38.28463232744752,174.715377784114</t>
@@ -76877,21 +77398,9 @@
           <t>-38.283923917364355,174.71526053959857</t>
         </is>
       </c>
-      <c r="I324" t="inlineStr">
-        <is>
-          <t>-38.283261445098866,174.7169597080681</t>
-        </is>
-      </c>
-      <c r="J324" t="inlineStr">
-        <is>
-          <t>-38.28253903636817,174.71628939986866</t>
-        </is>
-      </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>-38.28182007382749,174.71575576487558</t>
-        </is>
-      </c>
+      <c r="I324" t="inlineStr"/>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="inlineStr"/>
       <c r="M324" t="inlineStr"/>
       <c r="N324" t="inlineStr">
@@ -76904,11 +77413,7 @@
           <t>-38.27899981655418,174.7158518676857</t>
         </is>
       </c>
-      <c r="P324" t="inlineStr">
-        <is>
-          <t>-38.27822880915062,174.7165413400758</t>
-        </is>
-      </c>
+      <c r="P324" t="inlineStr"/>
       <c r="Q324" t="inlineStr">
         <is>
           <t>-38.277469503700914,174.7161945577343</t>
@@ -77009,11 +77514,7 @@
           <t>-38.287455568804035,174.71543845825914</t>
         </is>
       </c>
-      <c r="D325" t="inlineStr">
-        <is>
-          <t>-38.28676884816389,174.71617760176122</t>
-        </is>
-      </c>
+      <c r="D325" t="inlineStr"/>
       <c r="E325" t="inlineStr"/>
       <c r="F325" t="inlineStr"/>
       <c r="G325" t="inlineStr"/>
@@ -77046,7 +77547,11 @@
           <t>-38.27537570942636,174.71580250559242</t>
         </is>
       </c>
-      <c r="U325" t="inlineStr"/>
+      <c r="U325" t="inlineStr">
+        <is>
+          <t>-38.274678567737446,174.71566316911148</t>
+        </is>
+      </c>
       <c r="V325" t="inlineStr">
         <is>
           <t>-38.27395554656499,174.71580251465437</t>
@@ -77133,11 +77638,7 @@
           <t>-38.273985348356966,174.7154815107622</t>
         </is>
       </c>
-      <c r="W326" t="inlineStr">
-        <is>
-          <t>-38.27324576066875,174.71579922473038</t>
-        </is>
-      </c>
+      <c r="W326" t="inlineStr"/>
       <c r="X326" t="inlineStr"/>
       <c r="Y326" t="inlineStr">
         <is>
@@ -77160,18 +77661,827 @@
           <t>-38.26913159403221,174.71422097625214</t>
         </is>
       </c>
-      <c r="AD326" t="inlineStr"/>
-      <c r="AE326" t="inlineStr"/>
+      <c r="AD326" t="inlineStr">
+        <is>
+          <t>-38.2684288925337,174.71414087203513</t>
+        </is>
+      </c>
+      <c r="AE326" t="inlineStr">
+        <is>
+          <t>-38.26771088028893,174.71422561850935</t>
+        </is>
+      </c>
       <c r="AF326" t="inlineStr">
         <is>
           <t>-38.26700954781083,174.7141306210724</t>
         </is>
       </c>
-      <c r="AG326" t="inlineStr"/>
-      <c r="AH326" t="inlineStr"/>
+      <c r="AG326" t="inlineStr">
+        <is>
+          <t>-38.26631404236057,174.71397278386132</t>
+        </is>
+      </c>
+      <c r="AH326" t="inlineStr">
+        <is>
+          <t>-38.26562655979739,174.71372845271964</t>
+        </is>
+      </c>
       <c r="AI326" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="inlineStr">
+        <is>
+          <t>2024-11-27 22:06:42+00:00</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>-38.288152434950035,174.71510074156626</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>-38.287448001743876,174.71513933624095</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>-38.28673944332468,174.71501514770313</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>-38.28602902002324,174.71481753726331</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>-38.28532339619414,174.71480989149097</t>
+        </is>
+      </c>
+      <c r="G327" t="inlineStr">
+        <is>
+          <t>-38.28462428579052,174.71505993645948</t>
+        </is>
+      </c>
+      <c r="H327" t="inlineStr">
+        <is>
+          <t>-38.28391985390153,174.71509993620165</t>
+        </is>
+      </c>
+      <c r="I327" t="inlineStr">
+        <is>
+          <t>-38.28321868284391,174.7152690847739</t>
+        </is>
+      </c>
+      <c r="J327" t="inlineStr">
+        <is>
+          <t>-38.282512396803156,174.71523634162807</t>
+        </is>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>-38.281808447979046,174.7152962434394</t>
+        </is>
+      </c>
+      <c r="L327" t="inlineStr">
+        <is>
+          <t>-38.28110736270736,174.71546959279164</t>
+        </is>
+      </c>
+      <c r="M327" t="inlineStr">
+        <is>
+          <t>-38.28040269947304,174.71550179809554</t>
+        </is>
+      </c>
+      <c r="N327" t="inlineStr">
+        <is>
+          <t>-38.27969698463613,174.71549271110658</t>
+        </is>
+      </c>
+      <c r="O327" t="inlineStr">
+        <is>
+          <t>-38.27899333085437,174.7155847411741</t>
+        </is>
+      </c>
+      <c r="P327" t="inlineStr">
+        <is>
+          <t>-38.27826278261727,174.7155596787589</t>
+        </is>
+      </c>
+      <c r="Q327" t="inlineStr">
+        <is>
+          <t>-38.27754751789124,174.71535420877677</t>
+        </is>
+      </c>
+      <c r="R327" t="inlineStr">
+        <is>
+          <t>-38.27682794083156,174.71545676471155</t>
+        </is>
+      </c>
+      <c r="S327" t="inlineStr">
+        <is>
+          <t>-38.27612391091703,174.71539177230147</t>
+        </is>
+      </c>
+      <c r="T327" t="inlineStr">
+        <is>
+          <t>-38.27541697636624,174.71535799498596</t>
+        </is>
+      </c>
+      <c r="U327" t="inlineStr">
+        <is>
+          <t>-38.27470783018401,174.71534796720312</t>
+        </is>
+      </c>
+      <c r="V327" t="inlineStr">
+        <is>
+          <t>-38.273994885167625,174.71537878491398</t>
+        </is>
+      </c>
+      <c r="W327" t="inlineStr">
+        <is>
+          <t>-38.27330000325579,174.71521496074456</t>
+        </is>
+      </c>
+      <c r="X327" t="inlineStr">
+        <is>
+          <t>-38.272620591497756,174.71488442288725</t>
+        </is>
+      </c>
+      <c r="Y327" t="inlineStr">
+        <is>
+          <t>-38.27193619763529,174.71460747507783</t>
+        </is>
+      </c>
+      <c r="Z327" t="inlineStr">
+        <is>
+          <t>-38.27123545660785,174.7145065446545</t>
+        </is>
+      </c>
+      <c r="AA327" t="inlineStr">
+        <is>
+          <t>-38.27053909217382,174.7143583966804</t>
+        </is>
+      </c>
+      <c r="AB327" t="inlineStr">
+        <is>
+          <t>-38.269838710850784,174.71425344570636</t>
+        </is>
+      </c>
+      <c r="AC327" t="inlineStr">
+        <is>
+          <t>-38.26914276546146,174.71410063785763</t>
+        </is>
+      </c>
+      <c r="AD327" t="inlineStr">
+        <is>
+          <t>-38.26843288691762,174.71409784491678</t>
+        </is>
+      </c>
+      <c r="AE327" t="inlineStr">
+        <is>
+          <t>-38.267731075732556,174.7140080774458</t>
+        </is>
+      </c>
+      <c r="AF327" t="inlineStr">
+        <is>
+          <t>-38.26701857778943,174.71403335278126</t>
+        </is>
+      </c>
+      <c r="AG327" t="inlineStr">
+        <is>
+          <t>-38.26632224802676,174.7138843945055</t>
+        </is>
+      </c>
+      <c r="AH327" t="inlineStr">
+        <is>
+          <t>-38.26563372453392,174.7136512750979</t>
+        </is>
+      </c>
+      <c r="AI327" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:06:30+00:00</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>-38.288152270698774,174.7150942490787</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>-38.28744689754819,174.71509569047942</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>-38.286740253679525,174.71504717713452</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>-38.286023086941015,174.71458306233163</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>-38.28531507552697,174.7144810725751</t>
+        </is>
+      </c>
+      <c r="G328" t="inlineStr">
+        <is>
+          <t>-38.2846168330459,174.71476539614312</t>
+        </is>
+      </c>
+      <c r="H328" t="inlineStr">
+        <is>
+          <t>-38.28391605865945,174.71494994177758</t>
+        </is>
+      </c>
+      <c r="I328" t="inlineStr">
+        <is>
+          <t>-38.28322113501504,174.71536600624825</t>
+        </is>
+      </c>
+      <c r="J328" t="inlineStr">
+        <is>
+          <t>-38.28250976003582,174.71513213097697</t>
+        </is>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>-38.28180217966002,174.7150485124768</t>
+        </is>
+      </c>
+      <c r="L328" t="inlineStr">
+        <is>
+          <t>-38.28110886865807,174.71552911494044</t>
+        </is>
+      </c>
+      <c r="M328" t="inlineStr">
+        <is>
+          <t>-38.28040523363868,174.71560195968146</t>
+        </is>
+      </c>
+      <c r="N328" t="inlineStr">
+        <is>
+          <t>-38.27970003867334,174.715613417793</t>
+        </is>
+      </c>
+      <c r="O328" t="inlineStr">
+        <is>
+          <t>-38.27899412262823,174.71561735061678</t>
+        </is>
+      </c>
+      <c r="P328" t="inlineStr">
+        <is>
+          <t>-38.27826104736157,174.71560982463984</t>
+        </is>
+      </c>
+      <c r="Q328" t="inlineStr">
+        <is>
+          <t>-38.27752814926364,174.7155628488933</t>
+        </is>
+      </c>
+      <c r="R328" t="inlineStr">
+        <is>
+          <t>-38.27686466472265,174.71506116943021</t>
+        </is>
+      </c>
+      <c r="S328" t="inlineStr">
+        <is>
+          <t>-38.27614076078534,174.7152102656712</t>
+        </is>
+      </c>
+      <c r="T328" t="inlineStr">
+        <is>
+          <t>-38.275403445715384,174.7155037436742</t>
+        </is>
+      </c>
+      <c r="U328" t="inlineStr">
+        <is>
+          <t>-38.27470493077347,174.71537919876616</t>
+        </is>
+      </c>
+      <c r="V328" t="inlineStr">
+        <is>
+          <t>-38.2740166350843,174.71514450176127</t>
+        </is>
+      </c>
+      <c r="W328" t="inlineStr">
+        <is>
+          <t>-38.273327917285116,174.71491427742737</t>
+        </is>
+      </c>
+      <c r="X328" t="inlineStr">
+        <is>
+          <t>-38.27263048457295,174.71477785583755</t>
+        </is>
+      </c>
+      <c r="Y328" t="inlineStr">
+        <is>
+          <t>-38.27194656463861,174.714495801204</t>
+        </is>
+      </c>
+      <c r="Z328" t="inlineStr">
+        <is>
+          <t>-38.271249844123105,174.71435156152006</t>
+        </is>
+      </c>
+      <c r="AA328" t="inlineStr">
+        <is>
+          <t>-38.270535319942496,174.71439903112295</t>
+        </is>
+      </c>
+      <c r="AB328" t="inlineStr">
+        <is>
+          <t>-38.26983914737733,174.71424874344072</t>
+        </is>
+      </c>
+      <c r="AC328" t="inlineStr">
+        <is>
+          <t>-38.26914727835084,174.71405202472428</t>
+        </is>
+      </c>
+      <c r="AD328" t="inlineStr">
+        <is>
+          <t>-38.268433724107844,174.7140888267623</t>
+        </is>
+      </c>
+      <c r="AE328" t="inlineStr">
+        <is>
+          <t>-38.267733225206605,174.713984923502</t>
+        </is>
+      </c>
+      <c r="AF328" t="inlineStr">
+        <is>
+          <t>-38.26702610095431,174.7139523147677</t>
+        </is>
+      </c>
+      <c r="AG328" t="inlineStr">
+        <is>
+          <t>-38.26631670227273,174.71394413204234</t>
+        </is>
+      </c>
+      <c r="AH328" t="inlineStr">
+        <is>
+          <t>-38.26560049086926,174.71400925913665</t>
+        </is>
+      </c>
+      <c r="AI328" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:06:37+00:00</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>-38.28815344782476,174.71514077857316</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>-38.287448251775466,174.71514921937813</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>-38.286735781362125,174.7148704122552</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>-38.28602769707934,174.71476525301668</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>-38.285321996952675,174.71475459324103</t>
+        </is>
+      </c>
+      <c r="G329" t="inlineStr">
+        <is>
+          <t>-38.284622993610576,174.71500886604542</t>
+        </is>
+      </c>
+      <c r="H329" t="inlineStr">
+        <is>
+          <t>-38.28391936412375,174.71508057892294</t>
+        </is>
+      </c>
+      <c r="I329" t="inlineStr">
+        <is>
+          <t>-38.283216905732445,174.71519884685628</t>
+        </is>
+      </c>
+      <c r="J329" t="inlineStr">
+        <is>
+          <t>-38.28251226507025,174.7152311351757</t>
+        </is>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>-38.28180698469051,174.71523841078735</t>
+        </is>
+      </c>
+      <c r="L329" t="inlineStr">
+        <is>
+          <t>-38.28110705342007,174.71545736847335</t>
+        </is>
+      </c>
+      <c r="M329" t="inlineStr">
+        <is>
+          <t>-38.28040568901213,174.7156199584405</t>
+        </is>
+      </c>
+      <c r="N329" t="inlineStr">
+        <is>
+          <t>-38.27969746818657,174.7155118224542</t>
+        </is>
+      </c>
+      <c r="O329" t="inlineStr">
+        <is>
+          <t>-38.2789946292055,174.7156382143495</t>
+        </is>
+      </c>
+      <c r="P329" t="inlineStr">
+        <is>
+          <t>-38.27826776698362,174.71541563575846</t>
+        </is>
+      </c>
+      <c r="Q329" t="inlineStr">
+        <is>
+          <t>-38.277570289783306,174.71510890323535</t>
+        </is>
+      </c>
+      <c r="R329" t="inlineStr">
+        <is>
+          <t>-38.27683011866025,174.71543330522385</t>
+        </is>
+      </c>
+      <c r="S329" t="inlineStr">
+        <is>
+          <t>-38.27613518985704,174.71527027600385</t>
+        </is>
+      </c>
+      <c r="T329" t="inlineStr">
+        <is>
+          <t>-38.275438346840865,174.71512779366276</t>
+        </is>
+      </c>
+      <c r="U329" t="inlineStr">
+        <is>
+          <t>-38.27474096507269,174.714991041805</t>
+        </is>
+      </c>
+      <c r="V329" t="inlineStr"/>
+      <c r="W329" t="inlineStr"/>
+      <c r="X329" t="inlineStr">
+        <is>
+          <t>-38.27262162867951,174.7148732505368</t>
+        </is>
+      </c>
+      <c r="Y329" t="inlineStr">
+        <is>
+          <t>-38.27193568583045,174.7146129882346</t>
+        </is>
+      </c>
+      <c r="Z329" t="inlineStr">
+        <is>
+          <t>-38.271230522236365,174.71455969746506</t>
+        </is>
+      </c>
+      <c r="AA329" t="inlineStr">
+        <is>
+          <t>-38.27053746421538,174.71437593305353</t>
+        </is>
+      </c>
+      <c r="AB329" t="inlineStr">
+        <is>
+          <t>-38.26984482973175,174.71418753290814</t>
+        </is>
+      </c>
+      <c r="AC329" t="inlineStr">
+        <is>
+          <t>-38.269138531653674,174.71414624450387</t>
+        </is>
+      </c>
+      <c r="AD329" t="inlineStr">
+        <is>
+          <t>-38.2684381188663,174.7140414866065</t>
+        </is>
+      </c>
+      <c r="AE329" t="inlineStr">
+        <is>
+          <t>-38.26772976567506,174.71402218924413</t>
+        </is>
+      </c>
+      <c r="AF329" t="inlineStr">
+        <is>
+          <t>-38.26703684823622,174.71383654614428</t>
+        </is>
+      </c>
+      <c r="AG329" t="inlineStr">
+        <is>
+          <t>-38.26632316236498,174.7138745454405</t>
+        </is>
+      </c>
+      <c r="AH329" t="inlineStr">
+        <is>
+          <t>-38.2656401456604,174.713582107072</t>
+        </is>
+      </c>
+      <c r="AI329" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-22 22:06:25+00:00</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>-38.28815175549843,174.71507388444397</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>-38.28744600001588,174.71506021401672</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>-38.286740090838414,174.71504074078027</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>-38.28602959309155,174.71484018586062</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>-38.28532148524008,174.7147343705342</t>
+        </is>
+      </c>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>-38.28462185751451,174.71496396521243</t>
+        </is>
+      </c>
+      <c r="H330" t="inlineStr">
+        <is>
+          <t>-38.283919045312196,174.71506797873823</t>
+        </is>
+      </c>
+      <c r="I330" t="inlineStr">
+        <is>
+          <t>-38.28321943729253,174.71529890383613</t>
+        </is>
+      </c>
+      <c r="J330" t="inlineStr">
+        <is>
+          <t>-38.28251403208915,174.71530097345132</t>
+        </is>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>-38.281807372245446,174.71525372777302</t>
+        </is>
+      </c>
+      <c r="L330" t="inlineStr">
+        <is>
+          <t>-38.28110918371879,174.715541567751</t>
+        </is>
+      </c>
+      <c r="M330" t="inlineStr">
+        <is>
+          <t>-38.28040536659855,174.7156072149452</t>
+        </is>
+      </c>
+      <c r="N330" t="inlineStr">
+        <is>
+          <t>-38.2796985170384,174.71555327661608</t>
+        </is>
+      </c>
+      <c r="O330" t="inlineStr">
+        <is>
+          <t>-38.278993657789115,174.715598206034</t>
+        </is>
+      </c>
+      <c r="P330" t="inlineStr">
+        <is>
+          <t>-38.278264599137245,174.7155071838157</t>
+        </is>
+      </c>
+      <c r="Q330" t="inlineStr">
+        <is>
+          <t>-38.27753194293028,174.71552198359194</t>
+        </is>
+      </c>
+      <c r="R330" t="inlineStr">
+        <is>
+          <t>-38.27684838413677,174.7152365481684</t>
+        </is>
+      </c>
+      <c r="S330" t="inlineStr">
+        <is>
+          <t>-38.276143785091136,174.7151776875481</t>
+        </is>
+      </c>
+      <c r="T330" t="inlineStr">
+        <is>
+          <t>-38.27541210788175,174.715410437278</t>
+        </is>
+      </c>
+      <c r="U330" t="inlineStr">
+        <is>
+          <t>-38.274708775576734,174.7153377837022</t>
+        </is>
+      </c>
+      <c r="V330" t="inlineStr">
+        <is>
+          <t>-38.274008984730564,174.71522690951605</t>
+        </is>
+      </c>
+      <c r="W330" t="inlineStr">
+        <is>
+          <t>-38.27333774865785,174.71480837418144</t>
+        </is>
+      </c>
+      <c r="X330" t="inlineStr">
+        <is>
+          <t>-38.27263950296351,174.71468070985745</t>
+        </is>
+      </c>
+      <c r="Y330" t="inlineStr">
+        <is>
+          <t>-38.27194388671944,174.71452464799435</t>
+        </is>
+      </c>
+      <c r="Z330" t="inlineStr">
+        <is>
+          <t>-38.27125228266486,174.71432529318537</t>
+        </is>
+      </c>
+      <c r="AA330" t="inlineStr">
+        <is>
+          <t>-38.27054635736765,174.71428013563877</t>
+        </is>
+      </c>
+      <c r="AB330" t="inlineStr">
+        <is>
+          <t>-38.26983425224818,174.71430147367104</t>
+        </is>
+      </c>
+      <c r="AC330" t="inlineStr">
+        <is>
+          <t>-38.26913978111644,174.7141327852911</t>
+        </is>
+      </c>
+      <c r="AD330" t="inlineStr">
+        <is>
+          <t>-38.26843648472338,174.71405908955097</t>
+        </is>
+      </c>
+      <c r="AE330" t="inlineStr">
+        <is>
+          <t>-38.26773276159494,174.71398991749</t>
+        </is>
+      </c>
+      <c r="AF330" t="inlineStr">
+        <is>
+          <t>-38.26703003110095,174.71390997977556</t>
+        </is>
+      </c>
+      <c r="AG330" t="inlineStr">
+        <is>
+          <t>-38.266319603348585,174.7139128823885</t>
+        </is>
+      </c>
+      <c r="AH330" t="inlineStr">
+        <is>
+          <t>-38.26561655768064,174.71383619329956</t>
+        </is>
+      </c>
+      <c r="AI330" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:06:08+00:00</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr"/>
+      <c r="C331" t="inlineStr"/>
+      <c r="D331" t="inlineStr"/>
+      <c r="E331" t="inlineStr"/>
+      <c r="F331" t="inlineStr"/>
+      <c r="G331" t="inlineStr"/>
+      <c r="H331" t="inlineStr"/>
+      <c r="I331" t="inlineStr"/>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
+      <c r="L331" t="inlineStr"/>
+      <c r="M331" t="inlineStr"/>
+      <c r="N331" t="inlineStr"/>
+      <c r="O331" t="inlineStr"/>
+      <c r="P331" t="inlineStr"/>
+      <c r="Q331" t="inlineStr"/>
+      <c r="R331" t="inlineStr"/>
+      <c r="S331" t="inlineStr"/>
+      <c r="T331" t="inlineStr">
+        <is>
+          <t>-38.275427904026934,174.71524028357882</t>
+        </is>
+      </c>
+      <c r="U331" t="inlineStr">
+        <is>
+          <t>-38.274732375485904,174.71508356904562</t>
+        </is>
+      </c>
+      <c r="V331" t="inlineStr">
+        <is>
+          <t>-38.27400623438271,174.7152565354397</t>
+        </is>
+      </c>
+      <c r="W331" t="inlineStr"/>
+      <c r="X331" t="inlineStr"/>
+      <c r="Y331" t="inlineStr">
+        <is>
+          <t>-38.27191851914471,174.7147979059485</t>
+        </is>
+      </c>
+      <c r="Z331" t="inlineStr"/>
+      <c r="AA331" t="inlineStr">
+        <is>
+          <t>-38.27052834970735,174.71447411402596</t>
+        </is>
+      </c>
+      <c r="AB331" t="inlineStr">
+        <is>
+          <t>-38.269842642593524,174.71421109288394</t>
+        </is>
+      </c>
+      <c r="AC331" t="inlineStr">
+        <is>
+          <t>-38.26913673452216,174.7141656031746</t>
+        </is>
+      </c>
+      <c r="AD331" t="inlineStr">
+        <is>
+          <t>-38.26842824212773,174.71414787812895</t>
+        </is>
+      </c>
+      <c r="AE331" t="inlineStr">
+        <is>
+          <t>-38.26771681603479,174.71416168036734</t>
+        </is>
+      </c>
+      <c r="AF331" t="inlineStr">
+        <is>
+          <t>-38.26698875853568,174.71435455368623</t>
+        </is>
+      </c>
+      <c r="AG331" t="inlineStr">
+        <is>
+          <t>-38.266310093455246,174.71401532020622</t>
+        </is>
+      </c>
+      <c r="AH331" t="inlineStr">
+        <is>
+          <t>-38.26565259795452,174.7134479703526</t>
+        </is>
+      </c>
+      <c r="AI331" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>

--- a/data/nzd0252/nzd0252.xlsx
+++ b/data/nzd0252/nzd0252.xlsx
@@ -32837,7 +32837,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W34"/>
+  <dimension ref="A1:X34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32928,35 +32928,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -33015,27 +33020,28 @@
       <c r="P2" t="n">
         <v>316.0059032377695</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (174.71866582529884 -38.28824257233811, 174.70821942471025 -38.28797814450385)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>174.7186658252988</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-38.28824257233811</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>174.7082194247103</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-38.28797814450385</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>174.7134426250045</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-38.28811035842098</v>
       </c>
     </row>
@@ -33092,27 +33098,28 @@
       <c r="P3" t="n">
         <v>307.8005342702012</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (174.71870560866867 -38.287538169935765, 174.70825927444886 -38.28727374164372)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>174.7187056086687</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-38.28753816993576</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>174.7082592744489</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-38.28727374164372</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>174.7134824415588</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-38.28740595578974</v>
       </c>
     </row>
@@ -33169,27 +33176,28 @@
       <c r="P4" t="n">
         <v>325.2727021876511</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (174.71874539203907 -38.2868337606972, 174.70829912418637 -38.28656933194726)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>174.7187453920391</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-38.2868337606972</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>174.7082991241864</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-38.28656933194726</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>174.7135222581127</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-38.28670154632223</v>
       </c>
     </row>
@@ -33240,27 +33248,28 @@
       <c r="P5" t="n">
         <v>339.3097694554058</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (174.71878517540998 -38.28612934462238, 174.7083389739228 -38.285864915414614)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>174.71878517541</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-38.28612934462238</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>174.7083389739228</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-38.28586491541461</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>174.7135620746664</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-38.2859971300185</v>
       </c>
     </row>
@@ -33311,27 +33320,28 @@
       <c r="P6" t="n">
         <v>324.7565261452804</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (174.71882495878148 -38.28542492171147, 174.70837882365805 -38.285160492045605)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>174.7188249587815</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-38.28542492171147</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>174.7083788236581</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-38.28516049204561</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>174.7136018912198</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-38.28529270687854</v>
       </c>
     </row>
@@ -33388,27 +33398,28 @@
       <c r="P7" t="n">
         <v>329.4881446992703</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (174.71886474215347 -38.28472049196445, 174.70841867339217 -38.28445606184041)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>174.7188647421535</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-38.28472049196445</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>174.7084186733922</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-38.28445606184041</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>174.7136417077728</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-38.28458827690243</v>
       </c>
     </row>
@@ -33465,27 +33476,28 @@
       <c r="P8" t="n">
         <v>328.1066907200981</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (174.71890452552603 -38.28401605538136, 174.7084585231252 -38.28375162479903)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>174.718904525526</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-38.28401605538136</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>174.7084585231252</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-38.28375162479903</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>174.7136815243256</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-38.2838838400902</v>
       </c>
     </row>
@@ -33542,27 +33554,28 @@
       <c r="P9" t="n">
         <v>304.0825908974669</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (174.7189443088992 -38.2833116119623, 174.70849837285715 -38.283047180921436)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>174.7189443088992</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-38.2833116119623</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>174.7084983728572</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-38.28304718092144</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>174.7137213408782</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-38.28317939644187</v>
       </c>
     </row>
@@ -33613,27 +33626,28 @@
       <c r="P10" t="n">
         <v>317.7807083874827</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (174.71898409227293 -38.28260716170718, 174.70853822258795 -38.28234273020787)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>174.7189840922729</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-38.28260716170718</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>174.7085382225879</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-38.28234273020787</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>174.7137611574304</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-38.28247494595753</v>
       </c>
     </row>
@@ -33684,27 +33698,28 @@
       <c r="P11" t="n">
         <v>320.0206774175733</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (174.7190238756472 -38.28190270461613, 174.70857807231766 -38.281638272658235)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>174.7190238756472</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-38.28190270461613</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>174.7085780723177</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-38.28163827265823</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>174.7138009739824</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-38.28177048863718</v>
       </c>
     </row>
@@ -33761,27 +33776,28 @@
       <c r="P12" t="n">
         <v>303.6663586852501</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (174.719063659022 -38.28119824068915, 174.7086179220463 -38.28093380827261)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>174.719063659022</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-38.28119824068915</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>174.7086179220463</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-38.28093380827261</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>174.7138407905342</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-38.28106602448088</v>
       </c>
     </row>
@@ -33838,27 +33854,28 @@
       <c r="P13" t="n">
         <v>286.5483976645298</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (174.7191034423974 -38.2804937699263, 174.70865777177374 -38.28022933705102)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>174.7191034423974</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-38.2804937699263</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>174.7086577717737</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-38.28022933705102</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>174.7138806070856</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-38.28036155348866</v>
       </c>
     </row>
@@ -33915,27 +33932,28 @@
       <c r="P14" t="n">
         <v>306.7083960898869</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
         <is>
           <t>LINESTRING (174.7191432257733 -38.279789292327614, 174.70869762150014 -38.279524858993476)</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>174.7191432257733</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>-38.27978929232761</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>174.7086976215001</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>-38.27952485899348</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>174.7139204236367</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>-38.27965707566054</v>
       </c>
     </row>
@@ -33986,27 +34004,28 @@
       <c r="P15" t="n">
         <v>300.4838900123143</v>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
         <is>
           <t>LINESTRING (174.71918318503955 -38.279080648037535, 174.70873722019422 -38.2788268681151)</t>
         </is>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>174.7191831850396</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>-38.27908064803754</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>174.7087372201942</v>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>-38.2788268681151</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>174.7139602026169</v>
       </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
         <v>-38.27895375807631</v>
       </c>
     </row>
@@ -34063,27 +34082,28 @@
       <c r="P16" t="n">
         <v>298.7781139779664</v>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
         <is>
           <t>LINESTRING (174.71921917775578 -38.278136092294474, 174.70877835809887 -38.27849724643933)</t>
         </is>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
         <v>174.7192191777558</v>
       </c>
-      <c r="S16" t="n">
+      <c r="T16" t="n">
         <v>-38.27813609229447</v>
       </c>
-      <c r="T16" t="n">
+      <c r="U16" t="n">
         <v>174.7087783580989</v>
       </c>
-      <c r="U16" t="n">
+      <c r="V16" t="n">
         <v>-38.27849724643933</v>
       </c>
-      <c r="V16" t="n">
+      <c r="W16" t="n">
         <v>174.7139987679273</v>
       </c>
-      <c r="W16" t="n">
+      <c r="X16" t="n">
         <v>-38.2783166693669</v>
       </c>
     </row>
@@ -34140,27 +34160,28 @@
       <c r="P17" t="n">
         <v>293.4367398964676</v>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr">
         <is>
           <t>LINESTRING (174.71910119825966 -38.27719961679469, 174.7087222531207 -38.27816298217586)</t>
         </is>
       </c>
-      <c r="R17" t="n">
+      <c r="S17" t="n">
         <v>174.7191011982597</v>
       </c>
-      <c r="S17" t="n">
+      <c r="T17" t="n">
         <v>-38.27719961679469</v>
       </c>
-      <c r="T17" t="n">
+      <c r="U17" t="n">
         <v>174.7087222531207</v>
       </c>
-      <c r="U17" t="n">
+      <c r="V17" t="n">
         <v>-38.27816298217586</v>
       </c>
-      <c r="V17" t="n">
+      <c r="W17" t="n">
         <v>174.7139117256902</v>
       </c>
-      <c r="W17" t="n">
+      <c r="X17" t="n">
         <v>-38.27768129948527</v>
       </c>
     </row>
@@ -34217,27 +34238,28 @@
       <c r="P18" t="n">
         <v>280.1006252371037</v>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr">
         <is>
           <t>LINESTRING (174.7190068480903 -38.27649831840406, 174.70862796713462 -38.27746167972789)</t>
         </is>
       </c>
-      <c r="R18" t="n">
+      <c r="S18" t="n">
         <v>174.7190068480903</v>
       </c>
-      <c r="S18" t="n">
+      <c r="T18" t="n">
         <v>-38.27649831840406</v>
       </c>
-      <c r="T18" t="n">
+      <c r="U18" t="n">
         <v>174.7086279671346</v>
       </c>
-      <c r="U18" t="n">
+      <c r="V18" t="n">
         <v>-38.27746167972789</v>
       </c>
-      <c r="V18" t="n">
+      <c r="W18" t="n">
         <v>174.7138174076125</v>
       </c>
-      <c r="W18" t="n">
+      <c r="X18" t="n">
         <v>-38.27697999906597</v>
       </c>
     </row>
@@ -34294,27 +34316,28 @@
       <c r="P19" t="n">
         <v>289.9566207992785</v>
       </c>
-      <c r="Q19" t="inlineStr">
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr">
         <is>
           <t>LINESTRING (174.71891249792145 -38.27579701323982, 174.70853368114743 -38.276760370506416)</t>
         </is>
       </c>
-      <c r="R19" t="n">
+      <c r="S19" t="n">
         <v>174.7189124979215</v>
       </c>
-      <c r="S19" t="n">
+      <c r="T19" t="n">
         <v>-38.27579701323982</v>
       </c>
-      <c r="T19" t="n">
+      <c r="U19" t="n">
         <v>174.7085336811474</v>
       </c>
-      <c r="U19" t="n">
+      <c r="V19" t="n">
         <v>-38.27676037050642</v>
       </c>
-      <c r="V19" t="n">
+      <c r="W19" t="n">
         <v>174.7137230895344</v>
       </c>
-      <c r="W19" t="n">
+      <c r="X19" t="n">
         <v>-38.27627869187312</v>
       </c>
     </row>
@@ -34371,27 +34394,28 @@
       <c r="P20" t="n">
         <v>291.3804506317774</v>
       </c>
-      <c r="Q20" t="inlineStr">
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr">
         <is>
           <t>LINESTRING (174.71881814775315 -38.275095701302, 174.7084393951592 -38.2760590545115)</t>
         </is>
       </c>
-      <c r="R20" t="n">
+      <c r="S20" t="n">
         <v>174.7188181477532</v>
       </c>
-      <c r="S20" t="n">
+      <c r="T20" t="n">
         <v>-38.275095701302</v>
       </c>
-      <c r="T20" t="n">
+      <c r="U20" t="n">
         <v>174.7084393951592</v>
       </c>
-      <c r="U20" t="n">
+      <c r="V20" t="n">
         <v>-38.2760590545115</v>
       </c>
-      <c r="V20" t="n">
+      <c r="W20" t="n">
         <v>174.7136287714562</v>
       </c>
-      <c r="W20" t="n">
+      <c r="X20" t="n">
         <v>-38.27557737790675</v>
       </c>
     </row>
@@ -34448,27 +34472,28 @@
       <c r="P21" t="n">
         <v>301.8096687920965</v>
       </c>
-      <c r="Q21" t="inlineStr">
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr">
         <is>
           <t>LINESTRING (174.71872379758543 -38.27439438259061, 174.7083451091699 -38.275357731743135)</t>
         </is>
       </c>
-      <c r="R21" t="n">
+      <c r="S21" t="n">
         <v>174.7187237975854</v>
       </c>
-      <c r="S21" t="n">
+      <c r="T21" t="n">
         <v>-38.27439438259061</v>
       </c>
-      <c r="T21" t="n">
+      <c r="U21" t="n">
         <v>174.7083451091699</v>
       </c>
-      <c r="U21" t="n">
+      <c r="V21" t="n">
         <v>-38.27535773174314</v>
       </c>
-      <c r="V21" t="n">
+      <c r="W21" t="n">
         <v>174.7135344533777</v>
       </c>
-      <c r="W21" t="n">
+      <c r="X21" t="n">
         <v>-38.27487605716687</v>
       </c>
     </row>
@@ -34525,27 +34550,28 @@
       <c r="P22" t="n">
         <v>289.6175422901867</v>
       </c>
-      <c r="Q22" t="inlineStr">
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr">
         <is>
           <t>LINESTRING (174.71862944741815 -38.27369305710568, 174.70825082317953 -38.27465640220148)</t>
         </is>
       </c>
-      <c r="R22" t="n">
+      <c r="S22" t="n">
         <v>174.7186294474182</v>
       </c>
-      <c r="S22" t="n">
+      <c r="T22" t="n">
         <v>-38.27369305710568</v>
       </c>
-      <c r="T22" t="n">
+      <c r="U22" t="n">
         <v>174.7082508231795</v>
       </c>
-      <c r="U22" t="n">
+      <c r="V22" t="n">
         <v>-38.27465640220148</v>
       </c>
-      <c r="V22" t="n">
+      <c r="W22" t="n">
         <v>174.7134401352988</v>
       </c>
-      <c r="W22" t="n">
+      <c r="X22" t="n">
         <v>-38.27417472965358</v>
       </c>
     </row>
@@ -34596,27 +34622,28 @@
       <c r="P23" t="n">
         <v>299.162184392105</v>
       </c>
-      <c r="Q23" t="inlineStr">
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr">
         <is>
           <t>LINESTRING (174.71853509725136 -38.27299172484731, 174.70815653718807 -38.27395506588639)</t>
         </is>
       </c>
-      <c r="R23" t="n">
+      <c r="S23" t="n">
         <v>174.7185350972514</v>
       </c>
-      <c r="S23" t="n">
+      <c r="T23" t="n">
         <v>-38.27299172484731</v>
       </c>
-      <c r="T23" t="n">
+      <c r="U23" t="n">
         <v>174.7081565371881</v>
       </c>
-      <c r="U23" t="n">
+      <c r="V23" t="n">
         <v>-38.27395506588639</v>
       </c>
-      <c r="V23" t="n">
+      <c r="W23" t="n">
         <v>174.7133458172197</v>
       </c>
-      <c r="W23" t="n">
+      <c r="X23" t="n">
         <v>-38.27347339536685</v>
       </c>
     </row>
@@ -34673,27 +34700,28 @@
       <c r="P24" t="n">
         <v>312.4088394204858</v>
       </c>
-      <c r="Q24" t="inlineStr">
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr">
         <is>
           <t>LINESTRING (174.7184407470852 -38.272290385815595, 174.7080622511956 -38.2732537227979)</t>
         </is>
       </c>
-      <c r="R24" t="n">
+      <c r="S24" t="n">
         <v>174.7184407470852</v>
       </c>
-      <c r="S24" t="n">
+      <c r="T24" t="n">
         <v>-38.27229038581559</v>
       </c>
-      <c r="T24" t="n">
+      <c r="U24" t="n">
         <v>174.7080622511956</v>
       </c>
-      <c r="U24" t="n">
+      <c r="V24" t="n">
         <v>-38.2732537227979</v>
       </c>
-      <c r="V24" t="n">
+      <c r="W24" t="n">
         <v>174.7132514991404</v>
       </c>
-      <c r="W24" t="n">
+      <c r="X24" t="n">
         <v>-38.27277205430674</v>
       </c>
     </row>
@@ -34750,27 +34778,28 @@
       <c r="P25" t="n">
         <v>319.5992324042105</v>
       </c>
-      <c r="Q25" t="inlineStr">
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr">
         <is>
           <t>LINESTRING (174.71834639691954 -38.27158904001052, 174.70796796520207 -38.27255237293612)</t>
         </is>
       </c>
-      <c r="R25" t="n">
+      <c r="S25" t="n">
         <v>174.7183463969195</v>
       </c>
-      <c r="S25" t="n">
+      <c r="T25" t="n">
         <v>-38.27158904001052</v>
       </c>
-      <c r="T25" t="n">
+      <c r="U25" t="n">
         <v>174.7079679652021</v>
       </c>
-      <c r="U25" t="n">
+      <c r="V25" t="n">
         <v>-38.27255237293612</v>
       </c>
-      <c r="V25" t="n">
+      <c r="W25" t="n">
         <v>174.7131571810608</v>
       </c>
-      <c r="W25" t="n">
+      <c r="X25" t="n">
         <v>-38.27207070647331</v>
       </c>
     </row>
@@ -34827,27 +34856,28 @@
       <c r="P26" t="n">
         <v>325.775993807037</v>
       </c>
-      <c r="Q26" t="inlineStr">
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr">
         <is>
           <t>LINESTRING (174.71825204675443 -38.27088768743193, 174.70787367920755 -38.27185101630134)</t>
         </is>
       </c>
-      <c r="R26" t="n">
+      <c r="S26" t="n">
         <v>174.7182520467544</v>
       </c>
-      <c r="S26" t="n">
+      <c r="T26" t="n">
         <v>-38.27088768743193</v>
       </c>
-      <c r="T26" t="n">
+      <c r="U26" t="n">
         <v>174.7078736792076</v>
       </c>
-      <c r="U26" t="n">
+      <c r="V26" t="n">
         <v>-38.27185101630134</v>
       </c>
-      <c r="V26" t="n">
+      <c r="W26" t="n">
         <v>174.713062862981</v>
       </c>
-      <c r="W26" t="n">
+      <c r="X26" t="n">
         <v>-38.27136935186664</v>
       </c>
     </row>
@@ -34904,27 +34934,28 @@
       <c r="P27" t="n">
         <v>325.977855937928</v>
       </c>
-      <c r="Q27" t="inlineStr">
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr">
         <is>
           <t>LINESTRING (174.7181576965898 -38.270186328080044, 174.70777939321187 -38.27114965289335)</t>
         </is>
       </c>
-      <c r="R27" t="n">
+      <c r="S27" t="n">
         <v>174.7181576965898</v>
       </c>
-      <c r="S27" t="n">
+      <c r="T27" t="n">
         <v>-38.27018632808004</v>
       </c>
-      <c r="T27" t="n">
+      <c r="U27" t="n">
         <v>174.7077793932119</v>
       </c>
-      <c r="U27" t="n">
+      <c r="V27" t="n">
         <v>-38.27114965289335</v>
       </c>
-      <c r="V27" t="n">
+      <c r="W27" t="n">
         <v>174.7129685449008</v>
       </c>
-      <c r="W27" t="n">
+      <c r="X27" t="n">
         <v>-38.2706679904867</v>
       </c>
     </row>
@@ -34981,27 +35012,28 @@
       <c r="P28" t="n">
         <v>331.1241092507643</v>
       </c>
-      <c r="Q28" t="inlineStr">
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr">
         <is>
           <t>LINESTRING (174.71806334642574 -38.26948496195502, 174.7076851072151 -38.27044828271204)</t>
         </is>
       </c>
-      <c r="R28" t="n">
+      <c r="S28" t="n">
         <v>174.7180633464257</v>
       </c>
-      <c r="S28" t="n">
+      <c r="T28" t="n">
         <v>-38.26948496195502</v>
       </c>
-      <c r="T28" t="n">
+      <c r="U28" t="n">
         <v>174.7076851072151</v>
       </c>
-      <c r="U28" t="n">
+      <c r="V28" t="n">
         <v>-38.27044828271204</v>
       </c>
-      <c r="V28" t="n">
+      <c r="W28" t="n">
         <v>174.7128742268204</v>
       </c>
-      <c r="W28" t="n">
+      <c r="X28" t="n">
         <v>-38.26996662233353</v>
       </c>
     </row>
@@ -35052,27 +35084,28 @@
       <c r="P29" t="n">
         <v>313.0669090730557</v>
       </c>
-      <c r="Q29" t="inlineStr">
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr">
         <is>
           <t>LINESTRING (174.71796899626216 -38.26878358905671, 174.70759082121734 -38.26974690575773)</t>
         </is>
       </c>
-      <c r="R29" t="n">
+      <c r="S29" t="n">
         <v>174.7179689962622</v>
       </c>
-      <c r="S29" t="n">
+      <c r="T29" t="n">
         <v>-38.26878358905671</v>
       </c>
-      <c r="T29" t="n">
+      <c r="U29" t="n">
         <v>174.7075908212173</v>
       </c>
-      <c r="U29" t="n">
+      <c r="V29" t="n">
         <v>-38.26974690575773</v>
       </c>
-      <c r="V29" t="n">
+      <c r="W29" t="n">
         <v>174.7127799087397</v>
       </c>
-      <c r="W29" t="n">
+      <c r="X29" t="n">
         <v>-38.26926524740722</v>
       </c>
     </row>
@@ -35123,27 +35156,28 @@
       <c r="P30" t="n">
         <v>263.1564292822638</v>
       </c>
-      <c r="Q30" t="inlineStr">
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr">
         <is>
           <t>LINESTRING (174.71787464609918 -38.268082209385184, 174.70749653521855 -38.269045522030275)</t>
         </is>
       </c>
-      <c r="R30" t="n">
+      <c r="S30" t="n">
         <v>174.7178746460992</v>
       </c>
-      <c r="S30" t="n">
+      <c r="T30" t="n">
         <v>-38.26808220938518</v>
       </c>
-      <c r="T30" t="n">
+      <c r="U30" t="n">
         <v>174.7074965352186</v>
       </c>
-      <c r="U30" t="n">
+      <c r="V30" t="n">
         <v>-38.26904552203028</v>
       </c>
-      <c r="V30" t="n">
+      <c r="W30" t="n">
         <v>174.7126855906589</v>
       </c>
-      <c r="W30" t="n">
+      <c r="X30" t="n">
         <v>-38.26856386570773</v>
       </c>
     </row>
@@ -35200,27 +35234,28 @@
       <c r="P31" t="n">
         <v>245.658211075302</v>
       </c>
-      <c r="Q31" t="inlineStr">
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr">
         <is>
           <t>LINESTRING (174.7177802959367 -38.267380822940545, 174.70740224921863 -38.26834413152987)</t>
         </is>
       </c>
-      <c r="R31" t="n">
+      <c r="S31" t="n">
         <v>174.7177802959367</v>
       </c>
-      <c r="S31" t="n">
+      <c r="T31" t="n">
         <v>-38.26738082294055</v>
       </c>
-      <c r="T31" t="n">
+      <c r="U31" t="n">
         <v>174.7074022492186</v>
       </c>
-      <c r="U31" t="n">
+      <c r="V31" t="n">
         <v>-38.26834413152987</v>
       </c>
-      <c r="V31" t="n">
+      <c r="W31" t="n">
         <v>174.7125912725777</v>
       </c>
-      <c r="W31" t="n">
+      <c r="X31" t="n">
         <v>-38.26786247723521</v>
       </c>
     </row>
@@ -35277,27 +35312,28 @@
       <c r="P32" t="n">
         <v>287.1599899673068</v>
       </c>
-      <c r="Q32" t="inlineStr">
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr">
         <is>
           <t>LINESTRING (174.71768594577478 -38.266679429722785, 174.7073079632177 -38.26764273425644)</t>
         </is>
       </c>
-      <c r="R32" t="n">
+      <c r="S32" t="n">
         <v>174.7176859457748</v>
       </c>
-      <c r="S32" t="n">
+      <c r="T32" t="n">
         <v>-38.26667942972279</v>
       </c>
-      <c r="T32" t="n">
+      <c r="U32" t="n">
         <v>174.7073079632177</v>
       </c>
-      <c r="U32" t="n">
+      <c r="V32" t="n">
         <v>-38.26764273425644</v>
       </c>
-      <c r="V32" t="n">
+      <c r="W32" t="n">
         <v>174.7124969544962</v>
       </c>
-      <c r="W32" t="n">
+      <c r="X32" t="n">
         <v>-38.26716108198961</v>
       </c>
     </row>
@@ -35354,27 +35390,28 @@
       <c r="P33" t="n">
         <v>304.6769416195522</v>
       </c>
-      <c r="Q33" t="inlineStr">
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr">
         <is>
           <t>LINESTRING (174.7175915956133 -38.265978029731976, 174.7072136772157 -38.26694133021007)</t>
         </is>
       </c>
-      <c r="R33" t="n">
+      <c r="S33" t="n">
         <v>174.7175915956133</v>
       </c>
-      <c r="S33" t="n">
+      <c r="T33" t="n">
         <v>-38.26597802973198</v>
       </c>
-      <c r="T33" t="n">
+      <c r="U33" t="n">
         <v>174.7072136772157</v>
       </c>
-      <c r="U33" t="n">
+      <c r="V33" t="n">
         <v>-38.26694133021007</v>
       </c>
-      <c r="V33" t="n">
+      <c r="W33" t="n">
         <v>174.7124026364145</v>
       </c>
-      <c r="W33" t="n">
+      <c r="X33" t="n">
         <v>-38.26645967997102</v>
       </c>
     </row>
@@ -35431,27 +35468,28 @@
       <c r="P34" t="n">
         <v>324.4735470608531</v>
       </c>
-      <c r="Q34" t="inlineStr">
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr">
         <is>
           <t>LINESTRING (174.71749724545245 -38.26527662296809, 174.70711939121261 -38.26623991939077)</t>
         </is>
       </c>
-      <c r="R34" t="n">
+      <c r="S34" t="n">
         <v>174.7174972454524</v>
       </c>
-      <c r="S34" t="n">
+      <c r="T34" t="n">
         <v>-38.26527662296809</v>
       </c>
-      <c r="T34" t="n">
+      <c r="U34" t="n">
         <v>174.7071193912126</v>
       </c>
-      <c r="U34" t="n">
+      <c r="V34" t="n">
         <v>-38.26623991939077</v>
       </c>
-      <c r="V34" t="n">
+      <c r="W34" t="n">
         <v>174.7123083183325</v>
       </c>
-      <c r="W34" t="n">
+      <c r="X34" t="n">
         <v>-38.26575827117943</v>
       </c>
     </row>

--- a/data/nzd0252/nzd0252.xlsx
+++ b/data/nzd0252/nzd0252.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI331"/>
+  <dimension ref="A1:AI336"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29455,6 +29455,535 @@
         </is>
       </c>
     </row>
+    <row r="332">
+      <c r="A332" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:06:19+00:00</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>322.3058823529412</v>
+      </c>
+      <c r="C332" t="n">
+        <v>321.705</v>
+      </c>
+      <c r="D332" t="n">
+        <v>327.6155555555555</v>
+      </c>
+      <c r="E332" t="n">
+        <v>360.9815384615384</v>
+      </c>
+      <c r="F332" t="n">
+        <v>367.89</v>
+      </c>
+      <c r="G332" t="n">
+        <v>341.53</v>
+      </c>
+      <c r="H332" t="n">
+        <v>335.3771428571428</v>
+      </c>
+      <c r="I332" t="n">
+        <v>317.1355555555555</v>
+      </c>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="n">
+        <v>312.3741379310345</v>
+      </c>
+      <c r="L332" t="n">
+        <v>300.37</v>
+      </c>
+      <c r="M332" t="n">
+        <v>307.45</v>
+      </c>
+      <c r="N332" t="n">
+        <v>314.2185714285715</v>
+      </c>
+      <c r="O332" t="n">
+        <v>309.5947619047619</v>
+      </c>
+      <c r="P332" t="n">
+        <v>328.4471428571428</v>
+      </c>
+      <c r="Q332" t="n">
+        <v>332.45</v>
+      </c>
+      <c r="R332" t="n">
+        <v>333.6933333333334</v>
+      </c>
+      <c r="S332" t="n">
+        <v>340.1366666666667</v>
+      </c>
+      <c r="T332" t="n">
+        <v>329.84</v>
+      </c>
+      <c r="U332" t="n">
+        <v>321.2271428571428</v>
+      </c>
+      <c r="V332" t="n">
+        <v>310.78</v>
+      </c>
+      <c r="W332" t="n">
+        <v>305.9066666666666</v>
+      </c>
+      <c r="X332" t="n">
+        <v>322.3871428571428</v>
+      </c>
+      <c r="Y332" t="n">
+        <v>342.0671428571428</v>
+      </c>
+      <c r="Z332" t="n">
+        <v>347.5685714285714</v>
+      </c>
+      <c r="AA332" t="n">
+        <v>351.095</v>
+      </c>
+      <c r="AB332" t="n">
+        <v>334.2785714285715</v>
+      </c>
+      <c r="AC332" t="n">
+        <v>334.1751162790697</v>
+      </c>
+      <c r="AD332" t="n">
+        <v>336.31</v>
+      </c>
+      <c r="AE332" t="n">
+        <v>339.2533333333334</v>
+      </c>
+      <c r="AF332" t="inlineStr"/>
+      <c r="AG332" t="n">
+        <v>346.9655555555556</v>
+      </c>
+      <c r="AH332" t="n">
+        <v>346.4271428571428</v>
+      </c>
+      <c r="AI332" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-11 22:06:15+00:00</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>310.7129411764706</v>
+      </c>
+      <c r="C333" t="n">
+        <v>313.11</v>
+      </c>
+      <c r="D333" t="n">
+        <v>326.1055555555556</v>
+      </c>
+      <c r="E333" t="n">
+        <v>343.2776923076923</v>
+      </c>
+      <c r="F333" t="n">
+        <v>348.82</v>
+      </c>
+      <c r="G333" t="n">
+        <v>334.46</v>
+      </c>
+      <c r="H333" t="n">
+        <v>330.3128571428572</v>
+      </c>
+      <c r="I333" t="n">
+        <v>313.0455555555556</v>
+      </c>
+      <c r="J333" t="n">
+        <v>326.9671428571428</v>
+      </c>
+      <c r="K333" t="n">
+        <v>325.4468965517241</v>
+      </c>
+      <c r="L333" t="n">
+        <v>313.18</v>
+      </c>
+      <c r="M333" t="n">
+        <v>309.79</v>
+      </c>
+      <c r="N333" t="n">
+        <v>314.6114285714286</v>
+      </c>
+      <c r="O333" t="n">
+        <v>306.6319047619048</v>
+      </c>
+      <c r="P333" t="n">
+        <v>309.1528571428572</v>
+      </c>
+      <c r="Q333" t="n">
+        <v>334.86</v>
+      </c>
+      <c r="R333" t="n">
+        <v>303.6433333333334</v>
+      </c>
+      <c r="S333" t="n">
+        <v>325.6866666666667</v>
+      </c>
+      <c r="T333" t="n">
+        <v>329.95</v>
+      </c>
+      <c r="U333" t="n">
+        <v>332.0928571428572</v>
+      </c>
+      <c r="V333" t="n">
+        <v>309.58</v>
+      </c>
+      <c r="W333" t="n">
+        <v>287.4766666666666</v>
+      </c>
+      <c r="X333" t="n">
+        <v>310.9628571428572</v>
+      </c>
+      <c r="Y333" t="n">
+        <v>313.0328571428572</v>
+      </c>
+      <c r="Z333" t="n">
+        <v>297.6614285714285</v>
+      </c>
+      <c r="AA333" t="n">
+        <v>328.19</v>
+      </c>
+      <c r="AB333" t="n">
+        <v>333.0914285714285</v>
+      </c>
+      <c r="AC333" t="n">
+        <v>329.6390697674419</v>
+      </c>
+      <c r="AD333" t="n">
+        <v>319.17</v>
+      </c>
+      <c r="AE333" t="inlineStr"/>
+      <c r="AF333" t="n">
+        <v>259.76</v>
+      </c>
+      <c r="AG333" t="n">
+        <v>336.4355555555555</v>
+      </c>
+      <c r="AH333" t="n">
+        <v>352.0428571428571</v>
+      </c>
+      <c r="AI333" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:06:18+00:00</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>312.3470588235294</v>
+      </c>
+      <c r="C334" t="n">
+        <v>309.97</v>
+      </c>
+      <c r="D334" t="n">
+        <v>315.4511111111111</v>
+      </c>
+      <c r="E334" t="n">
+        <v>330.7507692307692</v>
+      </c>
+      <c r="F334" t="n">
+        <v>355.33</v>
+      </c>
+      <c r="G334" t="n">
+        <v>327.31</v>
+      </c>
+      <c r="H334" t="n">
+        <v>333.18</v>
+      </c>
+      <c r="I334" t="n">
+        <v>310.4211111111111</v>
+      </c>
+      <c r="J334" t="n">
+        <v>324.82</v>
+      </c>
+      <c r="K334" t="n">
+        <v>327.8065517241379</v>
+      </c>
+      <c r="L334" t="n">
+        <v>311.91</v>
+      </c>
+      <c r="M334" t="n">
+        <v>309.3054545454545</v>
+      </c>
+      <c r="N334" t="n">
+        <v>312.68</v>
+      </c>
+      <c r="O334" t="n">
+        <v>314.3366666666667</v>
+      </c>
+      <c r="P334" t="n">
+        <v>321.53</v>
+      </c>
+      <c r="Q334" t="n">
+        <v>330.12</v>
+      </c>
+      <c r="R334" t="n">
+        <v>322.7366666666667</v>
+      </c>
+      <c r="S334" t="n">
+        <v>321.3133333333333</v>
+      </c>
+      <c r="T334" t="n">
+        <v>320.84</v>
+      </c>
+      <c r="U334" t="n">
+        <v>319.9</v>
+      </c>
+      <c r="V334" t="n">
+        <v>316.83</v>
+      </c>
+      <c r="W334" t="n">
+        <v>318.3733333333333</v>
+      </c>
+      <c r="X334" t="n">
+        <v>325.81</v>
+      </c>
+      <c r="Y334" t="n">
+        <v>330.53</v>
+      </c>
+      <c r="Z334" t="n">
+        <v>330.96</v>
+      </c>
+      <c r="AA334" t="n">
+        <v>328.01</v>
+      </c>
+      <c r="AB334" t="n">
+        <v>326.06</v>
+      </c>
+      <c r="AC334" t="n">
+        <v>331.523488372093</v>
+      </c>
+      <c r="AD334" t="n">
+        <v>330.319090909091</v>
+      </c>
+      <c r="AE334" t="n">
+        <v>331.5066666666667</v>
+      </c>
+      <c r="AF334" t="inlineStr"/>
+      <c r="AG334" t="n">
+        <v>329.9011111111111</v>
+      </c>
+      <c r="AH334" t="n">
+        <v>346.75</v>
+      </c>
+      <c r="AI334" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:06:15+00:00</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>316.0776470588235</v>
+      </c>
+      <c r="C335" t="n">
+        <v>314.045</v>
+      </c>
+      <c r="D335" t="n">
+        <v>324.8311111111111</v>
+      </c>
+      <c r="E335" t="n">
+        <v>359.6984615384616</v>
+      </c>
+      <c r="F335" t="n">
+        <v>377.43</v>
+      </c>
+      <c r="G335" t="n">
+        <v>342.54</v>
+      </c>
+      <c r="H335" t="n">
+        <v>311.8471428571428</v>
+      </c>
+      <c r="I335" t="n">
+        <v>309.6911111111111</v>
+      </c>
+      <c r="J335" t="n">
+        <v>308.5728571428572</v>
+      </c>
+      <c r="K335" t="n">
+        <v>329.8479310344827</v>
+      </c>
+      <c r="L335" t="n">
+        <v>303.76</v>
+      </c>
+      <c r="M335" t="n">
+        <v>295.1781818181818</v>
+      </c>
+      <c r="N335" t="n">
+        <v>328.0985714285715</v>
+      </c>
+      <c r="O335" t="n">
+        <v>326.6980952380952</v>
+      </c>
+      <c r="P335" t="n">
+        <v>319.2571428571428</v>
+      </c>
+      <c r="Q335" t="n">
+        <v>319.03</v>
+      </c>
+      <c r="R335" t="n">
+        <v>345.3566666666667</v>
+      </c>
+      <c r="S335" t="n">
+        <v>337.8733333333333</v>
+      </c>
+      <c r="T335" t="n">
+        <v>323.87</v>
+      </c>
+      <c r="U335" t="n">
+        <v>325.3571428571428</v>
+      </c>
+      <c r="V335" t="inlineStr"/>
+      <c r="W335" t="n">
+        <v>320.4033333333333</v>
+      </c>
+      <c r="X335" t="n">
+        <v>322.9671428571428</v>
+      </c>
+      <c r="Y335" t="n">
+        <v>332.2771428571428</v>
+      </c>
+      <c r="Z335" t="n">
+        <v>362.2185714285715</v>
+      </c>
+      <c r="AA335" t="n">
+        <v>341.165</v>
+      </c>
+      <c r="AB335" t="n">
+        <v>322.0685714285714</v>
+      </c>
+      <c r="AC335" t="n">
+        <v>317.6711627906977</v>
+      </c>
+      <c r="AD335" t="n">
+        <v>282.8536363636364</v>
+      </c>
+      <c r="AE335" t="n">
+        <v>192.1566666666667</v>
+      </c>
+      <c r="AF335" t="n">
+        <v>299.76</v>
+      </c>
+      <c r="AG335" t="n">
+        <v>357.1611111111111</v>
+      </c>
+      <c r="AH335" t="n">
+        <v>371.8571428571428</v>
+      </c>
+      <c r="AI335" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:06:00+00:00</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>313.7323529411765</v>
+      </c>
+      <c r="C336" t="n">
+        <v>319.385</v>
+      </c>
+      <c r="D336" t="n">
+        <v>331.46</v>
+      </c>
+      <c r="E336" t="n">
+        <v>344.7638461538461</v>
+      </c>
+      <c r="F336" t="n">
+        <v>340.6799999999999</v>
+      </c>
+      <c r="G336" t="inlineStr"/>
+      <c r="H336" t="n">
+        <v>346.2814285714285</v>
+      </c>
+      <c r="I336" t="n">
+        <v>322.09</v>
+      </c>
+      <c r="J336" t="n">
+        <v>324.3285714285714</v>
+      </c>
+      <c r="K336" t="n">
+        <v>325.5210344827586</v>
+      </c>
+      <c r="L336" t="n">
+        <v>313.14</v>
+      </c>
+      <c r="M336" t="n">
+        <v>273.0954545454546</v>
+      </c>
+      <c r="N336" t="n">
+        <v>317.5157142857143</v>
+      </c>
+      <c r="O336" t="n">
+        <v>319.9142857142857</v>
+      </c>
+      <c r="P336" t="n">
+        <v>342.2914285714286</v>
+      </c>
+      <c r="Q336" t="n">
+        <v>354.85</v>
+      </c>
+      <c r="R336" t="inlineStr"/>
+      <c r="S336" t="n">
+        <v>315.88</v>
+      </c>
+      <c r="T336" t="n">
+        <v>337.23</v>
+      </c>
+      <c r="U336" t="n">
+        <v>337.7114285714285</v>
+      </c>
+      <c r="V336" t="inlineStr"/>
+      <c r="W336" t="n">
+        <v>291.08</v>
+      </c>
+      <c r="X336" t="n">
+        <v>306.3714285714286</v>
+      </c>
+      <c r="Y336" t="n">
+        <v>321.1914285714286</v>
+      </c>
+      <c r="Z336" t="inlineStr"/>
+      <c r="AA336" t="n">
+        <v>322.855</v>
+      </c>
+      <c r="AB336" t="n">
+        <v>347.6557142857143</v>
+      </c>
+      <c r="AC336" t="n">
+        <v>338.5072093023256</v>
+      </c>
+      <c r="AD336" t="inlineStr"/>
+      <c r="AE336" t="n">
+        <v>212.96</v>
+      </c>
+      <c r="AF336" t="inlineStr"/>
+      <c r="AG336" t="inlineStr"/>
+      <c r="AH336" t="inlineStr"/>
+      <c r="AI336" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -29466,7 +29995,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B335"/>
+  <dimension ref="A1:B340"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32824,6 +33353,56 @@
       </c>
       <c r="B335" t="n">
         <v>1.57</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>-0.11</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>2025-03-11 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>-0.67</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>
@@ -32997,28 +33576,28 @@
         <v>0.0953</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2056350808269588</v>
+        <v>-0.1893525469064189</v>
       </c>
       <c r="J2" t="n">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="K2" t="n">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02504630184699852</v>
+        <v>0.02203786283634956</v>
       </c>
       <c r="M2" t="n">
-        <v>7.083128103998678</v>
+        <v>7.021394688875041</v>
       </c>
       <c r="N2" t="n">
-        <v>84.24976835100921</v>
+        <v>83.24911703823638</v>
       </c>
       <c r="O2" t="n">
-        <v>9.178767256609637</v>
+        <v>9.124095409312442</v>
       </c>
       <c r="P2" t="n">
-        <v>316.0059032377695</v>
+        <v>315.8460631267112</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -33075,28 +33654,28 @@
         <v>0.0954</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0935106010766044</v>
+        <v>0.1161054629545583</v>
       </c>
       <c r="J3" t="n">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="K3" t="n">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001262338108522165</v>
+        <v>0.002026725720046141</v>
       </c>
       <c r="M3" t="n">
-        <v>11.34784672210986</v>
+        <v>11.20390275470797</v>
       </c>
       <c r="N3" t="n">
-        <v>356.5294521446196</v>
+        <v>349.9618456688319</v>
       </c>
       <c r="O3" t="n">
-        <v>18.88198750514944</v>
+        <v>18.7072671886845</v>
       </c>
       <c r="P3" t="n">
-        <v>307.8005342702012</v>
+        <v>307.5783378433411</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -33153,28 +33732,28 @@
         <v>0.0548</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.8856971852968574</v>
+        <v>-0.7856281801444294</v>
       </c>
       <c r="J4" t="n">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="K4" t="n">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02787306730622141</v>
+        <v>0.02293406719929947</v>
       </c>
       <c r="M4" t="n">
-        <v>27.24510356075915</v>
+        <v>26.82333954555815</v>
       </c>
       <c r="N4" t="n">
-        <v>1441.16840549888</v>
+        <v>1418.197417656357</v>
       </c>
       <c r="O4" t="n">
-        <v>37.96272389461641</v>
+        <v>37.65896198325648</v>
       </c>
       <c r="P4" t="n">
-        <v>325.2727021876511</v>
+        <v>324.2934203099891</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -33225,28 +33804,28 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>0.2103246701700984</v>
+        <v>0.2248935297975939</v>
       </c>
       <c r="J5" t="n">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="K5" t="n">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="L5" t="n">
-        <v>0.005329351611430555</v>
+        <v>0.006345646000283089</v>
       </c>
       <c r="M5" t="n">
-        <v>16.21243538834555</v>
+        <v>16.04821131879618</v>
       </c>
       <c r="N5" t="n">
-        <v>418.5410962235859</v>
+        <v>412.3159385346895</v>
       </c>
       <c r="O5" t="n">
-        <v>20.45827696125912</v>
+        <v>20.30556422596253</v>
       </c>
       <c r="P5" t="n">
-        <v>339.3097694554058</v>
+        <v>339.1674229506383</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -33297,28 +33876,28 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>1.378936529175518</v>
+        <v>1.371170715885573</v>
       </c>
       <c r="J6" t="n">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="K6" t="n">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03795095728487718</v>
+        <v>0.03955864519679197</v>
       </c>
       <c r="M6" t="n">
-        <v>26.89670556676181</v>
+        <v>26.52467619397491</v>
       </c>
       <c r="N6" t="n">
-        <v>2452.406472187544</v>
+        <v>2395.493741506606</v>
       </c>
       <c r="O6" t="n">
-        <v>49.52177775673591</v>
+        <v>48.94378143857099</v>
       </c>
       <c r="P6" t="n">
-        <v>324.7565261452804</v>
+        <v>324.8321617845477</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -33375,28 +33954,28 @@
         <v>0.0527</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.0333088268609489</v>
+        <v>-0.001059116711671968</v>
       </c>
       <c r="J7" t="n">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="K7" t="n">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="L7" t="n">
-        <v>8.803751012154137e-05</v>
+        <v>9.276405932290288e-08</v>
       </c>
       <c r="M7" t="n">
-        <v>17.87041904406749</v>
+        <v>17.62164900154604</v>
       </c>
       <c r="N7" t="n">
-        <v>623.256792555658</v>
+        <v>612.5265172268056</v>
       </c>
       <c r="O7" t="n">
-        <v>24.96511150697425</v>
+        <v>24.74927306461355</v>
       </c>
       <c r="P7" t="n">
-        <v>329.4881446992703</v>
+        <v>329.1655497684432</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -33453,28 +34032,28 @@
         <v>0.0386</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3421455280966605</v>
+        <v>0.3161913781486665</v>
       </c>
       <c r="J8" t="n">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="K8" t="n">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02367634117685968</v>
+        <v>0.02107582617112336</v>
       </c>
       <c r="M8" t="n">
-        <v>11.77975674476831</v>
+        <v>11.71105838789767</v>
       </c>
       <c r="N8" t="n">
-        <v>242.1646916012051</v>
+        <v>239.9987250750577</v>
       </c>
       <c r="O8" t="n">
-        <v>15.56164167436087</v>
+        <v>15.49189223674944</v>
       </c>
       <c r="P8" t="n">
-        <v>328.1066907200981</v>
+        <v>328.3608747448923</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -33531,28 +34110,28 @@
         <v>0.0507</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2006588107661376</v>
+        <v>0.2285530078053762</v>
       </c>
       <c r="J9" t="n">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="K9" t="n">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="L9" t="n">
-        <v>0.001404189360790897</v>
+        <v>0.001927143678049914</v>
       </c>
       <c r="M9" t="n">
-        <v>20.04272354738519</v>
+        <v>19.57744909237229</v>
       </c>
       <c r="N9" t="n">
-        <v>1441.451103596387</v>
+        <v>1405.147510865141</v>
       </c>
       <c r="O9" t="n">
-        <v>37.96644707628549</v>
+        <v>37.48529726259538</v>
       </c>
       <c r="P9" t="n">
-        <v>304.0825908974669</v>
+        <v>303.8084468303516</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -33603,28 +34182,28 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>0.3815620264806118</v>
+        <v>0.3568519594319482</v>
       </c>
       <c r="J10" t="n">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="K10" t="n">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02615908420790758</v>
+        <v>0.02375762668615189</v>
       </c>
       <c r="M10" t="n">
-        <v>10.80042191944113</v>
+        <v>10.69652253552367</v>
       </c>
       <c r="N10" t="n">
-        <v>286.2772905148148</v>
+        <v>282.1792033941929</v>
       </c>
       <c r="O10" t="n">
-        <v>16.91973080503395</v>
+        <v>16.79819047975683</v>
       </c>
       <c r="P10" t="n">
-        <v>317.7807083874827</v>
+        <v>318.0226503167316</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -33675,28 +34254,28 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>0.2508187787378225</v>
+        <v>0.2408893739084689</v>
       </c>
       <c r="J11" t="n">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="K11" t="n">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01543442514566562</v>
+        <v>0.01491377698062868</v>
       </c>
       <c r="M11" t="n">
-        <v>10.71945973516901</v>
+        <v>10.5731577520256</v>
       </c>
       <c r="N11" t="n">
-        <v>211.2649507902859</v>
+        <v>207.1516838728736</v>
       </c>
       <c r="O11" t="n">
-        <v>14.5349561674704</v>
+        <v>14.39276498359067</v>
       </c>
       <c r="P11" t="n">
-        <v>320.0206774175733</v>
+        <v>320.115992814817</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -33753,28 +34332,28 @@
         <v>0.0576</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2538546656325135</v>
+        <v>0.2461695738406923</v>
       </c>
       <c r="J12" t="n">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="K12" t="n">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="L12" t="n">
-        <v>0.02142294120040489</v>
+        <v>0.02112219982248842</v>
       </c>
       <c r="M12" t="n">
-        <v>9.593094265839476</v>
+        <v>9.471984104627715</v>
       </c>
       <c r="N12" t="n">
-        <v>153.8340230019151</v>
+        <v>150.7332304259226</v>
       </c>
       <c r="O12" t="n">
-        <v>12.40298443931601</v>
+        <v>12.27734622896669</v>
       </c>
       <c r="P12" t="n">
-        <v>303.6663586852501</v>
+        <v>303.7409549065197</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -33831,28 +34410,28 @@
         <v>0.0663</v>
       </c>
       <c r="I13" t="n">
-        <v>0.361268905336069</v>
+        <v>0.3778490479055056</v>
       </c>
       <c r="J13" t="n">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="K13" t="n">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="L13" t="n">
-        <v>0.00984828877396593</v>
+        <v>0.01131003648490969</v>
       </c>
       <c r="M13" t="n">
-        <v>19.50547161934493</v>
+        <v>19.29912036831147</v>
       </c>
       <c r="N13" t="n">
-        <v>676.467897021358</v>
+        <v>664.5960782250925</v>
       </c>
       <c r="O13" t="n">
-        <v>26.00899646317324</v>
+        <v>25.77976101954967</v>
       </c>
       <c r="P13" t="n">
-        <v>286.5483976645298</v>
+        <v>286.3916981985532</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -33909,28 +34488,28 @@
         <v>0.0833</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3089952716896814</v>
+        <v>0.3213749802998356</v>
       </c>
       <c r="J14" t="n">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="K14" t="n">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="L14" t="n">
-        <v>0.02971212775269161</v>
+        <v>0.03339832638753526</v>
       </c>
       <c r="M14" t="n">
-        <v>9.027230743160525</v>
+        <v>8.915701753896602</v>
       </c>
       <c r="N14" t="n">
-        <v>159.9762389535781</v>
+        <v>157.4619836615213</v>
       </c>
       <c r="O14" t="n">
-        <v>12.64817136797166</v>
+        <v>12.5483856994245</v>
       </c>
       <c r="P14" t="n">
-        <v>306.7083960898869</v>
+        <v>306.5892286368648</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -33981,28 +34560,28 @@
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="n">
-        <v>0.2964043808991246</v>
+        <v>0.3296403855801516</v>
       </c>
       <c r="J15" t="n">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="K15" t="n">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0120506938486864</v>
+        <v>0.01550376622393923</v>
       </c>
       <c r="M15" t="n">
-        <v>14.14204233893136</v>
+        <v>13.98161826377555</v>
       </c>
       <c r="N15" t="n">
-        <v>353.4389553446215</v>
+        <v>348.1719279212295</v>
       </c>
       <c r="O15" t="n">
-        <v>18.79997221659174</v>
+        <v>18.65936568914467</v>
       </c>
       <c r="P15" t="n">
-        <v>300.4838900123143</v>
+        <v>300.1551691494593</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -34059,28 +34638,28 @@
         <v>0.0466</v>
       </c>
       <c r="I16" t="n">
-        <v>0.7534072996649623</v>
+        <v>0.7854234031328167</v>
       </c>
       <c r="J16" t="n">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="K16" t="n">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0327603585687497</v>
+        <v>0.03719438423022037</v>
       </c>
       <c r="M16" t="n">
-        <v>20.99900370924634</v>
+        <v>20.65395671934929</v>
       </c>
       <c r="N16" t="n">
-        <v>880.1693364025728</v>
+        <v>860.636916709037</v>
       </c>
       <c r="O16" t="n">
-        <v>29.66764797557388</v>
+        <v>29.33661392712249</v>
       </c>
       <c r="P16" t="n">
-        <v>298.7781139779664</v>
+        <v>298.4627700509053</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -34137,28 +34716,28 @@
         <v>0.033</v>
       </c>
       <c r="I17" t="n">
-        <v>0.6736794665206589</v>
+        <v>0.7954168448824303</v>
       </c>
       <c r="J17" t="n">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="K17" t="n">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="L17" t="n">
-        <v>0.02033157743877489</v>
+        <v>0.02915625468321081</v>
       </c>
       <c r="M17" t="n">
-        <v>27.50640273257106</v>
+        <v>27.24515110581676</v>
       </c>
       <c r="N17" t="n">
-        <v>1150.83334533266</v>
+        <v>1137.147482289269</v>
       </c>
       <c r="O17" t="n">
-        <v>33.92393469709343</v>
+        <v>33.72161743287633</v>
       </c>
       <c r="P17" t="n">
-        <v>293.4367398964676</v>
+        <v>292.2342759549257</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -34215,28 +34794,28 @@
         <v>0.1387</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.09620481393521027</v>
+        <v>0.09145902201789959</v>
       </c>
       <c r="J18" t="n">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="K18" t="n">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0002592239629174431</v>
+        <v>0.0002382873585903278</v>
       </c>
       <c r="M18" t="n">
-        <v>38.4729261921531</v>
+        <v>38.46110780784421</v>
       </c>
       <c r="N18" t="n">
-        <v>1860.455421659973</v>
+        <v>1872.099572487578</v>
       </c>
       <c r="O18" t="n">
-        <v>43.13299690098027</v>
+        <v>43.26776597523355</v>
       </c>
       <c r="P18" t="n">
-        <v>280.1006252371037</v>
+        <v>278.3044351527692</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -34293,28 +34872,28 @@
         <v>0.068</v>
       </c>
       <c r="I19" t="n">
-        <v>0.4995911404033199</v>
+        <v>0.6081180035229068</v>
       </c>
       <c r="J19" t="n">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="K19" t="n">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="L19" t="n">
-        <v>0.01588274975656911</v>
+        <v>0.02397396124307449</v>
       </c>
       <c r="M19" t="n">
-        <v>21.41504945818773</v>
+        <v>21.30411604224531</v>
       </c>
       <c r="N19" t="n">
-        <v>810.5269555226137</v>
+        <v>808.1332610089302</v>
       </c>
       <c r="O19" t="n">
-        <v>28.46975510120545</v>
+        <v>28.42768476342965</v>
       </c>
       <c r="P19" t="n">
-        <v>289.9566207992785</v>
+        <v>288.9059683339383</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -34371,28 +34950,28 @@
         <v>0.0447</v>
       </c>
       <c r="I20" t="n">
-        <v>0.6432420166114317</v>
+        <v>0.729160737341139</v>
       </c>
       <c r="J20" t="n">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="K20" t="n">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="L20" t="n">
-        <v>0.04948189282852145</v>
+        <v>0.06400281437991284</v>
       </c>
       <c r="M20" t="n">
-        <v>16.0233844971266</v>
+        <v>16.07798167555076</v>
       </c>
       <c r="N20" t="n">
-        <v>414.9648190311679</v>
+        <v>415.3773504543871</v>
       </c>
       <c r="O20" t="n">
-        <v>20.37068528624327</v>
+        <v>20.3808083856943</v>
       </c>
       <c r="P20" t="n">
-        <v>291.3804506317774</v>
+        <v>290.5432720515567</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -34449,28 +35028,28 @@
         <v>0.0387</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2664208048097144</v>
+        <v>0.3502565948509118</v>
       </c>
       <c r="J21" t="n">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="K21" t="n">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="L21" t="n">
-        <v>0.01180288921680073</v>
+        <v>0.0206425546853295</v>
       </c>
       <c r="M21" t="n">
-        <v>13.57448955873909</v>
+        <v>13.64376302859663</v>
       </c>
       <c r="N21" t="n">
-        <v>305.6015197571917</v>
+        <v>307.1010933319027</v>
       </c>
       <c r="O21" t="n">
-        <v>17.48146217446332</v>
+        <v>17.52430008108463</v>
       </c>
       <c r="P21" t="n">
-        <v>301.8096687920965</v>
+        <v>300.9901416631486</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -34527,28 +35106,28 @@
         <v>0.0469</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.06558815333240224</v>
+        <v>-0.003781092738101107</v>
       </c>
       <c r="J22" t="n">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="K22" t="n">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0004183120645097071</v>
+        <v>1.406616932042581e-06</v>
       </c>
       <c r="M22" t="n">
-        <v>18.37333949688426</v>
+        <v>18.43555373108762</v>
       </c>
       <c r="N22" t="n">
-        <v>523.2318114259074</v>
+        <v>524.025973452812</v>
       </c>
       <c r="O22" t="n">
-        <v>22.87426089354381</v>
+        <v>22.89161360526627</v>
       </c>
       <c r="P22" t="n">
-        <v>289.6175422901867</v>
+        <v>288.9964069423498</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -34599,28 +35178,28 @@
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="n">
-        <v>-0.1102377425143949</v>
+        <v>-0.07426227578030109</v>
       </c>
       <c r="J23" t="n">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="K23" t="n">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0009500283483054872</v>
+        <v>0.0004466789121637671</v>
       </c>
       <c r="M23" t="n">
-        <v>19.33105100902392</v>
+        <v>19.19433520646435</v>
       </c>
       <c r="N23" t="n">
-        <v>643.6429407406075</v>
+        <v>634.4691017920705</v>
       </c>
       <c r="O23" t="n">
-        <v>25.37011905255093</v>
+        <v>25.18867010765099</v>
       </c>
       <c r="P23" t="n">
-        <v>299.162184392105</v>
+        <v>298.7932676783753</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -34677,28 +35256,28 @@
         <v>0.0385</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.09549925589392599</v>
+        <v>-0.06480032145254805</v>
       </c>
       <c r="J24" t="n">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="K24" t="n">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="L24" t="n">
-        <v>0.001386669230613258</v>
+        <v>0.0006609813526284869</v>
       </c>
       <c r="M24" t="n">
-        <v>14.79647532370115</v>
+        <v>14.64663065894315</v>
       </c>
       <c r="N24" t="n">
-        <v>345.285733811938</v>
+        <v>340.2687987774017</v>
       </c>
       <c r="O24" t="n">
-        <v>18.58186572473114</v>
+        <v>18.44637630477601</v>
       </c>
       <c r="P24" t="n">
-        <v>312.4088394204858</v>
+        <v>312.1043644941691</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -34755,28 +35334,28 @@
         <v>0.037</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1862176475897653</v>
+        <v>0.1990964840792735</v>
       </c>
       <c r="J25" t="n">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="K25" t="n">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="L25" t="n">
-        <v>0.00535935942120358</v>
+        <v>0.00631125021730361</v>
       </c>
       <c r="M25" t="n">
-        <v>14.4266297056384</v>
+        <v>14.31699653539761</v>
       </c>
       <c r="N25" t="n">
-        <v>337.9102414500504</v>
+        <v>333.3403327759413</v>
       </c>
       <c r="O25" t="n">
-        <v>18.38233503802089</v>
+        <v>18.25761027012959</v>
       </c>
       <c r="P25" t="n">
-        <v>319.5992324042105</v>
+        <v>319.4708419696752</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -34833,28 +35412,28 @@
         <v>0.0867</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.230858906628477</v>
+        <v>-0.1847315673672554</v>
       </c>
       <c r="J26" t="n">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="K26" t="n">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="L26" t="n">
-        <v>0.004890071325565182</v>
+        <v>0.003164480802408831</v>
       </c>
       <c r="M26" t="n">
-        <v>19.11349616064228</v>
+        <v>19.17976499764316</v>
       </c>
       <c r="N26" t="n">
-        <v>575.7645620308871</v>
+        <v>579.2816071200131</v>
       </c>
       <c r="O26" t="n">
-        <v>23.99509454098665</v>
+        <v>24.06826971595617</v>
       </c>
       <c r="P26" t="n">
-        <v>325.775993807037</v>
+        <v>325.3199872420919</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -34911,28 +35490,28 @@
         <v>0.0905</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.1286255293214601</v>
+        <v>-0.08879247711491908</v>
       </c>
       <c r="J27" t="n">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="K27" t="n">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="L27" t="n">
-        <v>0.003338263146164366</v>
+        <v>0.00162488937879457</v>
       </c>
       <c r="M27" t="n">
-        <v>12.2523006054515</v>
+        <v>12.21517151817235</v>
       </c>
       <c r="N27" t="n">
-        <v>262.3542484577139</v>
+        <v>261.8128265016214</v>
       </c>
       <c r="O27" t="n">
-        <v>16.19735313122838</v>
+        <v>16.18063121456087</v>
       </c>
       <c r="P27" t="n">
-        <v>325.977855937928</v>
+        <v>325.5880229317469</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -34989,28 +35568,28 @@
         <v>0.08359999999999999</v>
       </c>
       <c r="I28" t="n">
-        <v>0.005692129787395161</v>
+        <v>0.01043715596535162</v>
       </c>
       <c r="J28" t="n">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="K28" t="n">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="L28" t="n">
-        <v>7.339027154218414e-06</v>
+        <v>2.543352079653616e-05</v>
       </c>
       <c r="M28" t="n">
-        <v>11.69824782502</v>
+        <v>11.60885151270934</v>
       </c>
       <c r="N28" t="n">
-        <v>236.1921469812256</v>
+        <v>233.2707883195066</v>
       </c>
       <c r="O28" t="n">
-        <v>15.36854407487012</v>
+        <v>15.27320491316432</v>
       </c>
       <c r="P28" t="n">
-        <v>331.1241092507643</v>
+        <v>331.0779015717183</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -35061,28 +35640,28 @@
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="n">
-        <v>0.7645482125603364</v>
+        <v>0.7554830765426479</v>
       </c>
       <c r="J29" t="n">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="K29" t="n">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="L29" t="n">
-        <v>0.01631098957997512</v>
+        <v>0.01668601870917241</v>
       </c>
       <c r="M29" t="n">
-        <v>22.89665238681508</v>
+        <v>22.48955532814485</v>
       </c>
       <c r="N29" t="n">
-        <v>1937.745796454075</v>
+        <v>1892.650910976857</v>
       </c>
       <c r="O29" t="n">
-        <v>44.01983412569924</v>
+        <v>43.50460792809029</v>
       </c>
       <c r="P29" t="n">
-        <v>313.0669090730557</v>
+        <v>313.1527600938156</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
@@ -35133,28 +35712,28 @@
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="n">
-        <v>0.7104900310644654</v>
+        <v>0.8255484575235457</v>
       </c>
       <c r="J30" t="n">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="K30" t="n">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="L30" t="n">
-        <v>0.004309672314743884</v>
+        <v>0.005975327911026285</v>
       </c>
       <c r="M30" t="n">
-        <v>71.86849004541605</v>
+        <v>71.03372958266257</v>
       </c>
       <c r="N30" t="n">
-        <v>6107.428407738174</v>
+        <v>6031.897142541772</v>
       </c>
       <c r="O30" t="n">
-        <v>78.15003779742</v>
+        <v>77.66528917439098</v>
       </c>
       <c r="P30" t="n">
-        <v>263.1564292822638</v>
+        <v>262.017651828995</v>
       </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
@@ -35211,28 +35790,28 @@
         <v>0.1366</v>
       </c>
       <c r="I31" t="n">
-        <v>1.486900601718696</v>
+        <v>1.431899298415312</v>
       </c>
       <c r="J31" t="n">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="K31" t="n">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="L31" t="n">
-        <v>0.02392593823871902</v>
+        <v>0.02262986912308529</v>
       </c>
       <c r="M31" t="n">
-        <v>64.11777853897996</v>
+        <v>64.24373555150063</v>
       </c>
       <c r="N31" t="n">
-        <v>4606.795682697711</v>
+        <v>4608.080705936837</v>
       </c>
       <c r="O31" t="n">
-        <v>67.8733797795403</v>
+        <v>67.88284544667259</v>
       </c>
       <c r="P31" t="n">
-        <v>245.658211075302</v>
+        <v>246.2200309496135</v>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
@@ -35289,28 +35868,28 @@
         <v>0.0565</v>
       </c>
       <c r="I32" t="n">
-        <v>0.2643643835695882</v>
+        <v>0.2333896995081933</v>
       </c>
       <c r="J32" t="n">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="K32" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L32" t="n">
-        <v>0.001058436386774941</v>
+        <v>0.0008431802131505517</v>
       </c>
       <c r="M32" t="n">
-        <v>51.4400031368064</v>
+        <v>51.14450538272364</v>
       </c>
       <c r="N32" t="n">
-        <v>3322.884410410552</v>
+        <v>3293.350980625229</v>
       </c>
       <c r="O32" t="n">
-        <v>57.64446556618035</v>
+        <v>57.38772499956092</v>
       </c>
       <c r="P32" t="n">
-        <v>287.1599899673068</v>
+        <v>287.4665427212938</v>
       </c>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
@@ -35367,28 +35946,28 @@
         <v>0.068</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.307624239275484</v>
+        <v>-0.1282062990154867</v>
       </c>
       <c r="J33" t="n">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="K33" t="n">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="L33" t="n">
-        <v>0.001669330522731216</v>
+        <v>0.0002976661332727559</v>
       </c>
       <c r="M33" t="n">
-        <v>46.76539769373871</v>
+        <v>46.40800981550314</v>
       </c>
       <c r="N33" t="n">
-        <v>2871.782031862133</v>
+        <v>2855.21262129108</v>
       </c>
       <c r="O33" t="n">
-        <v>53.58901036464597</v>
+        <v>53.43418962884232</v>
       </c>
       <c r="P33" t="n">
-        <v>304.6769416195522</v>
+        <v>302.856430385491</v>
       </c>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
@@ -35445,28 +36024,28 @@
         <v>0.0429</v>
       </c>
       <c r="I34" t="n">
-        <v>-1.235532159303154</v>
+        <v>-0.9932403282217607</v>
       </c>
       <c r="J34" t="n">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="K34" t="n">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="L34" t="n">
-        <v>0.02802474035057656</v>
+        <v>0.01851799479041405</v>
       </c>
       <c r="M34" t="n">
-        <v>46.14596954393743</v>
+        <v>46.19551516663294</v>
       </c>
       <c r="N34" t="n">
-        <v>2887.859278481005</v>
+        <v>2903.775010782909</v>
       </c>
       <c r="O34" t="n">
-        <v>53.73880607606579</v>
+        <v>53.88668676753943</v>
       </c>
       <c r="P34" t="n">
-        <v>324.4735470608531</v>
+        <v>322.1111841902381</v>
       </c>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
@@ -35504,7 +36083,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI331"/>
+  <dimension ref="A1:AI336"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78523,6 +79102,839 @@
         </is>
       </c>
     </row>
+    <row r="332">
+      <c r="A332" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:06:19+00:00</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>-38.28814946255886,174.71498325173968</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>-38.287445233997516,174.71502993619868</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>-38.2867391163538,174.71500222421489</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>-38.2860250546797,174.71466082514638</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>-38.28531863461893,174.71462171749215</t>
+        </is>
+      </c>
+      <c r="G332" t="inlineStr">
+        <is>
+          <t>-38.28462182571512,174.7149627084461</t>
+        </is>
+      </c>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>-38.283919167963944,174.71507282621863</t>
+        </is>
+      </c>
+      <c r="I332" t="inlineStr">
+        <is>
+          <t>-38.28321999774434,174.71532105550244</t>
+        </is>
+      </c>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>-38.28181246699119,174.71545509020086</t>
+        </is>
+      </c>
+      <c r="L332" t="inlineStr">
+        <is>
+          <t>-38.2811114729275,174.71563205055975</t>
+        </is>
+      </c>
+      <c r="M332" t="inlineStr">
+        <is>
+          <t>-38.280404955893694,174.71559098178867</t>
+        </is>
+      </c>
+      <c r="N332" t="inlineStr">
+        <is>
+          <t>-38.27969852199357,174.71555347246252</t>
+        </is>
+      </c>
+      <c r="O332" t="inlineStr">
+        <is>
+          <t>-38.278994821796374,174.7156461463762</t>
+        </is>
+      </c>
+      <c r="P332" t="inlineStr">
+        <is>
+          <t>-38.2782659330057,174.71546863640802</t>
+        </is>
+      </c>
+      <c r="Q332" t="inlineStr">
+        <is>
+          <t>-38.27755000480475,174.71532741928598</t>
+        </is>
+      </c>
+      <c r="R332" t="inlineStr">
+        <is>
+          <t>-38.276850013963355,174.7152189913796</t>
+        </is>
+      </c>
+      <c r="S332" t="inlineStr">
+        <is>
+          <t>-38.27615549584902,174.71505153715648</t>
+        </is>
+      </c>
+      <c r="T332" t="inlineStr">
+        <is>
+          <t>-38.275443331112854,174.71507410270112</t>
+        </is>
+      </c>
+      <c r="U332" t="inlineStr">
+        <is>
+          <t>-38.27473293397682,174.715077552992</t>
+        </is>
+      </c>
+      <c r="V332" t="inlineStr">
+        <is>
+          <t>-38.27402059722838,174.71510182225526</t>
+        </is>
+      </c>
+      <c r="W332" t="inlineStr">
+        <is>
+          <t>-38.27331412721104,174.7150628219046</t>
+        </is>
+      </c>
+      <c r="X332" t="inlineStr">
+        <is>
+          <t>-38.272630151895015,174.7147814394227</t>
+        </is>
+      </c>
+      <c r="Y332" t="inlineStr">
+        <is>
+          <t>-38.27194954059784,174.71446374380687</t>
+        </is>
+      </c>
+      <c r="Z332" t="inlineStr">
+        <is>
+          <t>-38.27125398211427,174.71430698642502</t>
+        </is>
+      </c>
+      <c r="AA332" t="inlineStr">
+        <is>
+          <t>-38.27055633572916,174.71417264727597</t>
+        </is>
+      </c>
+      <c r="AB332" t="inlineStr">
+        <is>
+          <t>-38.26983724773284,174.71426920640312</t>
+        </is>
+      </c>
+      <c r="AC332" t="inlineStr">
+        <is>
+          <t>-38.26913576317787,174.7141760664644</t>
+        </is>
+      </c>
+      <c r="AD332" t="inlineStr">
+        <is>
+          <t>-38.26843663032121,174.7140575211761</t>
+        </is>
+      </c>
+      <c r="AE332" t="inlineStr">
+        <is>
+          <t>-38.26773834248196,174.71392980046298</t>
+        </is>
+      </c>
+      <c r="AF332" t="inlineStr"/>
+      <c r="AG332" t="inlineStr">
+        <is>
+          <t>-38.26634366978375,174.71365364130642</t>
+        </is>
+      </c>
+      <c r="AH332" t="inlineStr">
+        <is>
+          <t>-38.26564169298627,174.71356543929437</t>
+        </is>
+      </c>
+      <c r="AI332" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-11 22:06:15+00:00</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>-38.28815281361068,174.7151157092369</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>-38.28744771847009,174.7151281391607</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>-38.28673955284996,174.71501947669088</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>-38.28603017282671,174.71486309812047</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>-38.285324147841976,174.71483959716292</t>
+        </is>
+      </c>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>-38.28462386952022,174.71504348424546</t>
+        </is>
+      </c>
+      <c r="H333" t="inlineStr">
+        <is>
+          <t>-38.28392063192305,174.71513068587566</t>
+        </is>
+      </c>
+      <c r="I333" t="inlineStr">
+        <is>
+          <t>-38.28322117997879,174.71536778345933</t>
+        </is>
+      </c>
+      <c r="J333" t="inlineStr">
+        <is>
+          <t>-38.28251270569325,174.71524854986123</t>
+        </is>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>-38.28180868820284,174.71530573776457</t>
+        </is>
+      </c>
+      <c r="L333" t="inlineStr">
+        <is>
+          <t>-38.28110777027091,174.71548570147286</t>
+        </is>
+      </c>
+      <c r="M333" t="inlineStr">
+        <is>
+          <t>-38.28040427952646,174.7155642484908</t>
+        </is>
+      </c>
+      <c r="N333" t="inlineStr">
+        <is>
+          <t>-38.2796984084375,174.71554898431503</t>
+        </is>
+      </c>
+      <c r="O333" t="inlineStr">
+        <is>
+          <t>-38.278995643669816,174.71567999621888</t>
+        </is>
+      </c>
+      <c r="P333" t="inlineStr">
+        <is>
+          <t>-38.278258308955856,174.71568895855276</t>
+        </is>
+      </c>
+      <c r="Q333" t="inlineStr">
+        <is>
+          <t>-38.27755254440084,174.71530006221906</t>
+        </is>
+      </c>
+      <c r="R333" t="inlineStr">
+        <is>
+          <t>-38.27681834779195,174.71556009995217</t>
+        </is>
+      </c>
+      <c r="S333" t="inlineStr">
+        <is>
+          <t>-38.276140269027444,174.71521556292672</t>
+        </is>
+      </c>
+      <c r="T333" t="inlineStr">
+        <is>
+          <t>-38.27544344702586,174.71507285407398</t>
+        </is>
+      </c>
+      <c r="U333" t="inlineStr">
+        <is>
+          <t>-38.27474438372611,174.7149542157618</t>
+        </is>
+      </c>
+      <c r="V333" t="inlineStr">
+        <is>
+          <t>-38.274019332716,174.71511544337477</t>
+        </is>
+      </c>
+      <c r="W333" t="inlineStr">
+        <is>
+          <t>-38.27329470628296,174.71527201752195</t>
+        </is>
+      </c>
+      <c r="X333" t="inlineStr">
+        <is>
+          <t>-38.27261811369789,174.71491111329055</t>
+        </is>
+      </c>
+      <c r="Y333" t="inlineStr">
+        <is>
+          <t>-38.271918946659525,174.71479330084352</t>
+        </is>
+      </c>
+      <c r="Z333" t="inlineStr">
+        <is>
+          <t>-38.27120139420514,174.71487345778948</t>
+        </is>
+      </c>
+      <c r="AA333" t="inlineStr">
+        <is>
+          <t>-38.27053220099209,174.71443262831207</t>
+        </is>
+      </c>
+      <c r="AB333" t="inlineStr">
+        <is>
+          <t>-38.26983599685564,174.7142826808254</t>
+        </is>
+      </c>
+      <c r="AC333" t="inlineStr">
+        <is>
+          <t>-38.26913098363099,174.71422755144158</t>
+        </is>
+      </c>
+      <c r="AD333" t="inlineStr">
+        <is>
+          <t>-38.26841857028339,174.7142520615135</t>
+        </is>
+      </c>
+      <c r="AE333" t="inlineStr"/>
+      <c r="AF333" t="inlineStr">
+        <is>
+          <t>-38.26695318502521,174.71473772441442</t>
+        </is>
+      </c>
+      <c r="AG333" t="inlineStr">
+        <is>
+          <t>-38.26633257496678,174.7137731542814</t>
+        </is>
+      </c>
+      <c r="AH333" t="inlineStr">
+        <is>
+          <t>-38.26564760983034,174.71350170287278</t>
+        </is>
+      </c>
+      <c r="AI333" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:06:18+00:00</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>-38.28815234126225,174.71509703829437</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>-38.28744862609862,174.71516401552003</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>-38.286742632661166,174.7151412088443</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>-38.28603379412429,174.71500622284762</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>-38.28532226581722,174.71476521873112</t>
+        </is>
+      </c>
+      <c r="G334" t="inlineStr">
+        <is>
+          <t>-38.28462593639512,174.7151251740591</t>
+        </is>
+      </c>
+      <c r="H334" t="inlineStr">
+        <is>
+          <t>-38.283919803106855,174.71509792865925</t>
+        </is>
+      </c>
+      <c r="I334" t="inlineStr">
+        <is>
+          <t>-38.283221938577434,174.7153977675494</t>
+        </is>
+      </c>
+      <c r="J334" t="inlineStr">
+        <is>
+          <t>-38.28251332636025,174.7152730805759</t>
+        </is>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>-38.2818080061048,174.7152787793966</t>
+        </is>
+      </c>
+      <c r="L334" t="inlineStr">
+        <is>
+          <t>-38.281108137365244,174.71550021071064</t>
+        </is>
+      </c>
+      <c r="M334" t="inlineStr">
+        <is>
+          <t>-38.280404419582794,174.71556978417368</t>
+        </is>
+      </c>
+      <c r="N334" t="inlineStr">
+        <is>
+          <t>-38.2796989667188,174.71557104968016</t>
+        </is>
+      </c>
+      <c r="O334" t="inlineStr">
+        <is>
+          <t>-38.27899350640862,174.7155919713958</t>
+        </is>
+      </c>
+      <c r="P334" t="inlineStr">
+        <is>
+          <t>-38.27826319977543,174.715547623519</t>
+        </is>
+      </c>
+      <c r="Q334" t="inlineStr">
+        <is>
+          <t>-38.27754754950459,174.71535386823243</t>
+        </is>
+      </c>
+      <c r="R334" t="inlineStr">
+        <is>
+          <t>-38.276838468131245,174.71534336456054</t>
+        </is>
+      </c>
+      <c r="S334" t="inlineStr">
+        <is>
+          <t>-38.27613566054193,174.7152652057744</t>
+        </is>
+      </c>
+      <c r="T334" t="inlineStr">
+        <is>
+          <t>-38.27543384727627,174.71517626308614</t>
+        </is>
+      </c>
+      <c r="U334" t="inlineStr">
+        <is>
+          <t>-38.274731535490865,174.71509261744953</t>
+        </is>
+      </c>
+      <c r="V334" t="inlineStr">
+        <is>
+          <t>-38.27402697245442,174.715033149103</t>
+        </is>
+      </c>
+      <c r="W334" t="inlineStr">
+        <is>
+          <t>-38.273327263964376,174.71492131494097</t>
+        </is>
+      </c>
+      <c r="X334" t="inlineStr">
+        <is>
+          <t>-38.27263375865988,174.7147425875204</t>
+        </is>
+      </c>
+      <c r="Y334" t="inlineStr">
+        <is>
+          <t>-38.27193738381731,174.71459469752588</t>
+        </is>
+      </c>
+      <c r="Z334" t="inlineStr">
+        <is>
+          <t>-38.27123648171375,174.71449550223008</t>
+        </is>
+      </c>
+      <c r="AA334" t="inlineStr">
+        <is>
+          <t>-38.27053201132587,174.7144346713843</t>
+        </is>
+      </c>
+      <c r="AB334" t="inlineStr">
+        <is>
+          <t>-38.26982858789806,174.71436248960717</t>
+        </is>
+      </c>
+      <c r="AC334" t="inlineStr">
+        <is>
+          <t>-38.26913296921014,174.71420616293852</t>
+        </is>
+      </c>
+      <c r="AD334" t="inlineStr">
+        <is>
+          <t>-38.268430317869615,174.71412551847408</t>
+        </is>
+      </c>
+      <c r="AE334" t="inlineStr">
+        <is>
+          <t>-38.26773018011702,174.71401772492192</t>
+        </is>
+      </c>
+      <c r="AF334" t="inlineStr"/>
+      <c r="AG334" t="inlineStr">
+        <is>
+          <t>-38.266325689961505,174.71384731863833</t>
+        </is>
+      </c>
+      <c r="AH334" t="inlineStr">
+        <is>
+          <t>-38.265642033156816,174.7135617749774</t>
+        </is>
+      </c>
+      <c r="AI334" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:06:15+00:00</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>-38.288151262909174,174.71505441370257</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>-38.287447448202784,174.71511745623212</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>-38.28673992125202,174.7150340378315</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>-38.286025425626455,174.7146754847731</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>-38.28531587640968,174.7145127205371</t>
+        </is>
+      </c>
+      <c r="G335" t="inlineStr">
+        <is>
+          <t>-38.284621533738424,174.7149511690464</t>
+        </is>
+      </c>
+      <c r="H335" t="inlineStr">
+        <is>
+          <t>-38.28392596965969,174.71534165737484</t>
+        </is>
+      </c>
+      <c r="I335" t="inlineStr">
+        <is>
+          <t>-38.2832221495834,174.71540610774727</t>
+        </is>
+      </c>
+      <c r="J335" t="inlineStr">
+        <is>
+          <t>-38.28251802269781,174.7154587012204</t>
+        </is>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>-38.281807416004746,174.7152554572372</t>
+        </is>
+      </c>
+      <c r="L335" t="inlineStr">
+        <is>
+          <t>-38.281110493085365,174.7155933211753</t>
+        </is>
+      </c>
+      <c r="M335" t="inlineStr">
+        <is>
+          <t>-38.28040850291157,174.7157311810113</t>
+        </is>
+      </c>
+      <c r="N335" t="inlineStr">
+        <is>
+          <t>-38.27969450984975,174.7153949021365</t>
+        </is>
+      </c>
+      <c r="O335" t="inlineStr">
+        <is>
+          <t>-38.27899007727379,174.71545074541984</t>
+        </is>
+      </c>
+      <c r="P335" t="inlineStr">
+        <is>
+          <t>-38.278262301670196,174.7155735773573</t>
+        </is>
+      </c>
+      <c r="Q335" t="inlineStr">
+        <is>
+          <t>-38.277535863037635,174.71547975610883</t>
+        </is>
+      </c>
+      <c r="R335" t="inlineStr">
+        <is>
+          <t>-38.27686230431728,174.71508659651488</t>
+        </is>
+      </c>
+      <c r="S335" t="inlineStr">
+        <is>
+          <t>-38.276153110855574,174.71507722885661</t>
+        </is>
+      </c>
+      <c r="T335" t="inlineStr">
+        <is>
+          <t>-38.275437040177785,174.71514186909317</t>
+        </is>
+      </c>
+      <c r="U335" t="inlineStr">
+        <is>
+          <t>-38.274737285980585,174.71503067317428</t>
+        </is>
+      </c>
+      <c r="V335" t="inlineStr"/>
+      <c r="W335" t="inlineStr">
+        <is>
+          <t>-38.27332940306136,174.7148982727588</t>
+        </is>
+      </c>
+      <c r="X335" t="inlineStr">
+        <is>
+          <t>-38.2726307630589,174.71477485600383</t>
+        </is>
+      </c>
+      <c r="Y335" t="inlineStr">
+        <is>
+          <t>-38.27193922480515,174.71457486637522</t>
+        </is>
+      </c>
+      <c r="Z335" t="inlineStr">
+        <is>
+          <t>-38.271269418524284,174.71414070132576</t>
+        </is>
+      </c>
+      <c r="AA335" t="inlineStr">
+        <is>
+          <t>-38.27054587267178,174.71428535682557</t>
+        </is>
+      </c>
+      <c r="AB335" t="inlineStr">
+        <is>
+          <t>-38.2698243821391,174.71440779348694</t>
+        </is>
+      </c>
+      <c r="AC335" t="inlineStr">
+        <is>
+          <t>-38.26911837316477,174.71436338939003</t>
+        </is>
+      </c>
+      <c r="AD335" t="inlineStr">
+        <is>
+          <t>-38.26838030347765,174.71466425471604</t>
+        </is>
+      </c>
+      <c r="AE335" t="inlineStr">
+        <is>
+          <t>-38.2675833411972,174.71559933990162</t>
+        </is>
+      </c>
+      <c r="AF335" t="inlineStr">
+        <is>
+          <t>-38.26699533359817,174.7142837306146</t>
+        </is>
+      </c>
+      <c r="AG335" t="inlineStr">
+        <is>
+          <t>-38.26635441210182,174.7135379241567</t>
+        </is>
+      </c>
+      <c r="AH335" t="inlineStr">
+        <is>
+          <t>-38.26566848633681,174.71327681746618</t>
+        </is>
+      </c>
+      <c r="AI335" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:06:00+00:00</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>-38.28815194083494,174.71508121033565</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>-38.287445904625336,174.71505644357143</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>-38.2867380050276,174.71495829958926</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>-38.28602974319603,174.71484611826392</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>-38.285326501029196,174.7149325987687</t>
+        </is>
+      </c>
+      <c r="G336" t="inlineStr"/>
+      <c r="H336" t="inlineStr">
+        <is>
+          <t>-38.28391601570894,174.71494824434347</t>
+        </is>
+      </c>
+      <c r="I336" t="inlineStr">
+        <is>
+          <t>-38.283218565613,174.71526445133085</t>
+        </is>
+      </c>
+      <c r="J336" t="inlineStr">
+        <is>
+          <t>-38.282513468415054,174.71527869505752</t>
+        </is>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>-38.28180866677212,174.71530489076048</t>
+        </is>
+      </c>
+      <c r="L336" t="inlineStr">
+        <is>
+          <t>-38.281107781832965,174.7154861584567</t>
+        </is>
+      </c>
+      <c r="M336" t="inlineStr">
+        <is>
+          <t>-38.28041488522886,174.71598346485197</t>
+        </is>
+      </c>
+      <c r="N336" t="inlineStr">
+        <is>
+          <t>-38.27969756894304,174.715515804665</t>
+        </is>
+      </c>
+      <c r="O336" t="inlineStr">
+        <is>
+          <t>-38.27899195916456,174.71552824860686</t>
+        </is>
+      </c>
+      <c r="P336" t="inlineStr">
+        <is>
+          <t>-38.27827140325825,174.71531054797182</t>
+        </is>
+      </c>
+      <c r="Q336" t="inlineStr">
+        <is>
+          <t>-38.277573609104934,174.7150731460504</t>
+        </is>
+      </c>
+      <c r="R336" t="inlineStr"/>
+      <c r="S336" t="inlineStr">
+        <is>
+          <t>-38.276129935031655,174.71532688094877</t>
+        </is>
+      </c>
+      <c r="T336" t="inlineStr">
+        <is>
+          <t>-38.27545111833038,174.7149902176515</t>
+        </is>
+      </c>
+      <c r="U336" t="inlineStr">
+        <is>
+          <t>-38.2747503042467,174.7148904390781</t>
+        </is>
+      </c>
+      <c r="V336" t="inlineStr"/>
+      <c r="W336" t="inlineStr">
+        <is>
+          <t>-38.273298503386314,174.7152311167428</t>
+        </is>
+      </c>
+      <c r="X336" t="inlineStr">
+        <is>
+          <t>-38.27261327549777,174.7149632292969</t>
+        </is>
+      </c>
+      <c r="Y336" t="inlineStr">
+        <is>
+          <t>-38.27192754358287,174.71470069606113</t>
+        </is>
+      </c>
+      <c r="Z336" t="inlineStr"/>
+      <c r="AA336" t="inlineStr">
+        <is>
+          <t>-38.270526579481285,174.7144931826972</t>
+        </is>
+      </c>
+      <c r="AB336" t="inlineStr">
+        <is>
+          <t>-38.269851342950346,174.7141173718421</t>
+        </is>
+      </c>
+      <c r="AC336" t="inlineStr">
+        <is>
+          <t>-38.26914032780186,174.7141268963904</t>
+        </is>
+      </c>
+      <c r="AD336" t="inlineStr"/>
+      <c r="AE336" t="inlineStr">
+        <is>
+          <t>-38.26760526388426,174.71536322364625</t>
+        </is>
+      </c>
+      <c r="AF336" t="inlineStr"/>
+      <c r="AG336" t="inlineStr"/>
+      <c r="AH336" t="inlineStr"/>
+      <c r="AI336" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0252/nzd0252.xlsx
+++ b/data/nzd0252/nzd0252.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI336"/>
+  <dimension ref="A1:AI338"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29910,7 +29910,9 @@
       <c r="F336" t="n">
         <v>340.6799999999999</v>
       </c>
-      <c r="G336" t="inlineStr"/>
+      <c r="G336" t="n">
+        <v>301.56</v>
+      </c>
       <c r="H336" t="n">
         <v>346.2814285714285</v>
       </c>
@@ -29971,16 +29973,190 @@
       <c r="AC336" t="n">
         <v>338.5072093023256</v>
       </c>
-      <c r="AD336" t="inlineStr"/>
+      <c r="AD336" t="n">
+        <v>188.9690909090909</v>
+      </c>
       <c r="AE336" t="n">
         <v>212.96</v>
       </c>
-      <c r="AF336" t="inlineStr"/>
-      <c r="AG336" t="inlineStr"/>
-      <c r="AH336" t="inlineStr"/>
+      <c r="AF336" t="n">
+        <v>251.25</v>
+      </c>
+      <c r="AG336" t="n">
+        <v>244.18</v>
+      </c>
+      <c r="AH336" t="n">
+        <v>258.8314285714285</v>
+      </c>
       <c r="AI336" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-28 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>314.0605882352941</v>
+      </c>
+      <c r="C337" t="n">
+        <v>312.36</v>
+      </c>
+      <c r="D337" t="inlineStr"/>
+      <c r="E337" t="inlineStr"/>
+      <c r="F337" t="n">
+        <v>324.6</v>
+      </c>
+      <c r="G337" t="n">
+        <v>297.85</v>
+      </c>
+      <c r="H337" t="n">
+        <v>351.8242857142857</v>
+      </c>
+      <c r="I337" t="n">
+        <v>327.7666666666667</v>
+      </c>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="n">
+        <v>289.3</v>
+      </c>
+      <c r="L337" t="n">
+        <v>311.93</v>
+      </c>
+      <c r="M337" t="n">
+        <v>265.2763636363636</v>
+      </c>
+      <c r="N337" t="n">
+        <v>315.7971428571428</v>
+      </c>
+      <c r="O337" t="n">
+        <v>311.3528571428571</v>
+      </c>
+      <c r="P337" t="inlineStr"/>
+      <c r="Q337" t="n">
+        <v>281.89</v>
+      </c>
+      <c r="R337" t="inlineStr"/>
+      <c r="S337" t="n">
+        <v>278.14</v>
+      </c>
+      <c r="T337" t="n">
+        <v>294.85</v>
+      </c>
+      <c r="U337" t="n">
+        <v>312.3742857142857</v>
+      </c>
+      <c r="V337" t="n">
+        <v>279.92</v>
+      </c>
+      <c r="W337" t="inlineStr"/>
+      <c r="X337" t="inlineStr"/>
+      <c r="Y337" t="inlineStr"/>
+      <c r="Z337" t="inlineStr"/>
+      <c r="AA337" t="n">
+        <v>325.91</v>
+      </c>
+      <c r="AB337" t="n">
+        <v>344.9571428571429</v>
+      </c>
+      <c r="AC337" t="n">
+        <v>336.1190697674418</v>
+      </c>
+      <c r="AD337" t="n">
+        <v>188.7072727272727</v>
+      </c>
+      <c r="AE337" t="n">
+        <v>210.74</v>
+      </c>
+      <c r="AF337" t="n">
+        <v>254.55</v>
+      </c>
+      <c r="AG337" t="n">
+        <v>248.9666666666667</v>
+      </c>
+      <c r="AH337" t="n">
+        <v>263.7842857142857</v>
+      </c>
+      <c r="AI337" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr"/>
+      <c r="C338" t="inlineStr"/>
+      <c r="D338" t="inlineStr"/>
+      <c r="E338" t="inlineStr"/>
+      <c r="F338" t="inlineStr"/>
+      <c r="G338" t="inlineStr"/>
+      <c r="H338" t="inlineStr"/>
+      <c r="I338" t="inlineStr"/>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
+      <c r="L338" t="inlineStr"/>
+      <c r="M338" t="inlineStr"/>
+      <c r="N338" t="inlineStr"/>
+      <c r="O338" t="inlineStr"/>
+      <c r="P338" t="n">
+        <v>314.6314285714286</v>
+      </c>
+      <c r="Q338" t="n">
+        <v>299.02</v>
+      </c>
+      <c r="R338" t="n">
+        <v>320.0033333333333</v>
+      </c>
+      <c r="S338" t="inlineStr"/>
+      <c r="T338" t="n">
+        <v>316.78</v>
+      </c>
+      <c r="U338" t="n">
+        <v>310.3614285714286</v>
+      </c>
+      <c r="V338" t="n">
+        <v>299.31</v>
+      </c>
+      <c r="W338" t="n">
+        <v>306.0866666666667</v>
+      </c>
+      <c r="X338" t="n">
+        <v>303.8914285714285</v>
+      </c>
+      <c r="Y338" t="n">
+        <v>319.8414285714285</v>
+      </c>
+      <c r="Z338" t="n">
+        <v>339.2057142857143</v>
+      </c>
+      <c r="AA338" t="n">
+        <v>336.205</v>
+      </c>
+      <c r="AB338" t="n">
+        <v>328.0057142857143</v>
+      </c>
+      <c r="AC338" t="n">
+        <v>301.8718604651163</v>
+      </c>
+      <c r="AD338" t="n">
+        <v>154.5709090909091</v>
+      </c>
+      <c r="AE338" t="inlineStr"/>
+      <c r="AF338" t="inlineStr"/>
+      <c r="AG338" t="inlineStr"/>
+      <c r="AH338" t="inlineStr"/>
+      <c r="AI338" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -29995,7 +30171,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B340"/>
+  <dimension ref="A1:B342"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33403,6 +33579,26 @@
       </c>
       <c r="B340" t="n">
         <v>1.35</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>2025-04-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>-0.47</v>
       </c>
     </row>
   </sheetData>
@@ -33576,28 +33772,28 @@
         <v>0.0953</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1893525469064189</v>
+        <v>-0.1870267363556266</v>
       </c>
       <c r="J2" t="n">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K2" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02203786283634956</v>
+        <v>0.02167383603975004</v>
       </c>
       <c r="M2" t="n">
-        <v>7.021394688875041</v>
+        <v>7.004737472054839</v>
       </c>
       <c r="N2" t="n">
-        <v>83.24911703823638</v>
+        <v>82.96009272623725</v>
       </c>
       <c r="O2" t="n">
-        <v>9.124095409312442</v>
+        <v>9.108243119627256</v>
       </c>
       <c r="P2" t="n">
-        <v>315.8460631267112</v>
+        <v>315.8230907495108</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -33654,28 +33850,28 @@
         <v>0.0954</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1161054629545583</v>
+        <v>0.1176185130604187</v>
       </c>
       <c r="J3" t="n">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K3" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002026725720046141</v>
+        <v>0.002097548593836041</v>
       </c>
       <c r="M3" t="n">
-        <v>11.20390275470797</v>
+        <v>11.16294943064888</v>
       </c>
       <c r="N3" t="n">
-        <v>349.9618456688319</v>
+        <v>348.4993074061192</v>
       </c>
       <c r="O3" t="n">
-        <v>18.7072671886845</v>
+        <v>18.66813615244219</v>
       </c>
       <c r="P3" t="n">
-        <v>307.5783378433411</v>
+        <v>307.5633751240389</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -33735,7 +33931,7 @@
         <v>-0.7856281801444294</v>
       </c>
       <c r="J4" t="n">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K4" t="n">
         <v>208</v>
@@ -33807,7 +34003,7 @@
         <v>0.2248935297975939</v>
       </c>
       <c r="J5" t="n">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K5" t="n">
         <v>226</v>
@@ -33876,28 +34072,28 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>1.371170715885573</v>
+        <v>1.336101898908416</v>
       </c>
       <c r="J6" t="n">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K6" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03955864519679197</v>
+        <v>0.03793667507213638</v>
       </c>
       <c r="M6" t="n">
-        <v>26.52467619397491</v>
+        <v>26.56279709251237</v>
       </c>
       <c r="N6" t="n">
-        <v>2395.493741506606</v>
+        <v>2389.56813901944</v>
       </c>
       <c r="O6" t="n">
-        <v>48.94378143857099</v>
+        <v>48.88320917267441</v>
       </c>
       <c r="P6" t="n">
-        <v>324.8321617845477</v>
+        <v>325.1738238387576</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -33954,28 +34150,28 @@
         <v>0.0527</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.001059116711671968</v>
+        <v>-0.06051605135270424</v>
       </c>
       <c r="J7" t="n">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K7" t="n">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L7" t="n">
-        <v>9.276405932290288e-08</v>
+        <v>0.0003049948188331708</v>
       </c>
       <c r="M7" t="n">
-        <v>17.62164900154604</v>
+        <v>17.841865510488</v>
       </c>
       <c r="N7" t="n">
-        <v>612.5265172268056</v>
+        <v>614.843455391185</v>
       </c>
       <c r="O7" t="n">
-        <v>24.74927306461355</v>
+        <v>24.79603709045429</v>
       </c>
       <c r="P7" t="n">
-        <v>329.1655497684432</v>
+        <v>329.763131573395</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -34032,28 +34228,28 @@
         <v>0.0386</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3161913781486665</v>
+        <v>0.3311223810132261</v>
       </c>
       <c r="J8" t="n">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K8" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02107582617112336</v>
+        <v>0.02319481550379809</v>
       </c>
       <c r="M8" t="n">
-        <v>11.71105838789767</v>
+        <v>11.73117728874195</v>
       </c>
       <c r="N8" t="n">
-        <v>239.9987250750577</v>
+        <v>239.9757259523237</v>
       </c>
       <c r="O8" t="n">
-        <v>15.49189223674944</v>
+        <v>15.49114992349902</v>
       </c>
       <c r="P8" t="n">
-        <v>328.3608747448923</v>
+        <v>328.2139552475075</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -34110,28 +34306,28 @@
         <v>0.0507</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2285530078053762</v>
+        <v>0.2474398095275598</v>
       </c>
       <c r="J9" t="n">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K9" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L9" t="n">
-        <v>0.001927143678049914</v>
+        <v>0.002280275672950749</v>
       </c>
       <c r="M9" t="n">
-        <v>19.57744909237229</v>
+        <v>19.51632770345475</v>
       </c>
       <c r="N9" t="n">
-        <v>1405.147510865141</v>
+        <v>1399.549384123565</v>
       </c>
       <c r="O9" t="n">
-        <v>37.48529726259538</v>
+        <v>37.41055177518189</v>
       </c>
       <c r="P9" t="n">
-        <v>303.8084468303516</v>
+        <v>303.6219382624911</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -34185,7 +34381,7 @@
         <v>0.3568519594319482</v>
       </c>
       <c r="J10" t="n">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K10" t="n">
         <v>191</v>
@@ -34254,28 +34450,28 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>0.2408893739084689</v>
+        <v>0.2066277029667922</v>
       </c>
       <c r="J11" t="n">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K11" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01491377698062868</v>
+        <v>0.01078772651121651</v>
       </c>
       <c r="M11" t="n">
-        <v>10.5731577520256</v>
+        <v>10.74483681137331</v>
       </c>
       <c r="N11" t="n">
-        <v>207.1516838728736</v>
+        <v>212.6405196418143</v>
       </c>
       <c r="O11" t="n">
-        <v>14.39276498359067</v>
+        <v>14.58219872453446</v>
       </c>
       <c r="P11" t="n">
-        <v>320.115992814817</v>
+        <v>320.4484152131894</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -34332,28 +34528,28 @@
         <v>0.0576</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2461695738406923</v>
+        <v>0.2480455511486769</v>
       </c>
       <c r="J12" t="n">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K12" t="n">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L12" t="n">
-        <v>0.02112219982248842</v>
+        <v>0.02164714889085195</v>
       </c>
       <c r="M12" t="n">
-        <v>9.471984104627715</v>
+        <v>9.433924004978168</v>
       </c>
       <c r="N12" t="n">
-        <v>150.7332304259226</v>
+        <v>149.9946133775372</v>
       </c>
       <c r="O12" t="n">
-        <v>12.27734622896669</v>
+        <v>12.24722880400041</v>
       </c>
       <c r="P12" t="n">
-        <v>303.7409549065197</v>
+        <v>303.7225829308318</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -34410,28 +34606,28 @@
         <v>0.0663</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3778490479055056</v>
+        <v>0.3467229095946051</v>
       </c>
       <c r="J13" t="n">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K13" t="n">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01131003648490969</v>
+        <v>0.009578929508549661</v>
       </c>
       <c r="M13" t="n">
-        <v>19.29912036831147</v>
+        <v>19.40958509959435</v>
       </c>
       <c r="N13" t="n">
-        <v>664.5960782250925</v>
+        <v>665.9139454544031</v>
       </c>
       <c r="O13" t="n">
-        <v>25.77976101954967</v>
+        <v>25.80530847431208</v>
       </c>
       <c r="P13" t="n">
-        <v>286.3916981985532</v>
+        <v>286.6897096400512</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -34488,28 +34684,28 @@
         <v>0.0833</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3213749802998356</v>
+        <v>0.3222700087013396</v>
       </c>
       <c r="J14" t="n">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K14" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L14" t="n">
-        <v>0.03339832638753526</v>
+        <v>0.03387556085707133</v>
       </c>
       <c r="M14" t="n">
-        <v>8.915701753896602</v>
+        <v>8.883161547986925</v>
       </c>
       <c r="N14" t="n">
-        <v>157.4619836615213</v>
+        <v>156.8159286790282</v>
       </c>
       <c r="O14" t="n">
-        <v>12.5483856994245</v>
+        <v>12.52261668658065</v>
       </c>
       <c r="P14" t="n">
-        <v>306.5892286368648</v>
+        <v>306.5805911242913</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -34560,28 +34756,28 @@
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="n">
-        <v>0.3296403855801516</v>
+        <v>0.3321524949644193</v>
       </c>
       <c r="J15" t="n">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K15" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L15" t="n">
-        <v>0.01550376622393923</v>
+        <v>0.01588361096419411</v>
       </c>
       <c r="M15" t="n">
-        <v>13.98161826377555</v>
+        <v>13.93275041296758</v>
       </c>
       <c r="N15" t="n">
-        <v>348.1719279212295</v>
+        <v>346.7425445130057</v>
       </c>
       <c r="O15" t="n">
-        <v>18.65936568914467</v>
+        <v>18.62102426057723</v>
       </c>
       <c r="P15" t="n">
-        <v>300.1551691494593</v>
+        <v>300.1302466925591</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -34638,28 +34834,28 @@
         <v>0.0466</v>
       </c>
       <c r="I16" t="n">
-        <v>0.7854234031328167</v>
+        <v>0.7816597064341104</v>
       </c>
       <c r="J16" t="n">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K16" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L16" t="n">
-        <v>0.03719438423022037</v>
+        <v>0.03721398324489822</v>
       </c>
       <c r="M16" t="n">
-        <v>20.65395671934929</v>
+        <v>20.56765990238145</v>
       </c>
       <c r="N16" t="n">
-        <v>860.636916709037</v>
+        <v>856.0843635326303</v>
       </c>
       <c r="O16" t="n">
-        <v>29.33661392712249</v>
+        <v>29.2589193842259</v>
       </c>
       <c r="P16" t="n">
-        <v>298.4627700509053</v>
+        <v>298.5000292668179</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -34716,28 +34912,28 @@
         <v>0.033</v>
       </c>
       <c r="I17" t="n">
-        <v>0.7954168448824303</v>
+        <v>0.7514866126197597</v>
       </c>
       <c r="J17" t="n">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K17" t="n">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L17" t="n">
-        <v>0.02915625468321081</v>
+        <v>0.02649171722540522</v>
       </c>
       <c r="M17" t="n">
-        <v>27.24515110581676</v>
+        <v>27.22685628691727</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.147482289269</v>
+        <v>1130.584729118834</v>
       </c>
       <c r="O17" t="n">
-        <v>33.72161743287633</v>
+        <v>33.6241688242079</v>
       </c>
       <c r="P17" t="n">
-        <v>292.2342759549257</v>
+        <v>292.6706990738207</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -34794,28 +34990,28 @@
         <v>0.1387</v>
       </c>
       <c r="I18" t="n">
-        <v>0.09145902201789959</v>
+        <v>0.1293195514206884</v>
       </c>
       <c r="J18" t="n">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K18" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0002382873585903278</v>
+        <v>0.0004793884974405582</v>
       </c>
       <c r="M18" t="n">
-        <v>38.46110780784421</v>
+        <v>38.4273122990856</v>
       </c>
       <c r="N18" t="n">
-        <v>1872.099572487578</v>
+        <v>1870.441742342592</v>
       </c>
       <c r="O18" t="n">
-        <v>43.26776597523355</v>
+        <v>43.24860393518607</v>
       </c>
       <c r="P18" t="n">
-        <v>278.3044351527692</v>
+        <v>277.9396300348595</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -34872,28 +35068,28 @@
         <v>0.068</v>
       </c>
       <c r="I19" t="n">
-        <v>0.6081180035229068</v>
+        <v>0.585987697775803</v>
       </c>
       <c r="J19" t="n">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K19" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L19" t="n">
-        <v>0.02397396124307449</v>
+        <v>0.02241355717799975</v>
       </c>
       <c r="M19" t="n">
-        <v>21.30411604224531</v>
+        <v>21.36345871956962</v>
       </c>
       <c r="N19" t="n">
-        <v>808.1332610089302</v>
+        <v>807.5570278991407</v>
       </c>
       <c r="O19" t="n">
-        <v>28.42768476342965</v>
+        <v>28.41754788681002</v>
       </c>
       <c r="P19" t="n">
-        <v>288.9059683339383</v>
+        <v>289.1214566675551</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -34950,28 +35146,28 @@
         <v>0.0447</v>
       </c>
       <c r="I20" t="n">
-        <v>0.729160737341139</v>
+        <v>0.7239295367486726</v>
       </c>
       <c r="J20" t="n">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K20" t="n">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L20" t="n">
-        <v>0.06400281437991284</v>
+        <v>0.06400867861023363</v>
       </c>
       <c r="M20" t="n">
-        <v>16.07798167555076</v>
+        <v>16.03621454364504</v>
       </c>
       <c r="N20" t="n">
-        <v>415.3773504543871</v>
+        <v>412.9496863403001</v>
       </c>
       <c r="O20" t="n">
-        <v>20.3808083856943</v>
+        <v>20.32116350852726</v>
       </c>
       <c r="P20" t="n">
-        <v>290.5432720515567</v>
+        <v>290.5944405797001</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -35028,28 +35224,28 @@
         <v>0.0387</v>
       </c>
       <c r="I21" t="n">
-        <v>0.3502565948509118</v>
+        <v>0.3528906974597159</v>
       </c>
       <c r="J21" t="n">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K21" t="n">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0206425546853295</v>
+        <v>0.02133169289750869</v>
       </c>
       <c r="M21" t="n">
-        <v>13.64376302859663</v>
+        <v>13.53320466614642</v>
       </c>
       <c r="N21" t="n">
-        <v>307.1010933319027</v>
+        <v>304.3632718183854</v>
       </c>
       <c r="O21" t="n">
-        <v>17.52430008108463</v>
+        <v>17.44601019770381</v>
       </c>
       <c r="P21" t="n">
-        <v>300.9901416631486</v>
+        <v>300.9642661826823</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -35106,28 +35302,28 @@
         <v>0.0469</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.003781092738101107</v>
+        <v>-0.002571861561251022</v>
       </c>
       <c r="J22" t="n">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K22" t="n">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L22" t="n">
-        <v>1.406616932042581e-06</v>
+        <v>6.609507332555609e-07</v>
       </c>
       <c r="M22" t="n">
-        <v>18.43555373108762</v>
+        <v>18.36013313725314</v>
       </c>
       <c r="N22" t="n">
-        <v>524.025973452812</v>
+        <v>520.3230861973764</v>
       </c>
       <c r="O22" t="n">
-        <v>22.89161360526627</v>
+        <v>22.81059153545511</v>
       </c>
       <c r="P22" t="n">
-        <v>288.9964069423498</v>
+        <v>288.9840731242211</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -35178,28 +35374,28 @@
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="n">
-        <v>-0.07426227578030109</v>
+        <v>-0.06627874599267479</v>
       </c>
       <c r="J23" t="n">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K23" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0004466789121637671</v>
+        <v>0.0003586713478993531</v>
       </c>
       <c r="M23" t="n">
-        <v>19.19433520646435</v>
+        <v>19.14546369991762</v>
       </c>
       <c r="N23" t="n">
-        <v>634.4691017920705</v>
+        <v>631.9282966195541</v>
       </c>
       <c r="O23" t="n">
-        <v>25.18867010765099</v>
+        <v>25.13818403583588</v>
       </c>
       <c r="P23" t="n">
-        <v>298.7932676783753</v>
+        <v>298.7108577875318</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -35256,28 +35452,28 @@
         <v>0.0385</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.06480032145254805</v>
+        <v>-0.07004937049819562</v>
       </c>
       <c r="J24" t="n">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K24" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0006609813526284869</v>
+        <v>0.0007781198368282949</v>
       </c>
       <c r="M24" t="n">
-        <v>14.64663065894315</v>
+        <v>14.61571948924336</v>
       </c>
       <c r="N24" t="n">
-        <v>340.2687987774017</v>
+        <v>338.9858591437865</v>
       </c>
       <c r="O24" t="n">
-        <v>18.44637630477601</v>
+        <v>18.41156862257495</v>
       </c>
       <c r="P24" t="n">
-        <v>312.1043644941691</v>
+        <v>312.1568362966141</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -35334,28 +35530,28 @@
         <v>0.037</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1990964840792735</v>
+        <v>0.1956509443825885</v>
       </c>
       <c r="J25" t="n">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K25" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L25" t="n">
-        <v>0.00631125021730361</v>
+        <v>0.006138936866841305</v>
       </c>
       <c r="M25" t="n">
-        <v>14.31699653539761</v>
+        <v>14.27963938866907</v>
       </c>
       <c r="N25" t="n">
-        <v>333.3403327759413</v>
+        <v>332.0935641163094</v>
       </c>
       <c r="O25" t="n">
-        <v>18.25761027012959</v>
+        <v>18.22343447641825</v>
       </c>
       <c r="P25" t="n">
-        <v>319.4708419696752</v>
+        <v>319.5055262285622</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -35412,28 +35608,28 @@
         <v>0.0867</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.1847315673672554</v>
+        <v>-0.1701110908504733</v>
       </c>
       <c r="J26" t="n">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K26" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L26" t="n">
-        <v>0.003164480802408831</v>
+        <v>0.002699276790940286</v>
       </c>
       <c r="M26" t="n">
-        <v>19.17976499764316</v>
+        <v>19.16313462365123</v>
       </c>
       <c r="N26" t="n">
-        <v>579.2816071200131</v>
+        <v>578.2663804999844</v>
       </c>
       <c r="O26" t="n">
-        <v>24.06826971595617</v>
+        <v>24.04716990624852</v>
       </c>
       <c r="P26" t="n">
-        <v>325.3199872420919</v>
+        <v>325.1744848926946</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -35490,28 +35686,28 @@
         <v>0.0905</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.08879247711491908</v>
+        <v>-0.07819728439809692</v>
       </c>
       <c r="J27" t="n">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K27" t="n">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="L27" t="n">
-        <v>0.00162488937879457</v>
+        <v>0.001275469886295011</v>
       </c>
       <c r="M27" t="n">
-        <v>12.21517151817235</v>
+        <v>12.17602749963804</v>
       </c>
       <c r="N27" t="n">
-        <v>261.8128265016214</v>
+        <v>260.5068037870741</v>
       </c>
       <c r="O27" t="n">
-        <v>16.18063121456087</v>
+        <v>16.14022316410384</v>
       </c>
       <c r="P27" t="n">
-        <v>325.5880229317469</v>
+        <v>325.4835025654316</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -35568,28 +35764,28 @@
         <v>0.08359999999999999</v>
       </c>
       <c r="I28" t="n">
-        <v>0.01043715596535162</v>
+        <v>0.01746609319080645</v>
       </c>
       <c r="J28" t="n">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K28" t="n">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="L28" t="n">
-        <v>2.543352079653616e-05</v>
+        <v>7.201749693908077e-05</v>
       </c>
       <c r="M28" t="n">
-        <v>11.60885151270934</v>
+        <v>11.57909497585154</v>
       </c>
       <c r="N28" t="n">
-        <v>233.2707883195066</v>
+        <v>232.2738377718625</v>
       </c>
       <c r="O28" t="n">
-        <v>15.27320491316432</v>
+        <v>15.2405327259864</v>
       </c>
       <c r="P28" t="n">
-        <v>331.0779015717183</v>
+        <v>331.009314467509</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -35640,28 +35836,28 @@
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="n">
-        <v>0.7554830765426479</v>
+        <v>0.7324434784624825</v>
       </c>
       <c r="J29" t="n">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K29" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L29" t="n">
-        <v>0.01668601870917241</v>
+        <v>0.01594678386956472</v>
       </c>
       <c r="M29" t="n">
-        <v>22.48955532814485</v>
+        <v>22.47649068488463</v>
       </c>
       <c r="N29" t="n">
-        <v>1892.650910976857</v>
+        <v>1879.12642106883</v>
       </c>
       <c r="O29" t="n">
-        <v>43.50460792809029</v>
+        <v>43.34889180900511</v>
       </c>
       <c r="P29" t="n">
-        <v>313.1527600938156</v>
+        <v>313.3722121325868</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
@@ -35712,28 +35908,28 @@
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="n">
-        <v>0.8255484575235457</v>
+        <v>0.5789742485622283</v>
       </c>
       <c r="J30" t="n">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K30" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="L30" t="n">
-        <v>0.005975327911026285</v>
+        <v>0.002950476084239595</v>
       </c>
       <c r="M30" t="n">
-        <v>71.03372958266257</v>
+        <v>71.89297233297064</v>
       </c>
       <c r="N30" t="n">
-        <v>6031.897142541772</v>
+        <v>6094.462370517419</v>
       </c>
       <c r="O30" t="n">
-        <v>77.66528917439098</v>
+        <v>78.06703766966837</v>
       </c>
       <c r="P30" t="n">
-        <v>262.017651828995</v>
+        <v>264.4758049650422</v>
       </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
@@ -35790,28 +35986,28 @@
         <v>0.1366</v>
       </c>
       <c r="I31" t="n">
-        <v>1.431899298415312</v>
+        <v>1.364235504865354</v>
       </c>
       <c r="J31" t="n">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K31" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L31" t="n">
-        <v>0.02262986912308529</v>
+        <v>0.0206641780045167</v>
       </c>
       <c r="M31" t="n">
-        <v>64.24373555150063</v>
+        <v>64.37295047418687</v>
       </c>
       <c r="N31" t="n">
-        <v>4608.080705936837</v>
+        <v>4610.412224005539</v>
       </c>
       <c r="O31" t="n">
-        <v>67.88284544667259</v>
+        <v>67.90001637706385</v>
       </c>
       <c r="P31" t="n">
-        <v>246.2200309496135</v>
+        <v>246.9074427411456</v>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
@@ -35868,28 +36064,28 @@
         <v>0.0565</v>
       </c>
       <c r="I32" t="n">
-        <v>0.2333896995081933</v>
+        <v>0.1462367175938321</v>
       </c>
       <c r="J32" t="n">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K32" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L32" t="n">
-        <v>0.0008431802131505517</v>
+        <v>0.0003371136444310086</v>
       </c>
       <c r="M32" t="n">
-        <v>51.14450538272364</v>
+        <v>51.14680008440856</v>
       </c>
       <c r="N32" t="n">
-        <v>3293.350980625229</v>
+        <v>3275.099128088377</v>
       </c>
       <c r="O32" t="n">
-        <v>57.38772499956092</v>
+        <v>57.22848179087383</v>
       </c>
       <c r="P32" t="n">
-        <v>287.4665427212938</v>
+        <v>288.3340712415314</v>
       </c>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
@@ -35946,28 +36142,28 @@
         <v>0.068</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.1282062990154867</v>
+        <v>-0.2302721427636834</v>
       </c>
       <c r="J33" t="n">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K33" t="n">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L33" t="n">
-        <v>0.0002976661332727559</v>
+        <v>0.0009686329497392565</v>
       </c>
       <c r="M33" t="n">
-        <v>46.40800981550314</v>
+        <v>46.64710180847734</v>
       </c>
       <c r="N33" t="n">
-        <v>2855.21262129108</v>
+        <v>2853.998185445646</v>
       </c>
       <c r="O33" t="n">
-        <v>53.43418962884232</v>
+        <v>53.42282457382468</v>
       </c>
       <c r="P33" t="n">
-        <v>302.856430385491</v>
+        <v>303.8972348248366</v>
       </c>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
@@ -36024,28 +36220,28 @@
         <v>0.0429</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.9932403282217607</v>
+        <v>-1.062601422041361</v>
       </c>
       <c r="J34" t="n">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K34" t="n">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L34" t="n">
-        <v>0.01851799479041405</v>
+        <v>0.02144433886654673</v>
       </c>
       <c r="M34" t="n">
-        <v>46.19551516663294</v>
+        <v>46.14403514498328</v>
       </c>
       <c r="N34" t="n">
-        <v>2903.775010782909</v>
+        <v>2885.279027861631</v>
       </c>
       <c r="O34" t="n">
-        <v>53.88668676753943</v>
+        <v>53.71479338005156</v>
       </c>
       <c r="P34" t="n">
-        <v>322.1111841902381</v>
+        <v>322.7910779402392</v>
       </c>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
@@ -36083,7 +36279,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI336"/>
+  <dimension ref="A1:AI338"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79821,7 +80017,11 @@
           <t>-38.285326501029196,174.7149325987687</t>
         </is>
       </c>
-      <c r="G336" t="inlineStr"/>
+      <c r="G336" t="inlineStr">
+        <is>
+          <t>-38.284633379563076,174.71541937166035</t>
+        </is>
+      </c>
       <c r="H336" t="inlineStr">
         <is>
           <t>-38.28391601570894,174.71494824434347</t>
@@ -79920,18 +80120,276 @@
           <t>-38.26914032780186,174.7141268963904</t>
         </is>
       </c>
-      <c r="AD336" t="inlineStr"/>
+      <c r="AD336" t="inlineStr">
+        <is>
+          <t>-38.268281370009525,174.71572984844929</t>
+        </is>
+      </c>
       <c r="AE336" t="inlineStr">
         <is>
           <t>-38.26760526388426,174.71536322364625</t>
         </is>
       </c>
-      <c r="AF336" t="inlineStr"/>
-      <c r="AG336" t="inlineStr"/>
-      <c r="AH336" t="inlineStr"/>
+      <c r="AF336" t="inlineStr">
+        <is>
+          <t>-38.26694421769116,174.71483431151913</t>
+        </is>
+      </c>
+      <c r="AG336" t="inlineStr">
+        <is>
+          <t>-38.26623536575841,174.71482023096448</t>
+        </is>
+      </c>
+      <c r="AH336" t="inlineStr">
+        <is>
+          <t>-38.265549395699765,174.71455961895344</t>
+        </is>
+      </c>
       <c r="AI336" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-28 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>-38.28815184595629,174.7150774600168</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>-38.287447935261355,174.71513670835475</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr"/>
+      <c r="E337" t="inlineStr"/>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>-38.28533114936854,174.71511631693804</t>
+        </is>
+      </c>
+      <c r="G337" t="inlineStr">
+        <is>
+          <t>-38.28463445189642,174.71546175896788</t>
+        </is>
+      </c>
+      <c r="H337" t="inlineStr">
+        <is>
+          <t>-38.28391441330654,174.71488491699395</t>
+        </is>
+      </c>
+      <c r="I337" t="inlineStr">
+        <is>
+          <t>-38.28321692468253,174.71519959582375</t>
+        </is>
+      </c>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>-38.281819136295404,174.71571870548502</t>
+        </is>
+      </c>
+      <c r="L337" t="inlineStr">
+        <is>
+          <t>-38.28110813158425,174.71549998221872</t>
+        </is>
+      </c>
+      <c r="M337" t="inlineStr">
+        <is>
+          <t>-38.28041714496062,174.71607279396366</t>
+        </is>
+      </c>
+      <c r="N337" t="inlineStr">
+        <is>
+          <t>-38.27969806570356,174.71553543826994</t>
+        </is>
+      </c>
+      <c r="O337" t="inlineStr">
+        <is>
+          <t>-38.27899433410984,174.71562606061312</t>
+        </is>
+      </c>
+      <c r="P337" t="inlineStr"/>
+      <c r="Q337" t="inlineStr">
+        <is>
+          <t>-38.27749672451446,174.71590134962207</t>
+        </is>
+      </c>
+      <c r="R337" t="inlineStr"/>
+      <c r="S337" t="inlineStr">
+        <is>
+          <t>-38.276090164677925,174.71575527716587</t>
+        </is>
+      </c>
+      <c r="T337" t="inlineStr">
+        <is>
+          <t>-38.27540645956753,174.71547127940778</t>
+        </is>
+      </c>
+      <c r="U337" t="inlineStr">
+        <is>
+          <t>-38.274723605181066,174.71517804215452</t>
+        </is>
+      </c>
+      <c r="V337" t="inlineStr">
+        <is>
+          <t>-38.27398807768539,174.71545211187615</t>
+        </is>
+      </c>
+      <c r="W337" t="inlineStr"/>
+      <c r="X337" t="inlineStr"/>
+      <c r="Y337" t="inlineStr"/>
+      <c r="Z337" t="inlineStr"/>
+      <c r="AA337" t="inlineStr">
+        <is>
+          <t>-38.270529798550776,174.71445850722586</t>
+        </is>
+      </c>
+      <c r="AB337" t="inlineStr">
+        <is>
+          <t>-38.26984849953741,174.71414800143796</t>
+        </is>
+      </c>
+      <c r="AC337" t="inlineStr">
+        <is>
+          <t>-38.26913781147822,174.71415400222602</t>
+        </is>
+      </c>
+      <c r="AD337" t="inlineStr">
+        <is>
+          <t>-38.26828109409783,174.71573282009263</t>
+        </is>
+      </c>
+      <c r="AE337" t="inlineStr">
+        <is>
+          <t>-38.26760292445642,174.71538842048548</t>
+        </is>
+      </c>
+      <c r="AF337" t="inlineStr">
+        <is>
+          <t>-38.26694769504512,174.71479685706336</t>
+        </is>
+      </c>
+      <c r="AG337" t="inlineStr">
+        <is>
+          <t>-38.266240409673024,174.7147659036137</t>
+        </is>
+      </c>
+      <c r="AH337" t="inlineStr">
+        <is>
+          <t>-38.265554614617535,174.7145034058927</t>
+        </is>
+      </c>
+      <c r="AI337" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr"/>
+      <c r="C338" t="inlineStr"/>
+      <c r="D338" t="inlineStr"/>
+      <c r="E338" t="inlineStr"/>
+      <c r="F338" t="inlineStr"/>
+      <c r="G338" t="inlineStr"/>
+      <c r="H338" t="inlineStr"/>
+      <c r="I338" t="inlineStr"/>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
+      <c r="L338" t="inlineStr"/>
+      <c r="M338" t="inlineStr"/>
+      <c r="N338" t="inlineStr"/>
+      <c r="O338" t="inlineStr"/>
+      <c r="P338" t="inlineStr">
+        <is>
+          <t>-38.278260473830585,174.7156263985542</t>
+        </is>
+      </c>
+      <c r="Q338" t="inlineStr">
+        <is>
+          <t>-38.2775147764759,174.71570689904237</t>
+        </is>
+      </c>
+      <c r="R338" t="inlineStr">
+        <is>
+          <t>-38.276835587799816,174.71537439163257</t>
+        </is>
+      </c>
+      <c r="S338" t="inlineStr"/>
+      <c r="T338" t="inlineStr">
+        <is>
+          <t>-38.275429568983256,174.71522234876113</t>
+        </is>
+      </c>
+      <c r="U338" t="inlineStr">
+        <is>
+          <t>-38.274721484098734,174.71520089017858</t>
+        </is>
+      </c>
+      <c r="V338" t="inlineStr">
+        <is>
+          <t>-38.274008510533186,174.7152320174341</t>
+        </is>
+      </c>
+      <c r="W338" t="inlineStr">
+        <is>
+          <t>-38.2733143168873,174.71506077875634</t>
+        </is>
+      </c>
+      <c r="X338" t="inlineStr">
+        <is>
+          <t>-38.27261066219778,174.71499137907182</t>
+        </is>
+      </c>
+      <c r="Y338" t="inlineStr">
+        <is>
+          <t>-38.27192612105373,174.7147160193896</t>
+        </is>
+      </c>
+      <c r="Z338" t="inlineStr">
+        <is>
+          <t>-38.27124517023508,174.71440190915604</t>
+        </is>
+      </c>
+      <c r="AA338" t="inlineStr">
+        <is>
+          <t>-38.27054064637121,174.7143416548347</t>
+        </is>
+      </c>
+      <c r="AB338" t="inlineStr">
+        <is>
+          <t>-38.269830638086354,174.71434040517974</t>
+        </is>
+      </c>
+      <c r="AC338" t="inlineStr">
+        <is>
+          <t>-38.26910172535556,174.7145427143004</t>
+        </is>
+      </c>
+      <c r="AD338" t="inlineStr">
+        <is>
+          <t>-38.26824511955552,174.71612026851588</t>
+        </is>
+      </c>
+      <c r="AE338" t="inlineStr"/>
+      <c r="AF338" t="inlineStr"/>
+      <c r="AG338" t="inlineStr"/>
+      <c r="AH338" t="inlineStr"/>
+      <c r="AI338" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>

--- a/data/nzd0252/nzd0252.xlsx
+++ b/data/nzd0252/nzd0252.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI338"/>
+  <dimension ref="A1:AI340"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30006,7 +30006,9 @@
       <c r="C337" t="n">
         <v>312.36</v>
       </c>
-      <c r="D337" t="inlineStr"/>
+      <c r="D337" t="n">
+        <v>269.1066666666667</v>
+      </c>
       <c r="E337" t="inlineStr"/>
       <c r="F337" t="n">
         <v>324.6</v>
@@ -30151,10 +30153,172 @@
         <v>154.5709090909091</v>
       </c>
       <c r="AE338" t="inlineStr"/>
-      <c r="AF338" t="inlineStr"/>
-      <c r="AG338" t="inlineStr"/>
-      <c r="AH338" t="inlineStr"/>
+      <c r="AF338" t="n">
+        <v>196.15</v>
+      </c>
+      <c r="AG338" t="n">
+        <v>198.1655555555556</v>
+      </c>
+      <c r="AH338" t="n">
+        <v>197.9914285714286</v>
+      </c>
       <c r="AI338" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr"/>
+      <c r="C339" t="inlineStr"/>
+      <c r="D339" t="inlineStr"/>
+      <c r="E339" t="inlineStr"/>
+      <c r="F339" t="inlineStr"/>
+      <c r="G339" t="inlineStr"/>
+      <c r="H339" t="inlineStr"/>
+      <c r="I339" t="inlineStr"/>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
+      <c r="L339" t="inlineStr"/>
+      <c r="M339" t="inlineStr"/>
+      <c r="N339" t="inlineStr"/>
+      <c r="O339" t="inlineStr"/>
+      <c r="P339" t="n">
+        <v>196.65</v>
+      </c>
+      <c r="Q339" t="n">
+        <v>212.78</v>
+      </c>
+      <c r="R339" t="n">
+        <v>220.3466666666666</v>
+      </c>
+      <c r="S339" t="n">
+        <v>235.7333333333333</v>
+      </c>
+      <c r="T339" t="inlineStr"/>
+      <c r="U339" t="inlineStr"/>
+      <c r="V339" t="inlineStr"/>
+      <c r="W339" t="inlineStr"/>
+      <c r="X339" t="inlineStr"/>
+      <c r="Y339" t="n">
+        <v>287.45</v>
+      </c>
+      <c r="Z339" t="inlineStr"/>
+      <c r="AA339" t="n">
+        <v>322.175</v>
+      </c>
+      <c r="AB339" t="n">
+        <v>321.49</v>
+      </c>
+      <c r="AC339" t="n">
+        <v>138.3837209302326</v>
+      </c>
+      <c r="AD339" t="n">
+        <v>158.0027272727273</v>
+      </c>
+      <c r="AE339" t="n">
+        <v>180.8166666666666</v>
+      </c>
+      <c r="AF339" t="n">
+        <v>213.12</v>
+      </c>
+      <c r="AG339" t="n">
+        <v>213.7677777777778</v>
+      </c>
+      <c r="AH339" t="n">
+        <v>222.14</v>
+      </c>
+      <c r="AI339" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:53+00:00</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>317.5947058823529</v>
+      </c>
+      <c r="C340" t="inlineStr"/>
+      <c r="D340" t="inlineStr"/>
+      <c r="E340" t="inlineStr"/>
+      <c r="F340" t="inlineStr"/>
+      <c r="G340" t="n">
+        <v>266.43</v>
+      </c>
+      <c r="H340" t="inlineStr"/>
+      <c r="I340" t="inlineStr"/>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
+      <c r="L340" t="inlineStr"/>
+      <c r="M340" t="inlineStr"/>
+      <c r="N340" t="n">
+        <v>316.9128571428571</v>
+      </c>
+      <c r="O340" t="inlineStr"/>
+      <c r="P340" t="n">
+        <v>191.0257142857143</v>
+      </c>
+      <c r="Q340" t="n">
+        <v>202.13</v>
+      </c>
+      <c r="R340" t="n">
+        <v>217.62</v>
+      </c>
+      <c r="S340" t="n">
+        <v>232.17</v>
+      </c>
+      <c r="T340" t="n">
+        <v>309.02</v>
+      </c>
+      <c r="U340" t="n">
+        <v>314.3957142857143</v>
+      </c>
+      <c r="V340" t="inlineStr"/>
+      <c r="W340" t="n">
+        <v>299.53</v>
+      </c>
+      <c r="X340" t="n">
+        <v>316.0457142857143</v>
+      </c>
+      <c r="Y340" t="inlineStr"/>
+      <c r="Z340" t="n">
+        <v>343.7228571428572</v>
+      </c>
+      <c r="AA340" t="n">
+        <v>323.025</v>
+      </c>
+      <c r="AB340" t="n">
+        <v>321.5628571428572</v>
+      </c>
+      <c r="AC340" t="n">
+        <v>129.993023255814</v>
+      </c>
+      <c r="AD340" t="n">
+        <v>157.4254545454545</v>
+      </c>
+      <c r="AE340" t="n">
+        <v>179.32</v>
+      </c>
+      <c r="AF340" t="n">
+        <v>203.31</v>
+      </c>
+      <c r="AG340" t="n">
+        <v>209.7733333333333</v>
+      </c>
+      <c r="AH340" t="n">
+        <v>207.8657142857143</v>
+      </c>
+      <c r="AI340" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -30171,7 +30335,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B342"/>
+  <dimension ref="A1:B344"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33599,6 +33763,26 @@
       </c>
       <c r="B342" t="n">
         <v>-0.47</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>0.15</v>
       </c>
     </row>
   </sheetData>
@@ -33772,28 +33956,28 @@
         <v>0.0953</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1870267363556266</v>
+        <v>-0.1819927907581869</v>
       </c>
       <c r="J2" t="n">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="K2" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02167383603975004</v>
+        <v>0.02067111252144149</v>
       </c>
       <c r="M2" t="n">
-        <v>7.004737472054839</v>
+        <v>7.000415483628044</v>
       </c>
       <c r="N2" t="n">
-        <v>82.96009272623725</v>
+        <v>82.8019219294163</v>
       </c>
       <c r="O2" t="n">
-        <v>9.108243119627256</v>
+        <v>9.099556139143068</v>
       </c>
       <c r="P2" t="n">
-        <v>315.8230907495108</v>
+        <v>315.7731058965291</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -33853,7 +34037,7 @@
         <v>0.1176185130604187</v>
       </c>
       <c r="J3" t="n">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="K3" t="n">
         <v>237</v>
@@ -33928,28 +34112,28 @@
         <v>0.0548</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.7856281801444294</v>
+        <v>-0.8173480643961393</v>
       </c>
       <c r="J4" t="n">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="K4" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02293406719929947</v>
+        <v>0.02489983432079768</v>
       </c>
       <c r="M4" t="n">
-        <v>26.82333954555815</v>
+        <v>26.95452038354077</v>
       </c>
       <c r="N4" t="n">
-        <v>1418.197417656357</v>
+        <v>1417.28341535089</v>
       </c>
       <c r="O4" t="n">
-        <v>37.65896198325648</v>
+        <v>37.64682477116617</v>
       </c>
       <c r="P4" t="n">
-        <v>324.2934203099891</v>
+        <v>324.6055354441498</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -34003,7 +34187,7 @@
         <v>0.2248935297975939</v>
       </c>
       <c r="J5" t="n">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="K5" t="n">
         <v>226</v>
@@ -34075,7 +34259,7 @@
         <v>1.336101898908416</v>
       </c>
       <c r="J6" t="n">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="K6" t="n">
         <v>201</v>
@@ -34150,28 +34334,28 @@
         <v>0.0527</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.06051605135270424</v>
+        <v>-0.1227399239848784</v>
       </c>
       <c r="J7" t="n">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="K7" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0003049948188331708</v>
+        <v>0.001229027418083284</v>
       </c>
       <c r="M7" t="n">
-        <v>17.841865510488</v>
+        <v>18.17907161780946</v>
       </c>
       <c r="N7" t="n">
-        <v>614.843455391185</v>
+        <v>630.5661923231328</v>
       </c>
       <c r="O7" t="n">
-        <v>24.79603709045429</v>
+        <v>25.11107708409045</v>
       </c>
       <c r="P7" t="n">
-        <v>329.763131573395</v>
+        <v>330.3923845033917</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -34231,7 +34415,7 @@
         <v>0.3311223810132261</v>
       </c>
       <c r="J8" t="n">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="K8" t="n">
         <v>211</v>
@@ -34309,7 +34493,7 @@
         <v>0.2474398095275598</v>
       </c>
       <c r="J9" t="n">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="K9" t="n">
         <v>193</v>
@@ -34381,7 +34565,7 @@
         <v>0.3568519594319482</v>
       </c>
       <c r="J10" t="n">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="K10" t="n">
         <v>191</v>
@@ -34453,7 +34637,7 @@
         <v>0.2066277029667922</v>
       </c>
       <c r="J11" t="n">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="K11" t="n">
         <v>207</v>
@@ -34531,7 +34715,7 @@
         <v>0.2480455511486769</v>
       </c>
       <c r="J12" t="n">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="K12" t="n">
         <v>199</v>
@@ -34609,7 +34793,7 @@
         <v>0.3467229095946051</v>
       </c>
       <c r="J13" t="n">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="K13" t="n">
         <v>199</v>
@@ -34684,28 +34868,28 @@
         <v>0.0833</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3222700087013396</v>
+        <v>0.3240565462324149</v>
       </c>
       <c r="J14" t="n">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="K14" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L14" t="n">
-        <v>0.03387556085707133</v>
+        <v>0.03454003408953765</v>
       </c>
       <c r="M14" t="n">
-        <v>8.883161547986925</v>
+        <v>8.855155460476274</v>
       </c>
       <c r="N14" t="n">
-        <v>156.8159286790282</v>
+        <v>156.1890220046437</v>
       </c>
       <c r="O14" t="n">
-        <v>12.52261668658065</v>
+        <v>12.49756064216708</v>
       </c>
       <c r="P14" t="n">
-        <v>306.5805911242913</v>
+        <v>306.5632618183831</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -34759,7 +34943,7 @@
         <v>0.3321524949644193</v>
       </c>
       <c r="J15" t="n">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="K15" t="n">
         <v>238</v>
@@ -34834,28 +35018,28 @@
         <v>0.0466</v>
       </c>
       <c r="I16" t="n">
-        <v>0.7816597064341104</v>
+        <v>0.5375593618748759</v>
       </c>
       <c r="J16" t="n">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="K16" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="L16" t="n">
-        <v>0.03721398324489822</v>
+        <v>0.01544534826189237</v>
       </c>
       <c r="M16" t="n">
-        <v>20.56765990238145</v>
+        <v>21.98810215103831</v>
       </c>
       <c r="N16" t="n">
-        <v>856.0843635326303</v>
+        <v>1007.071137979581</v>
       </c>
       <c r="O16" t="n">
-        <v>29.2589193842259</v>
+        <v>31.73438415945047</v>
       </c>
       <c r="P16" t="n">
-        <v>298.5000292668179</v>
+        <v>300.9264184084228</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -34912,28 +35096,28 @@
         <v>0.033</v>
       </c>
       <c r="I17" t="n">
-        <v>0.7514866126197597</v>
+        <v>0.5470664114288261</v>
       </c>
       <c r="J17" t="n">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="K17" t="n">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L17" t="n">
-        <v>0.02649171722540522</v>
+        <v>0.01316236190516029</v>
       </c>
       <c r="M17" t="n">
-        <v>27.22685628691727</v>
+        <v>28.29131376420035</v>
       </c>
       <c r="N17" t="n">
-        <v>1130.584729118834</v>
+        <v>1233.342606619692</v>
       </c>
       <c r="O17" t="n">
-        <v>33.6241688242079</v>
+        <v>35.1189778698027</v>
       </c>
       <c r="P17" t="n">
-        <v>292.6706990738207</v>
+        <v>294.7118612947633</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -34990,28 +35174,28 @@
         <v>0.1387</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1293195514206884</v>
+        <v>0.01234247134771542</v>
       </c>
       <c r="J18" t="n">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="K18" t="n">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0004793884974405582</v>
+        <v>4.374820190999884e-06</v>
       </c>
       <c r="M18" t="n">
-        <v>38.4273122990856</v>
+        <v>38.76226056825909</v>
       </c>
       <c r="N18" t="n">
-        <v>1870.441742342592</v>
+        <v>1888.453059719367</v>
       </c>
       <c r="O18" t="n">
-        <v>43.24860393518607</v>
+        <v>43.45633509304906</v>
       </c>
       <c r="P18" t="n">
-        <v>277.9396300348595</v>
+        <v>279.0709264129498</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -35068,28 +35252,28 @@
         <v>0.068</v>
       </c>
       <c r="I19" t="n">
-        <v>0.585987697775803</v>
+        <v>0.4694885261289673</v>
       </c>
       <c r="J19" t="n">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="K19" t="n">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L19" t="n">
-        <v>0.02241355717799975</v>
+        <v>0.01404249755974507</v>
       </c>
       <c r="M19" t="n">
-        <v>21.36345871956962</v>
+        <v>21.97544967738159</v>
       </c>
       <c r="N19" t="n">
-        <v>807.5570278991407</v>
+        <v>842.0044338575677</v>
       </c>
       <c r="O19" t="n">
-        <v>28.41754788681002</v>
+        <v>29.01731265740451</v>
       </c>
       <c r="P19" t="n">
-        <v>289.1214566675551</v>
+        <v>290.2614828977156</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -35146,28 +35330,28 @@
         <v>0.0447</v>
       </c>
       <c r="I20" t="n">
-        <v>0.7239295367486726</v>
+        <v>0.7239301754750103</v>
       </c>
       <c r="J20" t="n">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="K20" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L20" t="n">
-        <v>0.06400867861023363</v>
+        <v>0.06452201603931684</v>
       </c>
       <c r="M20" t="n">
-        <v>16.03621454364504</v>
+        <v>15.96826749176127</v>
       </c>
       <c r="N20" t="n">
-        <v>412.9496863403001</v>
+        <v>411.1998995363493</v>
       </c>
       <c r="O20" t="n">
-        <v>20.32116350852726</v>
+        <v>20.27806449186779</v>
       </c>
       <c r="P20" t="n">
-        <v>290.5944405797001</v>
+        <v>290.5944342885783</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -35224,28 +35408,28 @@
         <v>0.0387</v>
       </c>
       <c r="I21" t="n">
-        <v>0.3528906974597159</v>
+        <v>0.3567895232774669</v>
       </c>
       <c r="J21" t="n">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="K21" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L21" t="n">
-        <v>0.02133169289750869</v>
+        <v>0.02198711751247695</v>
       </c>
       <c r="M21" t="n">
-        <v>13.53320466614642</v>
+        <v>13.49054347045143</v>
       </c>
       <c r="N21" t="n">
-        <v>304.3632718183854</v>
+        <v>303.0860029130132</v>
       </c>
       <c r="O21" t="n">
-        <v>17.44601019770381</v>
+        <v>17.40936537938742</v>
       </c>
       <c r="P21" t="n">
-        <v>300.9642661826823</v>
+        <v>300.9257655551798</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -35305,7 +35489,7 @@
         <v>-0.002571861561251022</v>
       </c>
       <c r="J22" t="n">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="K22" t="n">
         <v>232</v>
@@ -35374,28 +35558,28 @@
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="n">
-        <v>-0.06627874599267479</v>
+        <v>-0.06410777028923041</v>
       </c>
       <c r="J23" t="n">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="K23" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0003586713478993531</v>
+        <v>0.000338433519084691</v>
       </c>
       <c r="M23" t="n">
-        <v>19.14546369991762</v>
+        <v>19.06825776839131</v>
       </c>
       <c r="N23" t="n">
-        <v>631.9282966195541</v>
+        <v>629.057974246428</v>
       </c>
       <c r="O23" t="n">
-        <v>25.13818403583588</v>
+        <v>25.08102817363012</v>
       </c>
       <c r="P23" t="n">
-        <v>298.7108577875318</v>
+        <v>298.6883454359678</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -35452,28 +35636,28 @@
         <v>0.0385</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.07004937049819562</v>
+        <v>-0.06553383949732397</v>
       </c>
       <c r="J24" t="n">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="K24" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0007781198368282949</v>
+        <v>0.0006863191557247017</v>
       </c>
       <c r="M24" t="n">
-        <v>14.61571948924336</v>
+        <v>14.57370097547858</v>
       </c>
       <c r="N24" t="n">
-        <v>338.9858591437865</v>
+        <v>337.667351932371</v>
       </c>
       <c r="O24" t="n">
-        <v>18.41156862257495</v>
+        <v>18.37572724907428</v>
       </c>
       <c r="P24" t="n">
-        <v>312.1568362966141</v>
+        <v>312.1114849227839</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -35530,28 +35714,28 @@
         <v>0.037</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1956509443825885</v>
+        <v>0.1685099058613895</v>
       </c>
       <c r="J25" t="n">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="K25" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L25" t="n">
-        <v>0.006138936866841305</v>
+        <v>0.004520889505065684</v>
       </c>
       <c r="M25" t="n">
-        <v>14.27963938866907</v>
+        <v>14.38223915485849</v>
       </c>
       <c r="N25" t="n">
-        <v>332.0935641163094</v>
+        <v>336.1723679001214</v>
       </c>
       <c r="O25" t="n">
-        <v>18.22343447641825</v>
+        <v>18.33500389692136</v>
       </c>
       <c r="P25" t="n">
-        <v>319.5055262285622</v>
+        <v>319.7797149370565</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -35608,28 +35792,28 @@
         <v>0.0867</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.1701110908504733</v>
+        <v>-0.1521626271932416</v>
       </c>
       <c r="J26" t="n">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="K26" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L26" t="n">
-        <v>0.002699276790940286</v>
+        <v>0.002169862558585645</v>
       </c>
       <c r="M26" t="n">
-        <v>19.16313462365123</v>
+        <v>19.16101300394844</v>
       </c>
       <c r="N26" t="n">
-        <v>578.2663804999844</v>
+        <v>578.0069991053939</v>
       </c>
       <c r="O26" t="n">
-        <v>24.04716990624852</v>
+        <v>24.0417761221045</v>
       </c>
       <c r="P26" t="n">
-        <v>325.1744848926946</v>
+        <v>324.9950205125085</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -35686,28 +35870,28 @@
         <v>0.0905</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.07819728439809692</v>
+        <v>-0.0794074618638726</v>
       </c>
       <c r="J27" t="n">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="K27" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L27" t="n">
-        <v>0.001275469886295011</v>
+        <v>0.001333555827605304</v>
       </c>
       <c r="M27" t="n">
-        <v>12.17602749963804</v>
+        <v>12.09387220368815</v>
       </c>
       <c r="N27" t="n">
-        <v>260.5068037870741</v>
+        <v>258.605391757016</v>
       </c>
       <c r="O27" t="n">
-        <v>16.14022316410384</v>
+        <v>16.08121238455036</v>
       </c>
       <c r="P27" t="n">
-        <v>325.4835025654316</v>
+        <v>325.4954887056937</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -35764,28 +35948,28 @@
         <v>0.08359999999999999</v>
       </c>
       <c r="I28" t="n">
-        <v>0.01746609319080645</v>
+        <v>0.004037184326627748</v>
       </c>
       <c r="J28" t="n">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="K28" t="n">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="L28" t="n">
-        <v>7.201749693908077e-05</v>
+        <v>3.890509991610891e-06</v>
       </c>
       <c r="M28" t="n">
-        <v>11.57909497585154</v>
+        <v>11.57846202246853</v>
       </c>
       <c r="N28" t="n">
-        <v>232.2738377718625</v>
+        <v>231.2825530429596</v>
       </c>
       <c r="O28" t="n">
-        <v>15.2405327259864</v>
+        <v>15.20797662553962</v>
       </c>
       <c r="P28" t="n">
-        <v>331.009314467509</v>
+        <v>331.1410912442607</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -35836,28 +36020,28 @@
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="n">
-        <v>0.7324434784624825</v>
+        <v>0.3968898923520848</v>
       </c>
       <c r="J29" t="n">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="K29" t="n">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L29" t="n">
-        <v>0.01594678386956472</v>
+        <v>0.004046778457036049</v>
       </c>
       <c r="M29" t="n">
-        <v>22.47649068488463</v>
+        <v>24.82904472417716</v>
       </c>
       <c r="N29" t="n">
-        <v>1879.12642106883</v>
+        <v>2219.186078598499</v>
       </c>
       <c r="O29" t="n">
-        <v>43.34889180900511</v>
+        <v>47.10823790589602</v>
       </c>
       <c r="P29" t="n">
-        <v>313.3722121325868</v>
+        <v>316.5813405525838</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
@@ -35908,28 +36092,28 @@
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="n">
-        <v>0.5789742485622283</v>
+        <v>0.3922860144635033</v>
       </c>
       <c r="J30" t="n">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="K30" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L30" t="n">
-        <v>0.002950476084239595</v>
+        <v>0.001351163680746059</v>
       </c>
       <c r="M30" t="n">
-        <v>71.89297233297064</v>
+        <v>72.59820481193563</v>
       </c>
       <c r="N30" t="n">
-        <v>6094.462370517419</v>
+        <v>6163.762466747407</v>
       </c>
       <c r="O30" t="n">
-        <v>78.06703766966837</v>
+        <v>78.50963295511836</v>
       </c>
       <c r="P30" t="n">
-        <v>264.4758049650422</v>
+        <v>266.3472051674811</v>
       </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
@@ -35986,28 +36170,28 @@
         <v>0.1366</v>
       </c>
       <c r="I31" t="n">
-        <v>1.364235504865354</v>
+        <v>1.176298777831738</v>
       </c>
       <c r="J31" t="n">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="K31" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L31" t="n">
-        <v>0.0206641780045167</v>
+        <v>0.01540368862510533</v>
       </c>
       <c r="M31" t="n">
-        <v>64.37295047418687</v>
+        <v>64.96230581253531</v>
       </c>
       <c r="N31" t="n">
-        <v>4610.412224005539</v>
+        <v>4663.722667332931</v>
       </c>
       <c r="O31" t="n">
-        <v>67.90001637706385</v>
+        <v>68.29145383818485</v>
       </c>
       <c r="P31" t="n">
-        <v>246.9074427411456</v>
+        <v>248.8265132569502</v>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
@@ -36064,28 +36248,28 @@
         <v>0.0565</v>
       </c>
       <c r="I32" t="n">
-        <v>0.1462367175938321</v>
+        <v>-0.1263881554958451</v>
       </c>
       <c r="J32" t="n">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="K32" t="n">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="L32" t="n">
-        <v>0.0003371136444310086</v>
+        <v>0.0002512078812070273</v>
       </c>
       <c r="M32" t="n">
-        <v>51.14680008440856</v>
+        <v>52.02935843470301</v>
       </c>
       <c r="N32" t="n">
-        <v>3275.099128088377</v>
+        <v>3340.198164363524</v>
       </c>
       <c r="O32" t="n">
-        <v>57.22848179087383</v>
+        <v>57.79444752191618</v>
       </c>
       <c r="P32" t="n">
-        <v>288.3340712415314</v>
+        <v>291.0599068238877</v>
       </c>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
@@ -36142,28 +36326,28 @@
         <v>0.068</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.2302721427636834</v>
+        <v>-0.4837053908945035</v>
       </c>
       <c r="J33" t="n">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="K33" t="n">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="L33" t="n">
-        <v>0.0009686329497392565</v>
+        <v>0.004201286762918088</v>
       </c>
       <c r="M33" t="n">
-        <v>46.64710180847734</v>
+        <v>47.67208767082329</v>
       </c>
       <c r="N33" t="n">
-        <v>2853.998185445646</v>
+        <v>2931.077693523181</v>
       </c>
       <c r="O33" t="n">
-        <v>53.42282457382468</v>
+        <v>54.13942827111477</v>
       </c>
       <c r="P33" t="n">
-        <v>303.8972348248366</v>
+        <v>306.4943522552455</v>
       </c>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
@@ -36220,28 +36404,28 @@
         <v>0.0429</v>
       </c>
       <c r="I34" t="n">
-        <v>-1.062601422041361</v>
+        <v>-1.306119732790219</v>
       </c>
       <c r="J34" t="n">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="K34" t="n">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="L34" t="n">
-        <v>0.02144433886654673</v>
+        <v>0.03165649033038631</v>
       </c>
       <c r="M34" t="n">
-        <v>46.14403514498328</v>
+        <v>46.97260951305999</v>
       </c>
       <c r="N34" t="n">
-        <v>2885.279027861631</v>
+        <v>2956.756944777679</v>
       </c>
       <c r="O34" t="n">
-        <v>53.71479338005156</v>
+        <v>54.37606959663119</v>
       </c>
       <c r="P34" t="n">
-        <v>322.7910779402392</v>
+        <v>325.1912477140282</v>
       </c>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
@@ -36279,7 +36463,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI338"/>
+  <dimension ref="A1:AI340"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46289,7 +46473,7 @@
       </c>
       <c r="Y72" t="inlineStr">
         <is>
-          <t>-38.27196083170238,174.714342113767</t>
+          <t>-38.27196083170239,174.714342113767</t>
         </is>
       </c>
       <c r="Z72" t="inlineStr"/>
@@ -73562,7 +73746,7 @@
       </c>
       <c r="AB286" t="inlineStr">
         <is>
-          <t>-38.269826491041876,174.71438507668898</t>
+          <t>-38.26982649104188,174.71438507668898</t>
         </is>
       </c>
       <c r="AC286" t="inlineStr">
@@ -80167,7 +80351,11 @@
           <t>-38.287447935261355,174.71513670835475</t>
         </is>
       </c>
-      <c r="D337" t="inlineStr"/>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>-38.28675602767613,174.71567071648158</t>
+        </is>
+      </c>
       <c r="E337" t="inlineStr"/>
       <c r="F337" t="inlineStr">
         <is>
@@ -80384,10 +80572,244 @@
         </is>
       </c>
       <c r="AE338" t="inlineStr"/>
-      <c r="AF338" t="inlineStr"/>
-      <c r="AG338" t="inlineStr"/>
-      <c r="AH338" t="inlineStr"/>
+      <c r="AF338" t="inlineStr">
+        <is>
+          <t>-38.26688615466237,174.71545968683793</t>
+        </is>
+      </c>
+      <c r="AG338" t="inlineStr">
+        <is>
+          <t>-38.26618687710285,174.71534248182758</t>
+        </is>
+      </c>
+      <c r="AH338" t="inlineStr">
+        <is>
+          <t>-38.26548528527608,174.71525012927052</t>
+        </is>
+      </c>
       <c r="AI338" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr"/>
+      <c r="C339" t="inlineStr"/>
+      <c r="D339" t="inlineStr"/>
+      <c r="E339" t="inlineStr"/>
+      <c r="F339" t="inlineStr"/>
+      <c r="G339" t="inlineStr"/>
+      <c r="H339" t="inlineStr"/>
+      <c r="I339" t="inlineStr"/>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
+      <c r="L339" t="inlineStr"/>
+      <c r="M339" t="inlineStr"/>
+      <c r="N339" t="inlineStr"/>
+      <c r="O339" t="inlineStr"/>
+      <c r="P339" t="inlineStr">
+        <is>
+          <t>-38.27821384573785,174.71697363150753</t>
+        </is>
+      </c>
+      <c r="Q339" t="inlineStr">
+        <is>
+          <t>-38.27742389166202,174.7166858482037</t>
+        </is>
+      </c>
+      <c r="R339" t="inlineStr">
+        <is>
+          <t>-38.27673056605076,174.71650562922548</t>
+        </is>
+      </c>
+      <c r="S339" t="inlineStr">
+        <is>
+          <t>-38.2760454747437,174.7162366452604</t>
+        </is>
+      </c>
+      <c r="T339" t="inlineStr"/>
+      <c r="U339" t="inlineStr"/>
+      <c r="V339" t="inlineStr"/>
+      <c r="W339" t="inlineStr"/>
+      <c r="X339" t="inlineStr"/>
+      <c r="Y339" t="inlineStr">
+        <is>
+          <t>-38.27189198879006,174.71508368178075</t>
+        </is>
+      </c>
+      <c r="Z339" t="inlineStr"/>
+      <c r="AA339" t="inlineStr">
+        <is>
+          <t>-38.27052586296034,174.71450090096857</t>
+        </is>
+      </c>
+      <c r="AB339" t="inlineStr">
+        <is>
+          <t>-38.26982377249829,174.7144143604411</t>
+        </is>
+      </c>
+      <c r="AC339" t="inlineStr">
+        <is>
+          <t>-38.2689294410417,174.7163983285459</t>
+        </is>
+      </c>
+      <c r="AD339" t="inlineStr">
+        <is>
+          <t>-38.2682487362281,174.716081317329</t>
+        </is>
+      </c>
+      <c r="AE339" t="inlineStr">
+        <is>
+          <t>-38.26757139083313,174.71572804797412</t>
+        </is>
+      </c>
+      <c r="AF339" t="inlineStr">
+        <is>
+          <t>-38.26690403758514,174.71526708043905</t>
+        </is>
+      </c>
+      <c r="AG339" t="inlineStr">
+        <is>
+          <t>-38.266203318520255,174.71516540112847</t>
+        </is>
+      </c>
+      <c r="AH339" t="inlineStr">
+        <is>
+          <t>-38.2655107324251,174.71497605254856</t>
+        </is>
+      </c>
+      <c r="AI339" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:53+00:00</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>-38.28815082438809,174.71503708023977</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr"/>
+      <c r="D340" t="inlineStr"/>
+      <c r="E340" t="inlineStr"/>
+      <c r="F340" t="inlineStr"/>
+      <c r="G340" t="inlineStr">
+        <is>
+          <t>-38.28464353287485,174.71582073721635</t>
+        </is>
+      </c>
+      <c r="H340" t="inlineStr"/>
+      <c r="I340" t="inlineStr"/>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
+      <c r="L340" t="inlineStr"/>
+      <c r="M340" t="inlineStr"/>
+      <c r="N340" t="inlineStr">
+        <is>
+          <t>-38.279697743201886,174.71552269193123</t>
+        </is>
+      </c>
+      <c r="O340" t="inlineStr"/>
+      <c r="P340" t="inlineStr">
+        <is>
+          <t>-38.27821162254729,174.71703785531238</t>
+        </is>
+      </c>
+      <c r="Q340" t="inlineStr">
+        <is>
+          <t>-38.277412667498965,174.7168067409696</t>
+        </is>
+      </c>
+      <c r="R340" t="inlineStr">
+        <is>
+          <t>-38.27672769243987,174.71653658051858</t>
+        </is>
+      </c>
+      <c r="S340" t="inlineStr">
+        <is>
+          <t>-38.27604171946335,174.71627709346888</t>
+        </is>
+      </c>
+      <c r="T340" t="inlineStr">
+        <is>
+          <t>-38.27542139170327,174.71531043367966</t>
+        </is>
+      </c>
+      <c r="U340" t="inlineStr">
+        <is>
+          <t>-38.27472573529122,174.71515509683437</t>
+        </is>
+      </c>
+      <c r="V340" t="inlineStr"/>
+      <c r="W340" t="inlineStr">
+        <is>
+          <t>-38.27330740773129,174.71513520231596</t>
+        </is>
+      </c>
+      <c r="X340" t="inlineStr">
+        <is>
+          <t>-38.272623469712144,174.71485341920848</t>
+        </is>
+      </c>
+      <c r="Y340" t="inlineStr"/>
+      <c r="Z340" t="inlineStr">
+        <is>
+          <t>-38.27124992992374,174.71435063726386</t>
+        </is>
+      </c>
+      <c r="AA340" t="inlineStr">
+        <is>
+          <t>-38.270526758611446,174.71449125312932</t>
+        </is>
+      </c>
+      <c r="AB340" t="inlineStr">
+        <is>
+          <t>-38.269823849267894,174.71441353349132</t>
+        </is>
+      </c>
+      <c r="AC340" t="inlineStr">
+        <is>
+          <t>-38.26892059811153,174.71649356392285</t>
+        </is>
+      </c>
+      <c r="AD340" t="inlineStr">
+        <is>
+          <t>-38.26824812786156,174.71608786938327</t>
+        </is>
+      </c>
+      <c r="AE340" t="inlineStr">
+        <is>
+          <t>-38.26756981359942,174.71574503501483</t>
+        </is>
+      </c>
+      <c r="AF340" t="inlineStr">
+        <is>
+          <t>-38.266893699882,174.71537842215935</t>
+        </is>
+      </c>
+      <c r="AG340" t="inlineStr">
+        <is>
+          <t>-38.266199109252305,174.71521073692347</t>
+        </is>
+      </c>
+      <c r="AH340" t="inlineStr">
+        <is>
+          <t>-38.26549569062353,174.71513806006428</t>
+        </is>
+      </c>
+      <c r="AI340" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0252/nzd0252.xlsx
+++ b/data/nzd0252/nzd0252.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI340"/>
+  <dimension ref="A1:AI341"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30194,12 +30194,8 @@
       <c r="Q339" t="n">
         <v>212.78</v>
       </c>
-      <c r="R339" t="n">
-        <v>220.3466666666666</v>
-      </c>
-      <c r="S339" t="n">
-        <v>235.7333333333333</v>
-      </c>
+      <c r="R339" t="inlineStr"/>
+      <c r="S339" t="inlineStr"/>
       <c r="T339" t="inlineStr"/>
       <c r="U339" t="inlineStr"/>
       <c r="V339" t="inlineStr"/>
@@ -30248,17 +30244,33 @@
       <c r="B340" t="n">
         <v>317.5947058823529</v>
       </c>
-      <c r="C340" t="inlineStr"/>
-      <c r="D340" t="inlineStr"/>
-      <c r="E340" t="inlineStr"/>
-      <c r="F340" t="inlineStr"/>
+      <c r="C340" t="n">
+        <v>212.485</v>
+      </c>
+      <c r="D340" t="n">
+        <v>220.3533333333333</v>
+      </c>
+      <c r="E340" t="n">
+        <v>302.3215384615385</v>
+      </c>
+      <c r="F340" t="n">
+        <v>123.11</v>
+      </c>
       <c r="G340" t="n">
         <v>266.43</v>
       </c>
-      <c r="H340" t="inlineStr"/>
-      <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="H340" t="n">
+        <v>282.1657142857143</v>
+      </c>
+      <c r="I340" t="n">
+        <v>141.6833333333333</v>
+      </c>
+      <c r="J340" t="n">
+        <v>179.0142857142857</v>
+      </c>
+      <c r="K340" t="n">
+        <v>164.3734482758621</v>
+      </c>
       <c r="L340" t="inlineStr"/>
       <c r="M340" t="inlineStr"/>
       <c r="N340" t="n">
@@ -30271,12 +30283,8 @@
       <c r="Q340" t="n">
         <v>202.13</v>
       </c>
-      <c r="R340" t="n">
-        <v>217.62</v>
-      </c>
-      <c r="S340" t="n">
-        <v>232.17</v>
-      </c>
+      <c r="R340" t="inlineStr"/>
+      <c r="S340" t="inlineStr"/>
       <c r="T340" t="n">
         <v>309.02</v>
       </c>
@@ -30290,7 +30298,9 @@
       <c r="X340" t="n">
         <v>316.0457142857143</v>
       </c>
-      <c r="Y340" t="inlineStr"/>
+      <c r="Y340" t="n">
+        <v>329.8457142857143</v>
+      </c>
       <c r="Z340" t="n">
         <v>343.7228571428572</v>
       </c>
@@ -30321,6 +30331,111 @@
       <c r="AI340" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>317.7176470588236</v>
+      </c>
+      <c r="C341" t="n">
+        <v>214.42</v>
+      </c>
+      <c r="D341" t="n">
+        <v>225.51</v>
+      </c>
+      <c r="E341" t="n">
+        <v>303.3438461538461</v>
+      </c>
+      <c r="F341" t="n">
+        <v>123.59</v>
+      </c>
+      <c r="G341" t="n">
+        <v>273.96</v>
+      </c>
+      <c r="H341" t="n">
+        <v>275.8328571428572</v>
+      </c>
+      <c r="I341" t="n">
+        <v>142.84</v>
+      </c>
+      <c r="J341" t="n">
+        <v>183.3271428571429</v>
+      </c>
+      <c r="K341" t="n">
+        <v>135.6641379310345</v>
+      </c>
+      <c r="L341" t="inlineStr"/>
+      <c r="M341" t="inlineStr"/>
+      <c r="N341" t="n">
+        <v>320.5314285714285</v>
+      </c>
+      <c r="O341" t="n">
+        <v>302.6785714285714</v>
+      </c>
+      <c r="P341" t="inlineStr"/>
+      <c r="Q341" t="n">
+        <v>204.73</v>
+      </c>
+      <c r="R341" t="n">
+        <v>308.22</v>
+      </c>
+      <c r="S341" t="n">
+        <v>312.42</v>
+      </c>
+      <c r="T341" t="n">
+        <v>323.23</v>
+      </c>
+      <c r="U341" t="n">
+        <v>320.5328571428572</v>
+      </c>
+      <c r="V341" t="n">
+        <v>322.03</v>
+      </c>
+      <c r="W341" t="n">
+        <v>333.59</v>
+      </c>
+      <c r="X341" t="n">
+        <v>334.2628571428572</v>
+      </c>
+      <c r="Y341" t="n">
+        <v>343.8828571428572</v>
+      </c>
+      <c r="Z341" t="n">
+        <v>360.5514285714286</v>
+      </c>
+      <c r="AA341" t="n">
+        <v>345.49</v>
+      </c>
+      <c r="AB341" t="n">
+        <v>318.8114285714286</v>
+      </c>
+      <c r="AC341" t="n">
+        <v>130.5916279069768</v>
+      </c>
+      <c r="AD341" t="n">
+        <v>163.7145454545455</v>
+      </c>
+      <c r="AE341" t="n">
+        <v>180.37</v>
+      </c>
+      <c r="AF341" t="n">
+        <v>204.13</v>
+      </c>
+      <c r="AG341" t="n">
+        <v>210.86</v>
+      </c>
+      <c r="AH341" t="n">
+        <v>209.0828571428572</v>
+      </c>
+      <c r="AI341" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -30335,7 +30450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B344"/>
+  <dimension ref="A1:B345"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33783,6 +33898,16 @@
       </c>
       <c r="B344" t="n">
         <v>0.15</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>0.18</v>
       </c>
     </row>
   </sheetData>
@@ -33956,28 +34081,28 @@
         <v>0.0953</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1819927907581869</v>
+        <v>-0.1769708973517305</v>
       </c>
       <c r="J2" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K2" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02067111252144149</v>
+        <v>0.01968458631963466</v>
       </c>
       <c r="M2" t="n">
-        <v>7.000415483628044</v>
+        <v>6.996346555028603</v>
       </c>
       <c r="N2" t="n">
-        <v>82.8019219294163</v>
+        <v>82.64743128463003</v>
       </c>
       <c r="O2" t="n">
-        <v>9.099556139143068</v>
+        <v>9.091063264801869</v>
       </c>
       <c r="P2" t="n">
-        <v>315.7731058965291</v>
+        <v>315.7231881047117</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -34034,28 +34159,28 @@
         <v>0.0954</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1176185130604187</v>
+        <v>-0.03993258516787676</v>
       </c>
       <c r="J3" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K3" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002097548593836041</v>
+        <v>0.0002015461068184399</v>
       </c>
       <c r="M3" t="n">
-        <v>11.16294943064888</v>
+        <v>12.11024994233803</v>
       </c>
       <c r="N3" t="n">
-        <v>348.4993074061192</v>
+        <v>422.5127111158735</v>
       </c>
       <c r="O3" t="n">
-        <v>18.66813615244219</v>
+        <v>20.55511398936706</v>
       </c>
       <c r="P3" t="n">
-        <v>307.5633751240389</v>
+        <v>309.1307286639297</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -34112,28 +34237,28 @@
         <v>0.0548</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.8173480643961393</v>
+        <v>-0.9604274937269162</v>
       </c>
       <c r="J4" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K4" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02489983432079768</v>
+        <v>0.03328690931827261</v>
       </c>
       <c r="M4" t="n">
-        <v>26.95452038354077</v>
+        <v>27.85519389084536</v>
       </c>
       <c r="N4" t="n">
-        <v>1417.28341535089</v>
+        <v>1464.185189322317</v>
       </c>
       <c r="O4" t="n">
-        <v>37.64682477116617</v>
+        <v>38.26467286312947</v>
       </c>
       <c r="P4" t="n">
-        <v>324.6055354441498</v>
+        <v>326.0222762501798</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -34184,28 +34309,28 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>0.2248935297975939</v>
+        <v>0.1503973617456638</v>
       </c>
       <c r="J5" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K5" t="n">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L5" t="n">
-        <v>0.006345646000283089</v>
+        <v>0.002799766861718345</v>
       </c>
       <c r="M5" t="n">
-        <v>16.04821131879618</v>
+        <v>16.33204944008547</v>
       </c>
       <c r="N5" t="n">
-        <v>412.3159385346895</v>
+        <v>423.791986752739</v>
       </c>
       <c r="O5" t="n">
-        <v>20.30556422596253</v>
+        <v>20.58620865416308</v>
       </c>
       <c r="P5" t="n">
-        <v>339.1674229506383</v>
+        <v>339.9040450400162</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -34256,28 +34381,28 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>1.336101898908416</v>
+        <v>0.8725810622612116</v>
       </c>
       <c r="J6" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K6" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03793667507213638</v>
+        <v>0.01383769304369054</v>
       </c>
       <c r="M6" t="n">
-        <v>26.56279709251237</v>
+        <v>28.95811576741368</v>
       </c>
       <c r="N6" t="n">
-        <v>2389.56813901944</v>
+        <v>2897.158028255463</v>
       </c>
       <c r="O6" t="n">
-        <v>48.88320917267441</v>
+        <v>53.82525455820402</v>
       </c>
       <c r="P6" t="n">
-        <v>325.1738238387576</v>
+        <v>329.7154873897296</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -34334,28 +34459,28 @@
         <v>0.0527</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1227399239848784</v>
+        <v>-0.1757103673958755</v>
       </c>
       <c r="J7" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K7" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001229027418083284</v>
+        <v>0.002486658408267006</v>
       </c>
       <c r="M7" t="n">
-        <v>18.17907161780946</v>
+        <v>18.46149355935103</v>
       </c>
       <c r="N7" t="n">
-        <v>630.5661923231328</v>
+        <v>641.3502903039173</v>
       </c>
       <c r="O7" t="n">
-        <v>25.11107708409045</v>
+        <v>25.32489467508043</v>
       </c>
       <c r="P7" t="n">
-        <v>330.3923845033917</v>
+        <v>330.9286142453819</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -34412,28 +34537,28 @@
         <v>0.0386</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3311223810132261</v>
+        <v>0.221763189180779</v>
       </c>
       <c r="J8" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K8" t="n">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02319481550379809</v>
+        <v>0.009548091707685669</v>
       </c>
       <c r="M8" t="n">
-        <v>11.73117728874195</v>
+        <v>12.1773940834732</v>
       </c>
       <c r="N8" t="n">
-        <v>239.9757259523237</v>
+        <v>268.0974523049841</v>
       </c>
       <c r="O8" t="n">
-        <v>15.49114992349902</v>
+        <v>16.37368169670414</v>
       </c>
       <c r="P8" t="n">
-        <v>328.2139552475075</v>
+        <v>329.2960970471808</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -34490,28 +34615,28 @@
         <v>0.0507</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2474398095275598</v>
+        <v>-0.09403136084497125</v>
       </c>
       <c r="J9" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K9" t="n">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L9" t="n">
-        <v>0.002280275672950749</v>
+        <v>0.0002806733681772755</v>
       </c>
       <c r="M9" t="n">
-        <v>19.51632770345475</v>
+        <v>22.03699902999646</v>
       </c>
       <c r="N9" t="n">
-        <v>1399.549384123565</v>
+        <v>1664.387592699121</v>
       </c>
       <c r="O9" t="n">
-        <v>37.41055177518189</v>
+        <v>40.79690665600911</v>
       </c>
       <c r="P9" t="n">
-        <v>303.6219382624911</v>
+        <v>307.0133195365674</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -34562,28 +34687,28 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>0.3568519594319482</v>
+        <v>0.07170194552273169</v>
       </c>
       <c r="J10" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K10" t="n">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02375762668615189</v>
+        <v>0.0005673879800122128</v>
       </c>
       <c r="M10" t="n">
-        <v>10.69652253552367</v>
+        <v>12.26494384640927</v>
       </c>
       <c r="N10" t="n">
-        <v>282.1792033941929</v>
+        <v>493.2908451711687</v>
       </c>
       <c r="O10" t="n">
-        <v>16.79819047975683</v>
+        <v>22.21015184934963</v>
       </c>
       <c r="P10" t="n">
-        <v>318.0226503167316</v>
+        <v>320.8420968634425</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -34634,28 +34759,28 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>0.2066277029667922</v>
+        <v>-0.1137976327108343</v>
       </c>
       <c r="J11" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K11" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01078772651121651</v>
+        <v>0.00141999553735972</v>
       </c>
       <c r="M11" t="n">
-        <v>10.74483681137331</v>
+        <v>12.98755101475714</v>
       </c>
       <c r="N11" t="n">
-        <v>212.6405196418143</v>
+        <v>499.5003682338432</v>
       </c>
       <c r="O11" t="n">
-        <v>14.58219872453446</v>
+        <v>22.34950487670461</v>
       </c>
       <c r="P11" t="n">
-        <v>320.4484152131894</v>
+        <v>323.5765124518463</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -34715,7 +34840,7 @@
         <v>0.2480455511486769</v>
       </c>
       <c r="J12" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K12" t="n">
         <v>199</v>
@@ -34793,7 +34918,7 @@
         <v>0.3467229095946051</v>
       </c>
       <c r="J13" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K13" t="n">
         <v>199</v>
@@ -34868,28 +34993,28 @@
         <v>0.0833</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3240565462324149</v>
+        <v>0.3287952936170424</v>
       </c>
       <c r="J14" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K14" t="n">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L14" t="n">
-        <v>0.03454003408953765</v>
+        <v>0.03580361622476069</v>
       </c>
       <c r="M14" t="n">
-        <v>8.855155460476274</v>
+        <v>8.841403813105513</v>
       </c>
       <c r="N14" t="n">
-        <v>156.1890220046437</v>
+        <v>155.6809405222704</v>
       </c>
       <c r="O14" t="n">
-        <v>12.49756064216708</v>
+        <v>12.47721685802849</v>
       </c>
       <c r="P14" t="n">
-        <v>306.5632618183831</v>
+        <v>306.5172493878434</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -34940,28 +35065,28 @@
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="n">
-        <v>0.3321524949644193</v>
+        <v>0.3269379509272391</v>
       </c>
       <c r="J15" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K15" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L15" t="n">
-        <v>0.01588361096419411</v>
+        <v>0.01553572460770936</v>
       </c>
       <c r="M15" t="n">
-        <v>13.93275041296758</v>
+        <v>13.90322383132648</v>
       </c>
       <c r="N15" t="n">
-        <v>346.7425445130057</v>
+        <v>345.4360106037937</v>
       </c>
       <c r="O15" t="n">
-        <v>18.62102426057723</v>
+        <v>18.58590892595231</v>
       </c>
       <c r="P15" t="n">
-        <v>300.1302466925591</v>
+        <v>300.1822817832513</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -35021,7 +35146,7 @@
         <v>0.5375593618748759</v>
       </c>
       <c r="J16" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K16" t="n">
         <v>188</v>
@@ -35096,28 +35221,28 @@
         <v>0.033</v>
       </c>
       <c r="I17" t="n">
-        <v>0.5470664114288261</v>
+        <v>0.4464619767015216</v>
       </c>
       <c r="J17" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K17" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L17" t="n">
-        <v>0.01316236190516029</v>
+        <v>0.00849527489002766</v>
       </c>
       <c r="M17" t="n">
-        <v>28.29131376420035</v>
+        <v>28.80801527573308</v>
       </c>
       <c r="N17" t="n">
-        <v>1233.342606619692</v>
+        <v>1284.17355509927</v>
       </c>
       <c r="O17" t="n">
-        <v>35.1189778698027</v>
+        <v>35.8353673777634</v>
       </c>
       <c r="P17" t="n">
-        <v>294.7118612947633</v>
+        <v>295.7182229017818</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -35174,28 +35299,28 @@
         <v>0.1387</v>
       </c>
       <c r="I18" t="n">
-        <v>0.01234247134771542</v>
+        <v>0.1551341058824468</v>
       </c>
       <c r="J18" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K18" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L18" t="n">
-        <v>4.374820190999884e-06</v>
+        <v>0.0006956735049395979</v>
       </c>
       <c r="M18" t="n">
-        <v>38.76226056825909</v>
+        <v>38.34707352699089</v>
       </c>
       <c r="N18" t="n">
-        <v>1888.453059719367</v>
+        <v>1864.924117662317</v>
       </c>
       <c r="O18" t="n">
-        <v>43.45633509304906</v>
+        <v>43.18476719472176</v>
       </c>
       <c r="P18" t="n">
-        <v>279.0709264129498</v>
+        <v>277.6895894017548</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -35252,28 +35377,28 @@
         <v>0.068</v>
       </c>
       <c r="I19" t="n">
-        <v>0.4694885261289673</v>
+        <v>0.5930595474127793</v>
       </c>
       <c r="J19" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K19" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L19" t="n">
-        <v>0.01404249755974507</v>
+        <v>0.02313881045798116</v>
       </c>
       <c r="M19" t="n">
-        <v>21.97544967738159</v>
+        <v>21.29451610444839</v>
       </c>
       <c r="N19" t="n">
-        <v>842.0044338575677</v>
+        <v>804.3465954055331</v>
       </c>
       <c r="O19" t="n">
-        <v>29.01731265740451</v>
+        <v>28.36100483772627</v>
       </c>
       <c r="P19" t="n">
-        <v>290.2614828977156</v>
+        <v>289.0521421650553</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -35330,28 +35455,28 @@
         <v>0.0447</v>
       </c>
       <c r="I20" t="n">
-        <v>0.7239301754750103</v>
+        <v>0.7353635071267102</v>
       </c>
       <c r="J20" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K20" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L20" t="n">
-        <v>0.06452201603931684</v>
+        <v>0.0668363997185083</v>
       </c>
       <c r="M20" t="n">
-        <v>15.96826749176127</v>
+        <v>15.95691916843026</v>
       </c>
       <c r="N20" t="n">
-        <v>411.1998995363493</v>
+        <v>410.3043804407671</v>
       </c>
       <c r="O20" t="n">
-        <v>20.27806449186779</v>
+        <v>20.2559714761047</v>
       </c>
       <c r="P20" t="n">
-        <v>290.5944342885783</v>
+        <v>290.4816967980796</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -35408,28 +35533,28 @@
         <v>0.0387</v>
       </c>
       <c r="I21" t="n">
-        <v>0.3567895232774669</v>
+        <v>0.365899912281936</v>
       </c>
       <c r="J21" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K21" t="n">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L21" t="n">
-        <v>0.02198711751247695</v>
+        <v>0.02326798552551146</v>
       </c>
       <c r="M21" t="n">
-        <v>13.49054347045143</v>
+        <v>13.47216198379291</v>
       </c>
       <c r="N21" t="n">
-        <v>303.0860029130132</v>
+        <v>302.2202053051255</v>
       </c>
       <c r="O21" t="n">
-        <v>17.40936537938742</v>
+        <v>17.38448173818033</v>
       </c>
       <c r="P21" t="n">
-        <v>300.9257655551798</v>
+        <v>300.8357036565773</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -35486,28 +35611,28 @@
         <v>0.0469</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.002571861561251022</v>
+        <v>0.02501596041749492</v>
       </c>
       <c r="J22" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K22" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L22" t="n">
-        <v>6.609507332555609e-07</v>
+        <v>6.250343383662482e-05</v>
       </c>
       <c r="M22" t="n">
-        <v>18.36013313725314</v>
+        <v>18.42089699927071</v>
       </c>
       <c r="N22" t="n">
-        <v>520.3230861973764</v>
+        <v>522.7354458884724</v>
       </c>
       <c r="O22" t="n">
-        <v>22.81059153545511</v>
+        <v>22.86340844862096</v>
       </c>
       <c r="P22" t="n">
-        <v>288.9840731242211</v>
+        <v>288.7030735698991</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -35558,28 +35683,28 @@
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="n">
-        <v>-0.06410777028923041</v>
+        <v>-0.032796896050797</v>
       </c>
       <c r="J23" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K23" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L23" t="n">
-        <v>0.000338433519084691</v>
+        <v>8.849924171749901e-05</v>
       </c>
       <c r="M23" t="n">
-        <v>19.06825776839131</v>
+        <v>19.13712535944465</v>
       </c>
       <c r="N23" t="n">
-        <v>629.057974246428</v>
+        <v>632.2016295164215</v>
       </c>
       <c r="O23" t="n">
-        <v>25.08102817363012</v>
+        <v>25.14362005591919</v>
       </c>
       <c r="P23" t="n">
-        <v>298.6883454359678</v>
+        <v>298.3632910488059</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -35636,28 +35761,28 @@
         <v>0.0385</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.06553383949732397</v>
+        <v>-0.04675847902733488</v>
       </c>
       <c r="J24" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K24" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0006863191557247017</v>
+        <v>0.0003498071948376813</v>
       </c>
       <c r="M24" t="n">
-        <v>14.57370097547858</v>
+        <v>14.59731762550562</v>
       </c>
       <c r="N24" t="n">
-        <v>337.667351932371</v>
+        <v>338.6197602433473</v>
       </c>
       <c r="O24" t="n">
-        <v>18.37572724907428</v>
+        <v>18.40162384800177</v>
       </c>
       <c r="P24" t="n">
-        <v>312.1114849227839</v>
+        <v>311.9226952653738</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -35714,28 +35839,28 @@
         <v>0.037</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1685099058613895</v>
+        <v>0.1869224513148344</v>
       </c>
       <c r="J25" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K25" t="n">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="L25" t="n">
-        <v>0.004520889505065684</v>
+        <v>0.005609382716910138</v>
       </c>
       <c r="M25" t="n">
-        <v>14.38223915485849</v>
+        <v>14.35876292551275</v>
       </c>
       <c r="N25" t="n">
-        <v>336.1723679001214</v>
+        <v>335.1694673459069</v>
       </c>
       <c r="O25" t="n">
-        <v>18.33500389692136</v>
+        <v>18.30763412748646</v>
       </c>
       <c r="P25" t="n">
-        <v>319.7797149370565</v>
+        <v>319.5933116140009</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -35792,28 +35917,28 @@
         <v>0.0867</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.1521626271932416</v>
+        <v>-0.1215315289729849</v>
       </c>
       <c r="J26" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K26" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L26" t="n">
-        <v>0.002169862558585645</v>
+        <v>0.001380655882510795</v>
       </c>
       <c r="M26" t="n">
-        <v>19.16101300394844</v>
+        <v>19.21553383235744</v>
       </c>
       <c r="N26" t="n">
-        <v>578.0069991053939</v>
+        <v>582.0501808733484</v>
       </c>
       <c r="O26" t="n">
-        <v>24.0417761221045</v>
+        <v>24.12571617327346</v>
       </c>
       <c r="P26" t="n">
-        <v>324.9950205125085</v>
+        <v>324.6883843696438</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -35870,28 +35995,28 @@
         <v>0.0905</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.0794074618638726</v>
+        <v>-0.06460827694911138</v>
       </c>
       <c r="J27" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K27" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L27" t="n">
-        <v>0.001333555827605304</v>
+        <v>0.0008832721611631289</v>
       </c>
       <c r="M27" t="n">
-        <v>12.09387220368815</v>
+        <v>12.12437264191367</v>
       </c>
       <c r="N27" t="n">
-        <v>258.605391757016</v>
+        <v>259.4122819724789</v>
       </c>
       <c r="O27" t="n">
-        <v>16.08121238455036</v>
+        <v>16.1062808237184</v>
       </c>
       <c r="P27" t="n">
-        <v>325.4954887056937</v>
+        <v>325.3486106487138</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -35948,28 +36073,28 @@
         <v>0.08359999999999999</v>
       </c>
       <c r="I28" t="n">
-        <v>0.004037184326627748</v>
+        <v>-0.004310192315644891</v>
       </c>
       <c r="J28" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K28" t="n">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L28" t="n">
-        <v>3.890509991610891e-06</v>
+        <v>4.454498731765177e-06</v>
       </c>
       <c r="M28" t="n">
-        <v>11.57846202246853</v>
+        <v>11.58892302810905</v>
       </c>
       <c r="N28" t="n">
-        <v>231.2825530429596</v>
+        <v>230.997684534864</v>
       </c>
       <c r="O28" t="n">
-        <v>15.20797662553962</v>
+        <v>15.19860798016924</v>
       </c>
       <c r="P28" t="n">
-        <v>331.1410912442607</v>
+        <v>331.2231477129842</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -36020,28 +36145,28 @@
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="n">
-        <v>0.3968898923520848</v>
+        <v>0.2322710332347644</v>
       </c>
       <c r="J29" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K29" t="n">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L29" t="n">
-        <v>0.004046778457036049</v>
+        <v>0.001297846135333902</v>
       </c>
       <c r="M29" t="n">
-        <v>24.82904472417716</v>
+        <v>26.0657980361275</v>
       </c>
       <c r="N29" t="n">
-        <v>2219.186078598499</v>
+        <v>2386.115422039276</v>
       </c>
       <c r="O29" t="n">
-        <v>47.10823790589602</v>
+        <v>48.84788042524748</v>
       </c>
       <c r="P29" t="n">
-        <v>316.5813405525838</v>
+        <v>318.1585687588957</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
@@ -36092,28 +36217,28 @@
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="n">
-        <v>0.3922860144635033</v>
+        <v>0.3064897550145321</v>
       </c>
       <c r="J30" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K30" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L30" t="n">
-        <v>0.001351163680746059</v>
+        <v>0.0008245712118054582</v>
       </c>
       <c r="M30" t="n">
-        <v>72.59820481193563</v>
+        <v>72.89195592636453</v>
       </c>
       <c r="N30" t="n">
-        <v>6163.762466747407</v>
+        <v>6190.200637291222</v>
       </c>
       <c r="O30" t="n">
-        <v>78.50963295511836</v>
+        <v>78.67782811752764</v>
       </c>
       <c r="P30" t="n">
-        <v>266.3472051674811</v>
+        <v>267.2087675220229</v>
       </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
@@ -36170,28 +36295,28 @@
         <v>0.1366</v>
       </c>
       <c r="I31" t="n">
-        <v>1.176298777831738</v>
+        <v>1.086196243193585</v>
       </c>
       <c r="J31" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K31" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L31" t="n">
-        <v>0.01540368862510533</v>
+        <v>0.01315248587276174</v>
       </c>
       <c r="M31" t="n">
-        <v>64.96230581253531</v>
+        <v>65.22586799388411</v>
       </c>
       <c r="N31" t="n">
-        <v>4663.722667332931</v>
+        <v>4687.681758654608</v>
       </c>
       <c r="O31" t="n">
-        <v>68.29145383818485</v>
+        <v>68.46664705281403</v>
       </c>
       <c r="P31" t="n">
-        <v>248.8265132569502</v>
+        <v>249.7481551680874</v>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
@@ -36248,28 +36373,28 @@
         <v>0.0565</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.1263881554958451</v>
+        <v>-0.2121024531379488</v>
       </c>
       <c r="J32" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K32" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L32" t="n">
-        <v>0.0002512078812070273</v>
+        <v>0.0007070711660656093</v>
       </c>
       <c r="M32" t="n">
-        <v>52.02935843470301</v>
+        <v>52.28939265997943</v>
       </c>
       <c r="N32" t="n">
-        <v>3340.198164363524</v>
+        <v>3358.818149528653</v>
       </c>
       <c r="O32" t="n">
-        <v>57.79444752191618</v>
+        <v>57.95531165931776</v>
       </c>
       <c r="P32" t="n">
-        <v>291.0599068238877</v>
+        <v>291.9194536588273</v>
       </c>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
@@ -36326,28 +36451,28 @@
         <v>0.068</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.4837053908945035</v>
+        <v>-0.5605999274929327</v>
       </c>
       <c r="J33" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K33" t="n">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L33" t="n">
-        <v>0.004201286762918088</v>
+        <v>0.005620311270056355</v>
       </c>
       <c r="M33" t="n">
-        <v>47.67208767082329</v>
+        <v>47.95191342485298</v>
       </c>
       <c r="N33" t="n">
-        <v>2931.077693523181</v>
+        <v>2950.739236373355</v>
       </c>
       <c r="O33" t="n">
-        <v>54.13942827111477</v>
+        <v>54.32070725214607</v>
       </c>
       <c r="P33" t="n">
-        <v>306.4943522552455</v>
+        <v>307.2849383933785</v>
       </c>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
@@ -36404,28 +36529,28 @@
         <v>0.0429</v>
       </c>
       <c r="I34" t="n">
-        <v>-1.306119732790219</v>
+        <v>-1.383251118499494</v>
       </c>
       <c r="J34" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K34" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L34" t="n">
-        <v>0.03165649033038631</v>
+        <v>0.03525866586387405</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97260951305999</v>
+        <v>47.21326763358066</v>
       </c>
       <c r="N34" t="n">
-        <v>2956.756944777679</v>
+        <v>2977.440478211468</v>
       </c>
       <c r="O34" t="n">
-        <v>54.37606959663119</v>
+        <v>54.56592781408072</v>
       </c>
       <c r="P34" t="n">
-        <v>325.1912477140282</v>
+        <v>325.9542745957989</v>
       </c>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
@@ -36463,7 +36588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI340"/>
+  <dimension ref="A1:AI341"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80623,16 +80748,8 @@
           <t>-38.27742389166202,174.7166858482037</t>
         </is>
       </c>
-      <c r="R339" t="inlineStr">
-        <is>
-          <t>-38.27673056605076,174.71650562922548</t>
-        </is>
-      </c>
-      <c r="S339" t="inlineStr">
-        <is>
-          <t>-38.2760454747437,174.7162366452604</t>
-        </is>
-      </c>
+      <c r="R339" t="inlineStr"/>
+      <c r="S339" t="inlineStr"/>
       <c r="T339" t="inlineStr"/>
       <c r="U339" t="inlineStr"/>
       <c r="V339" t="inlineStr"/>
@@ -80701,19 +80818,51 @@
           <t>-38.28815082438809,174.71503708023977</t>
         </is>
       </c>
-      <c r="C340" t="inlineStr"/>
-      <c r="D340" t="inlineStr"/>
-      <c r="E340" t="inlineStr"/>
-      <c r="F340" t="inlineStr"/>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>-38.287476799025036,174.71627783960807</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>-38.28677011635067,174.71622774694907</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>-38.28604201183021,174.71533103734717</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>-38.28538937080967,174.71741839349417</t>
+        </is>
+      </c>
       <c r="G340" t="inlineStr">
         <is>
           <t>-38.28464353287485,174.71582073721635</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr"/>
-      <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="H340" t="inlineStr">
+        <is>
+          <t>-38.28393454863641,174.71568076887775</t>
+        </is>
+      </c>
+      <c r="I340" t="inlineStr">
+        <is>
+          <t>-38.283270696299205,174.71732558529484</t>
+        </is>
+      </c>
+      <c r="J340" t="inlineStr">
+        <is>
+          <t>-38.282555461873805,174.71693888473203</t>
+        </is>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>-38.28185523451441,174.71714595528618</t>
+        </is>
+      </c>
       <c r="L340" t="inlineStr"/>
       <c r="M340" t="inlineStr"/>
       <c r="N340" t="inlineStr">
@@ -80732,16 +80881,8 @@
           <t>-38.277412667498965,174.7168067409696</t>
         </is>
       </c>
-      <c r="R340" t="inlineStr">
-        <is>
-          <t>-38.27672769243987,174.71653658051858</t>
-        </is>
-      </c>
-      <c r="S340" t="inlineStr">
-        <is>
-          <t>-38.27604171946335,174.71627709346888</t>
-        </is>
-      </c>
+      <c r="R340" t="inlineStr"/>
+      <c r="S340" t="inlineStr"/>
       <c r="T340" t="inlineStr">
         <is>
           <t>-38.27542139170327,174.71531043367966</t>
@@ -80763,7 +80904,11 @@
           <t>-38.272623469712144,174.71485341920848</t>
         </is>
       </c>
-      <c r="Y340" t="inlineStr"/>
+      <c r="Y340" t="inlineStr">
+        <is>
+          <t>-38.27193666277536,174.71460246459117</t>
+        </is>
+      </c>
       <c r="Z340" t="inlineStr">
         <is>
           <t>-38.27124992992374,174.71435063726386</t>
@@ -80812,6 +80957,171 @@
       <c r="AI340" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>-38.288150788850594,174.71503567555047</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>-38.2874762399179,174.71625573107806</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>-38.286768626309254,174.71616882952716</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>-38.28604171633928,174.71531935710215</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>-38.2853892321653,174.71741290936484</t>
+        </is>
+      </c>
+      <c r="G341" t="inlineStr">
+        <is>
+          <t>-38.28464135666175,174.715734705824</t>
+        </is>
+      </c>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>-38.28393637892765,174.71575312202822</t>
+        </is>
+      </c>
+      <c r="I341" t="inlineStr">
+        <is>
+          <t>-38.28327036218202,174.7173123704514</t>
+        </is>
+      </c>
+      <c r="J341" t="inlineStr">
+        <is>
+          <t>-38.28255421586753,174.7168896110973</t>
+        </is>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>-38.28186352776912,174.7174739509785</t>
+        </is>
+      </c>
+      <c r="L341" t="inlineStr"/>
+      <c r="M341" t="inlineStr"/>
+      <c r="N341" t="inlineStr">
+        <is>
+          <t>-38.279696697229795,174.71548135201357</t>
+        </is>
+      </c>
+      <c r="O341" t="inlineStr">
+        <is>
+          <t>-38.278996740278394,174.7157251619851</t>
+        </is>
+      </c>
+      <c r="P341" t="inlineStr"/>
+      <c r="Q341" t="inlineStr">
+        <is>
+          <t>-38.27741540768165,174.71677722724655</t>
+        </is>
+      </c>
+      <c r="R341" t="inlineStr">
+        <is>
+          <t>-38.27682317066791,174.7155081485516</t>
+        </is>
+      </c>
+      <c r="S341" t="inlineStr">
+        <is>
+          <t>-38.27612628895371,174.71536615629952</t>
+        </is>
+      </c>
+      <c r="T341" t="inlineStr">
+        <is>
+          <t>-38.275436365770375,174.71514913383126</t>
+        </is>
+      </c>
+      <c r="U341" t="inlineStr">
+        <is>
+          <t>-38.274732202368696,174.71508543386008</t>
+        </is>
+      </c>
+      <c r="V341" t="inlineStr">
+        <is>
+          <t>-38.27403245195562,174.71497412423406</t>
+        </is>
+      </c>
+      <c r="W341" t="inlineStr">
+        <is>
+          <t>-38.27334329830113,174.7147485931281</t>
+        </is>
+      </c>
+      <c r="X341" t="inlineStr">
+        <is>
+          <t>-38.27264266562836,174.7146466414644</t>
+        </is>
+      </c>
+      <c r="Y341" t="inlineStr">
+        <is>
+          <t>-38.27195145381741,174.7144431343204</t>
+        </is>
+      </c>
+      <c r="Z341" t="inlineStr">
+        <is>
+          <t>-38.27126766190122,174.71415962426593</t>
+        </is>
+      </c>
+      <c r="AA341" t="inlineStr">
+        <is>
+          <t>-38.270550429857536,174.71423626631625</t>
+        </is>
+      </c>
+      <c r="AB341" t="inlineStr">
+        <is>
+          <t>-38.26982095008239,174.71444476300508</t>
+        </is>
+      </c>
+      <c r="AC341" t="inlineStr">
+        <is>
+          <t>-38.26892122898165,174.71648676969255</t>
+        </is>
+      </c>
+      <c r="AD341" t="inlineStr">
+        <is>
+          <t>-38.26825475568407,174.71601648809894</t>
+        </is>
+      </c>
+      <c r="AE341" t="inlineStr">
+        <is>
+          <t>-38.26757092012221,174.71573311760332</t>
+        </is>
+      </c>
+      <c r="AF341" t="inlineStr">
+        <is>
+          <t>-38.26689456399576,174.71536911530947</t>
+        </is>
+      </c>
+      <c r="AG341" t="inlineStr">
+        <is>
+          <t>-38.266200254362246,174.7151984035701</t>
+        </is>
+      </c>
+      <c r="AH341" t="inlineStr">
+        <is>
+          <t>-38.265496973219776,174.71512424597557</t>
+        </is>
+      </c>
+      <c r="AI341" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>

--- a/data/nzd0252/nzd0252.xlsx
+++ b/data/nzd0252/nzd0252.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI341"/>
+  <dimension ref="A1:AI343"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30188,9 +30188,7 @@
       <c r="M339" t="inlineStr"/>
       <c r="N339" t="inlineStr"/>
       <c r="O339" t="inlineStr"/>
-      <c r="P339" t="n">
-        <v>196.65</v>
-      </c>
+      <c r="P339" t="inlineStr"/>
       <c r="Q339" t="n">
         <v>212.78</v>
       </c>
@@ -30211,9 +30209,7 @@
       <c r="AB339" t="n">
         <v>321.49</v>
       </c>
-      <c r="AC339" t="n">
-        <v>138.3837209302326</v>
-      </c>
+      <c r="AC339" t="inlineStr"/>
       <c r="AD339" t="n">
         <v>158.0027272727273</v>
       </c>
@@ -30244,42 +30240,30 @@
       <c r="B340" t="n">
         <v>317.5947058823529</v>
       </c>
-      <c r="C340" t="n">
-        <v>212.485</v>
-      </c>
+      <c r="C340" t="inlineStr"/>
       <c r="D340" t="n">
         <v>220.3533333333333</v>
       </c>
       <c r="E340" t="n">
         <v>302.3215384615385</v>
       </c>
-      <c r="F340" t="n">
-        <v>123.11</v>
-      </c>
+      <c r="F340" t="inlineStr"/>
       <c r="G340" t="n">
         <v>266.43</v>
       </c>
-      <c r="H340" t="n">
-        <v>282.1657142857143</v>
-      </c>
-      <c r="I340" t="n">
-        <v>141.6833333333333</v>
-      </c>
+      <c r="H340" t="inlineStr"/>
+      <c r="I340" t="inlineStr"/>
       <c r="J340" t="n">
         <v>179.0142857142857</v>
       </c>
-      <c r="K340" t="n">
-        <v>164.3734482758621</v>
-      </c>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="inlineStr"/>
       <c r="M340" t="inlineStr"/>
       <c r="N340" t="n">
         <v>316.9128571428571</v>
       </c>
       <c r="O340" t="inlineStr"/>
-      <c r="P340" t="n">
-        <v>191.0257142857143</v>
-      </c>
+      <c r="P340" t="inlineStr"/>
       <c r="Q340" t="n">
         <v>202.13</v>
       </c>
@@ -30310,9 +30294,7 @@
       <c r="AB340" t="n">
         <v>321.5628571428572</v>
       </c>
-      <c r="AC340" t="n">
-        <v>129.993023255814</v>
-      </c>
+      <c r="AC340" t="inlineStr"/>
       <c r="AD340" t="n">
         <v>157.4254545454545</v>
       </c>
@@ -30343,33 +30325,23 @@
       <c r="B341" t="n">
         <v>317.7176470588236</v>
       </c>
-      <c r="C341" t="n">
-        <v>214.42</v>
-      </c>
+      <c r="C341" t="inlineStr"/>
       <c r="D341" t="n">
         <v>225.51</v>
       </c>
       <c r="E341" t="n">
         <v>303.3438461538461</v>
       </c>
-      <c r="F341" t="n">
-        <v>123.59</v>
-      </c>
+      <c r="F341" t="inlineStr"/>
       <c r="G341" t="n">
         <v>273.96</v>
       </c>
-      <c r="H341" t="n">
-        <v>275.8328571428572</v>
-      </c>
-      <c r="I341" t="n">
-        <v>142.84</v>
-      </c>
+      <c r="H341" t="inlineStr"/>
+      <c r="I341" t="inlineStr"/>
       <c r="J341" t="n">
         <v>183.3271428571429</v>
       </c>
-      <c r="K341" t="n">
-        <v>135.6641379310345</v>
-      </c>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="inlineStr"/>
       <c r="M341" t="inlineStr"/>
       <c r="N341" t="n">
@@ -30415,9 +30387,7 @@
       <c r="AB341" t="n">
         <v>318.8114285714286</v>
       </c>
-      <c r="AC341" t="n">
-        <v>130.5916279069768</v>
-      </c>
+      <c r="AC341" t="inlineStr"/>
       <c r="AD341" t="n">
         <v>163.7145454545455</v>
       </c>
@@ -30436,6 +30406,154 @@
       <c r="AI341" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-09 22:05:45+00:00</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr"/>
+      <c r="C342" t="inlineStr"/>
+      <c r="D342" t="inlineStr"/>
+      <c r="E342" t="inlineStr"/>
+      <c r="F342" t="inlineStr"/>
+      <c r="G342" t="inlineStr"/>
+      <c r="H342" t="inlineStr"/>
+      <c r="I342" t="inlineStr"/>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
+      <c r="L342" t="inlineStr"/>
+      <c r="M342" t="inlineStr"/>
+      <c r="N342" t="inlineStr"/>
+      <c r="O342" t="inlineStr"/>
+      <c r="P342" t="inlineStr"/>
+      <c r="Q342" t="inlineStr"/>
+      <c r="R342" t="inlineStr"/>
+      <c r="S342" t="inlineStr"/>
+      <c r="T342" t="inlineStr"/>
+      <c r="U342" t="inlineStr"/>
+      <c r="V342" t="inlineStr"/>
+      <c r="W342" t="inlineStr"/>
+      <c r="X342" t="inlineStr"/>
+      <c r="Y342" t="inlineStr"/>
+      <c r="Z342" t="inlineStr"/>
+      <c r="AA342" t="n">
+        <v>351.04</v>
+      </c>
+      <c r="AB342" t="n">
+        <v>324.1671428571428</v>
+      </c>
+      <c r="AC342" t="n">
+        <v>306.4881395348837</v>
+      </c>
+      <c r="AD342" t="inlineStr"/>
+      <c r="AE342" t="inlineStr"/>
+      <c r="AF342" t="inlineStr"/>
+      <c r="AG342" t="inlineStr"/>
+      <c r="AH342" t="inlineStr"/>
+      <c r="AI342" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:06:18+00:00</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>321.7552941176471</v>
+      </c>
+      <c r="C343" t="n">
+        <v>295.23</v>
+      </c>
+      <c r="D343" t="n">
+        <v>264.5166666666667</v>
+      </c>
+      <c r="E343" t="n">
+        <v>330.9161538461539</v>
+      </c>
+      <c r="F343" t="n">
+        <v>292.22</v>
+      </c>
+      <c r="G343" t="n">
+        <v>304.88</v>
+      </c>
+      <c r="H343" t="n">
+        <v>339.8485714285715</v>
+      </c>
+      <c r="I343" t="n">
+        <v>183.0566666666666</v>
+      </c>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="n">
+        <v>222.381724137931</v>
+      </c>
+      <c r="L343" t="inlineStr"/>
+      <c r="M343" t="inlineStr"/>
+      <c r="N343" t="n">
+        <v>314.5842857142857</v>
+      </c>
+      <c r="O343" t="n">
+        <v>302.3357142857143</v>
+      </c>
+      <c r="P343" t="n">
+        <v>236.3585714285715</v>
+      </c>
+      <c r="Q343" t="inlineStr"/>
+      <c r="R343" t="inlineStr"/>
+      <c r="S343" t="inlineStr"/>
+      <c r="T343" t="inlineStr"/>
+      <c r="U343" t="n">
+        <v>320.7485714285714</v>
+      </c>
+      <c r="V343" t="n">
+        <v>300.58</v>
+      </c>
+      <c r="W343" t="n">
+        <v>322.02</v>
+      </c>
+      <c r="X343" t="n">
+        <v>339.6485714285715</v>
+      </c>
+      <c r="Y343" t="n">
+        <v>349.4185714285715</v>
+      </c>
+      <c r="Z343" t="n">
+        <v>335.5942857142857</v>
+      </c>
+      <c r="AA343" t="n">
+        <v>337.47</v>
+      </c>
+      <c r="AB343" t="n">
+        <v>342.0742857142857</v>
+      </c>
+      <c r="AC343" t="n">
+        <v>316.2558139534884</v>
+      </c>
+      <c r="AD343" t="n">
+        <v>186.6381818181818</v>
+      </c>
+      <c r="AE343" t="n">
+        <v>200.81</v>
+      </c>
+      <c r="AF343" t="n">
+        <v>241.91</v>
+      </c>
+      <c r="AG343" t="n">
+        <v>239.7866666666666</v>
+      </c>
+      <c r="AH343" t="n">
+        <v>255.5685714285714</v>
+      </c>
+      <c r="AI343" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -30450,7 +30568,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B345"/>
+  <dimension ref="A1:B347"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33908,6 +34026,26 @@
       </c>
       <c r="B345" t="n">
         <v>0.18</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>2025-07-09 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>
@@ -34081,28 +34219,28 @@
         <v>0.0953</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1769708973517305</v>
+        <v>-0.1689248616147369</v>
       </c>
       <c r="J2" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K2" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01968458631963466</v>
+        <v>0.01801912470007194</v>
       </c>
       <c r="M2" t="n">
-        <v>6.996346555028603</v>
+        <v>7.006077321199953</v>
       </c>
       <c r="N2" t="n">
-        <v>82.64743128463003</v>
+        <v>82.75331668220046</v>
       </c>
       <c r="O2" t="n">
-        <v>9.091063264801869</v>
+        <v>9.096884998844411</v>
       </c>
       <c r="P2" t="n">
-        <v>315.7231881047117</v>
+        <v>315.6427890012511</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -34159,28 +34297,28 @@
         <v>0.0954</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.03993258516787676</v>
+        <v>0.104870628110798</v>
       </c>
       <c r="J3" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K3" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0002015461068184399</v>
+        <v>0.001678261888176436</v>
       </c>
       <c r="M3" t="n">
-        <v>12.11024994233803</v>
+        <v>11.19170898855075</v>
       </c>
       <c r="N3" t="n">
-        <v>422.5127111158735</v>
+        <v>348.0112480400512</v>
       </c>
       <c r="O3" t="n">
-        <v>20.55511398936706</v>
+        <v>18.65505958285985</v>
       </c>
       <c r="P3" t="n">
-        <v>309.1307286639297</v>
+        <v>307.6909316857317</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -34237,28 +34375,28 @@
         <v>0.0548</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.9604274937269162</v>
+        <v>-0.9930356553672355</v>
       </c>
       <c r="J4" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K4" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03328690931827261</v>
+        <v>0.03566906194511765</v>
       </c>
       <c r="M4" t="n">
-        <v>27.85519389084536</v>
+        <v>27.98536085512247</v>
       </c>
       <c r="N4" t="n">
-        <v>1464.185189322317</v>
+        <v>1463.624978303874</v>
       </c>
       <c r="O4" t="n">
-        <v>38.26467286312947</v>
+        <v>38.25735195101556</v>
       </c>
       <c r="P4" t="n">
-        <v>326.0222762501798</v>
+        <v>326.3471992751599</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -34309,28 +34447,28 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>0.1503973617456638</v>
+        <v>0.139060374996935</v>
       </c>
       <c r="J5" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K5" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L5" t="n">
-        <v>0.002799766861718345</v>
+        <v>0.002413386939131956</v>
       </c>
       <c r="M5" t="n">
-        <v>16.33204944008547</v>
+        <v>16.32448535676117</v>
       </c>
       <c r="N5" t="n">
-        <v>423.791986752739</v>
+        <v>422.6508537836854</v>
       </c>
       <c r="O5" t="n">
-        <v>20.58620865416308</v>
+        <v>20.55847401398473</v>
       </c>
       <c r="P5" t="n">
-        <v>339.9040450400162</v>
+        <v>340.0167761516772</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -34381,28 +34519,28 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>0.8725810622612116</v>
+        <v>1.268364185789822</v>
       </c>
       <c r="J6" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K6" t="n">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01383769304369054</v>
+        <v>0.03437734737565656</v>
       </c>
       <c r="M6" t="n">
-        <v>28.95811576741368</v>
+        <v>26.76779620311125</v>
       </c>
       <c r="N6" t="n">
-        <v>2897.158028255463</v>
+        <v>2399.696636823142</v>
       </c>
       <c r="O6" t="n">
-        <v>53.82525455820402</v>
+        <v>48.98669857035829</v>
       </c>
       <c r="P6" t="n">
-        <v>329.7154873897296</v>
+        <v>325.8412120169583</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -34459,28 +34597,28 @@
         <v>0.0527</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1757103673958755</v>
+        <v>-0.1970252542992101</v>
       </c>
       <c r="J7" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K7" t="n">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L7" t="n">
-        <v>0.002486658408267006</v>
+        <v>0.003145952608696878</v>
       </c>
       <c r="M7" t="n">
-        <v>18.46149355935103</v>
+        <v>18.51798932536293</v>
       </c>
       <c r="N7" t="n">
-        <v>641.3502903039173</v>
+        <v>640.4400197101896</v>
       </c>
       <c r="O7" t="n">
-        <v>25.32489467508043</v>
+        <v>25.30691644017875</v>
       </c>
       <c r="P7" t="n">
-        <v>330.9286142453819</v>
+        <v>331.1455069214265</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -34537,28 +34675,28 @@
         <v>0.0386</v>
       </c>
       <c r="I8" t="n">
-        <v>0.221763189180779</v>
+        <v>0.3342015959575524</v>
       </c>
       <c r="J8" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K8" t="n">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L8" t="n">
-        <v>0.009548091707685669</v>
+        <v>0.02385923562849801</v>
       </c>
       <c r="M8" t="n">
-        <v>12.1773940834732</v>
+        <v>11.69104035807454</v>
       </c>
       <c r="N8" t="n">
-        <v>268.0974523049841</v>
+        <v>238.8902584115144</v>
       </c>
       <c r="O8" t="n">
-        <v>16.37368169670414</v>
+        <v>15.45607512958948</v>
       </c>
       <c r="P8" t="n">
-        <v>329.2960970471808</v>
+        <v>328.1833204006886</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -34615,28 +34753,28 @@
         <v>0.0507</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.09403136084497125</v>
+        <v>0.1146816388787728</v>
       </c>
       <c r="J9" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K9" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0002806733681772755</v>
+        <v>0.0004687864137752351</v>
       </c>
       <c r="M9" t="n">
-        <v>22.03699902999646</v>
+        <v>20.44943483143298</v>
       </c>
       <c r="N9" t="n">
-        <v>1664.387592699121</v>
+        <v>1473.983224129236</v>
       </c>
       <c r="O9" t="n">
-        <v>40.79690665600911</v>
+        <v>38.39248916297608</v>
       </c>
       <c r="P9" t="n">
-        <v>307.0133195365674</v>
+        <v>304.9477998860765</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -34690,7 +34828,7 @@
         <v>0.07170194552273169</v>
       </c>
       <c r="J10" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K10" t="n">
         <v>193</v>
@@ -34759,28 +34897,28 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>-0.1137976327108343</v>
+        <v>0.109949912213161</v>
       </c>
       <c r="J11" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K11" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L11" t="n">
-        <v>0.00141999553735972</v>
+        <v>0.002510809107839185</v>
       </c>
       <c r="M11" t="n">
-        <v>12.98755101475714</v>
+        <v>11.34488618284114</v>
       </c>
       <c r="N11" t="n">
-        <v>499.5003682338432</v>
+        <v>262.2157626468418</v>
       </c>
       <c r="O11" t="n">
-        <v>22.34950487670461</v>
+        <v>16.19307761504408</v>
       </c>
       <c r="P11" t="n">
-        <v>323.5765124518463</v>
+        <v>321.3977871896761</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -34840,7 +34978,7 @@
         <v>0.2480455511486769</v>
       </c>
       <c r="J12" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K12" t="n">
         <v>199</v>
@@ -34918,7 +35056,7 @@
         <v>0.3467229095946051</v>
       </c>
       <c r="J13" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K13" t="n">
         <v>199</v>
@@ -34993,28 +35131,28 @@
         <v>0.0833</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3287952936170424</v>
+        <v>0.3285105650465584</v>
       </c>
       <c r="J14" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K14" t="n">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L14" t="n">
-        <v>0.03580361622476069</v>
+        <v>0.03605799622229</v>
       </c>
       <c r="M14" t="n">
-        <v>8.841403813105513</v>
+        <v>8.80675580750715</v>
       </c>
       <c r="N14" t="n">
-        <v>155.6809405222704</v>
+        <v>155.0459858005638</v>
       </c>
       <c r="O14" t="n">
-        <v>12.47721685802849</v>
+        <v>12.45174629522156</v>
       </c>
       <c r="P14" t="n">
-        <v>306.5172493878434</v>
+        <v>306.5200281492149</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -35065,28 +35203,28 @@
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="n">
-        <v>0.3269379509272391</v>
+        <v>0.3214805418497786</v>
       </c>
       <c r="J15" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K15" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L15" t="n">
-        <v>0.01553572460770936</v>
+        <v>0.01516484488688463</v>
       </c>
       <c r="M15" t="n">
-        <v>13.90322383132648</v>
+        <v>13.87513056634868</v>
       </c>
       <c r="N15" t="n">
-        <v>345.4360106037937</v>
+        <v>344.1552041492365</v>
       </c>
       <c r="O15" t="n">
-        <v>18.58590892595231</v>
+        <v>18.55142054262251</v>
       </c>
       <c r="P15" t="n">
-        <v>300.1822817832513</v>
+        <v>300.2370014879151</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -35143,28 +35281,28 @@
         <v>0.0466</v>
       </c>
       <c r="I16" t="n">
-        <v>0.5375593618748759</v>
+        <v>0.6988097849733633</v>
       </c>
       <c r="J16" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K16" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01544534826189237</v>
+        <v>0.02909618235680933</v>
       </c>
       <c r="M16" t="n">
-        <v>21.98810215103831</v>
+        <v>20.99265038685545</v>
       </c>
       <c r="N16" t="n">
-        <v>1007.071137979581</v>
+        <v>887.0183615660757</v>
       </c>
       <c r="O16" t="n">
-        <v>31.73438415945047</v>
+        <v>29.78285348260095</v>
       </c>
       <c r="P16" t="n">
-        <v>300.9264184084228</v>
+        <v>299.3296358965489</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -35224,7 +35362,7 @@
         <v>0.4464619767015216</v>
       </c>
       <c r="J17" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K17" t="n">
         <v>185</v>
@@ -35302,7 +35440,7 @@
         <v>0.1551341058824468</v>
       </c>
       <c r="J18" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K18" t="n">
         <v>209</v>
@@ -35380,7 +35518,7 @@
         <v>0.5930595474127793</v>
       </c>
       <c r="J19" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K19" t="n">
         <v>230</v>
@@ -35458,7 +35596,7 @@
         <v>0.7353635071267102</v>
       </c>
       <c r="J20" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K20" t="n">
         <v>237</v>
@@ -35533,28 +35671,28 @@
         <v>0.0387</v>
       </c>
       <c r="I21" t="n">
-        <v>0.365899912281936</v>
+        <v>0.3750106341057444</v>
       </c>
       <c r="J21" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K21" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L21" t="n">
-        <v>0.02326798552551146</v>
+        <v>0.02459230116247124</v>
       </c>
       <c r="M21" t="n">
-        <v>13.47216198379291</v>
+        <v>13.45350312785255</v>
       </c>
       <c r="N21" t="n">
-        <v>302.2202053051255</v>
+        <v>301.3652082763676</v>
       </c>
       <c r="O21" t="n">
-        <v>17.38448173818033</v>
+        <v>17.35987350980322</v>
       </c>
       <c r="P21" t="n">
-        <v>300.8357036565773</v>
+        <v>300.7451506566804</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -35611,28 +35749,28 @@
         <v>0.0469</v>
       </c>
       <c r="I22" t="n">
-        <v>0.02501596041749492</v>
+        <v>0.03435881763194806</v>
       </c>
       <c r="J22" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K22" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L22" t="n">
-        <v>6.250343383662482e-05</v>
+        <v>0.0001187935002243679</v>
       </c>
       <c r="M22" t="n">
-        <v>18.42089699927071</v>
+        <v>18.39063640690634</v>
       </c>
       <c r="N22" t="n">
-        <v>522.7354458884724</v>
+        <v>521.0342624576983</v>
       </c>
       <c r="O22" t="n">
-        <v>22.86340844862096</v>
+        <v>22.8261749414504</v>
       </c>
       <c r="P22" t="n">
-        <v>288.7030735698991</v>
+        <v>288.6073961984572</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -35683,28 +35821,28 @@
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="n">
-        <v>-0.032796896050797</v>
+        <v>-0.01184309468900558</v>
       </c>
       <c r="J23" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K23" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L23" t="n">
-        <v>8.849924171749901e-05</v>
+        <v>1.158957115787729e-05</v>
       </c>
       <c r="M23" t="n">
-        <v>19.13712535944465</v>
+        <v>19.15570470919612</v>
       </c>
       <c r="N23" t="n">
-        <v>632.2016295164215</v>
+        <v>632.0201176955695</v>
       </c>
       <c r="O23" t="n">
-        <v>25.14362005591919</v>
+        <v>25.14001029625027</v>
       </c>
       <c r="P23" t="n">
-        <v>298.3632910488059</v>
+        <v>298.1445204200008</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -35761,28 +35899,28 @@
         <v>0.0385</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.04675847902733488</v>
+        <v>-0.02399310128374831</v>
       </c>
       <c r="J24" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K24" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0003498071948376813</v>
+        <v>9.190848754891956e-05</v>
       </c>
       <c r="M24" t="n">
-        <v>14.59731762550562</v>
+        <v>14.64006454284637</v>
       </c>
       <c r="N24" t="n">
-        <v>338.6197602433473</v>
+        <v>340.6950018357171</v>
       </c>
       <c r="O24" t="n">
-        <v>18.40162384800177</v>
+        <v>18.45792517689128</v>
       </c>
       <c r="P24" t="n">
-        <v>311.9226952653738</v>
+        <v>311.6924476133375</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -35839,28 +35977,28 @@
         <v>0.037</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1869224513148344</v>
+        <v>0.2049504327909834</v>
       </c>
       <c r="J25" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K25" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L25" t="n">
-        <v>0.005609382716910138</v>
+        <v>0.006735344398707599</v>
       </c>
       <c r="M25" t="n">
-        <v>14.35876292551275</v>
+        <v>14.39187449393649</v>
       </c>
       <c r="N25" t="n">
-        <v>335.1694673459069</v>
+        <v>336.2917019072455</v>
       </c>
       <c r="O25" t="n">
-        <v>18.30763412748646</v>
+        <v>18.33825787547022</v>
       </c>
       <c r="P25" t="n">
-        <v>319.5933116140009</v>
+        <v>319.4096641839815</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -35917,28 +36055,28 @@
         <v>0.0867</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.1215315289729849</v>
+        <v>-0.1106582983713531</v>
       </c>
       <c r="J26" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K26" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L26" t="n">
-        <v>0.001380655882510795</v>
+        <v>0.001152376360730623</v>
       </c>
       <c r="M26" t="n">
-        <v>19.21553383235744</v>
+        <v>19.18235413523094</v>
       </c>
       <c r="N26" t="n">
-        <v>582.0501808733484</v>
+        <v>580.4199515799079</v>
       </c>
       <c r="O26" t="n">
-        <v>24.12571617327346</v>
+        <v>24.09190635005681</v>
       </c>
       <c r="P26" t="n">
-        <v>324.6883843696438</v>
+        <v>324.5788987734662</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -35995,28 +36133,28 @@
         <v>0.0905</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.06460827694911138</v>
+        <v>-0.03732910716136602</v>
       </c>
       <c r="J27" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K27" t="n">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L27" t="n">
-        <v>0.0008832721611631289</v>
+        <v>0.0002952644335956212</v>
       </c>
       <c r="M27" t="n">
-        <v>12.12437264191367</v>
+        <v>12.1724537324835</v>
       </c>
       <c r="N27" t="n">
-        <v>259.4122819724789</v>
+        <v>260.8650927680725</v>
       </c>
       <c r="O27" t="n">
-        <v>16.1062808237184</v>
+        <v>16.15131860771969</v>
       </c>
       <c r="P27" t="n">
-        <v>325.3486106487138</v>
+        <v>325.0767067989983</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -36073,28 +36211,28 @@
         <v>0.08359999999999999</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.004310192315644891</v>
+        <v>-0.001622203199885607</v>
       </c>
       <c r="J28" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K28" t="n">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="L28" t="n">
-        <v>4.454498731765177e-06</v>
+        <v>6.380440692455025e-07</v>
       </c>
       <c r="M28" t="n">
-        <v>11.58892302810905</v>
+        <v>11.56745612746128</v>
       </c>
       <c r="N28" t="n">
-        <v>230.997684534864</v>
+        <v>229.9371543034813</v>
       </c>
       <c r="O28" t="n">
-        <v>15.19860798016924</v>
+        <v>15.1636787852909</v>
       </c>
       <c r="P28" t="n">
-        <v>331.2231477129842</v>
+        <v>331.1964622799166</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -36145,28 +36283,28 @@
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="n">
-        <v>0.2322710332347644</v>
+        <v>0.6969205659057071</v>
       </c>
       <c r="J29" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K29" t="n">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L29" t="n">
-        <v>0.001297846135333902</v>
+        <v>0.0146898542467071</v>
       </c>
       <c r="M29" t="n">
-        <v>26.0657980361275</v>
+        <v>22.5169122052726</v>
       </c>
       <c r="N29" t="n">
-        <v>2386.115422039276</v>
+        <v>1865.626314532243</v>
       </c>
       <c r="O29" t="n">
-        <v>48.84788042524748</v>
+        <v>43.19289657492587</v>
       </c>
       <c r="P29" t="n">
-        <v>318.1585687588957</v>
+        <v>313.7140454963822</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
@@ -36217,28 +36355,28 @@
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="n">
-        <v>0.3064897550145321</v>
+        <v>0.2392028406498494</v>
       </c>
       <c r="J30" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K30" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L30" t="n">
-        <v>0.0008245712118054582</v>
+        <v>0.0005037030092159833</v>
       </c>
       <c r="M30" t="n">
-        <v>72.89195592636453</v>
+        <v>73.05035539450789</v>
       </c>
       <c r="N30" t="n">
-        <v>6190.200637291222</v>
+        <v>6196.540591238909</v>
       </c>
       <c r="O30" t="n">
-        <v>78.67782811752764</v>
+        <v>78.71810840739829</v>
       </c>
       <c r="P30" t="n">
-        <v>267.2087675220229</v>
+        <v>267.8884363633172</v>
       </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
@@ -36295,28 +36433,28 @@
         <v>0.1366</v>
       </c>
       <c r="I31" t="n">
-        <v>1.086196243193585</v>
+        <v>1.016168409269109</v>
       </c>
       <c r="J31" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K31" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L31" t="n">
-        <v>0.01315248587276174</v>
+        <v>0.01156575150841777</v>
       </c>
       <c r="M31" t="n">
-        <v>65.22586799388411</v>
+        <v>65.35820679173924</v>
       </c>
       <c r="N31" t="n">
-        <v>4687.681758654608</v>
+        <v>4693.130437686561</v>
       </c>
       <c r="O31" t="n">
-        <v>68.46664705281403</v>
+        <v>68.50642625102087</v>
       </c>
       <c r="P31" t="n">
-        <v>249.7481551680874</v>
+        <v>250.4685634408023</v>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
@@ -36373,28 +36511,28 @@
         <v>0.0565</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.2121024531379488</v>
+        <v>-0.257508610136871</v>
       </c>
       <c r="J32" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K32" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L32" t="n">
-        <v>0.0007070711660656093</v>
+        <v>0.001049849198065278</v>
       </c>
       <c r="M32" t="n">
-        <v>52.28939265997943</v>
+        <v>52.29459263286667</v>
       </c>
       <c r="N32" t="n">
-        <v>3358.818149528653</v>
+        <v>3351.513345011048</v>
       </c>
       <c r="O32" t="n">
-        <v>57.95531165931776</v>
+        <v>57.89225634755523</v>
       </c>
       <c r="P32" t="n">
-        <v>291.9194536588273</v>
+        <v>292.3772237950269</v>
       </c>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
@@ -36451,28 +36589,28 @@
         <v>0.068</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.5605999274929327</v>
+        <v>-0.6095169076802394</v>
       </c>
       <c r="J33" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K33" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L33" t="n">
-        <v>0.005620311270056355</v>
+        <v>0.006666076899570994</v>
       </c>
       <c r="M33" t="n">
-        <v>47.95191342485298</v>
+        <v>48.03703491708467</v>
       </c>
       <c r="N33" t="n">
-        <v>2950.739236373355</v>
+        <v>2949.915585906699</v>
       </c>
       <c r="O33" t="n">
-        <v>54.32070725214607</v>
+        <v>54.31312535572501</v>
       </c>
       <c r="P33" t="n">
-        <v>307.2849383933785</v>
+        <v>307.7908343028578</v>
       </c>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
@@ -36529,28 +36667,28 @@
         <v>0.0429</v>
       </c>
       <c r="I34" t="n">
-        <v>-1.383251118499494</v>
+        <v>-1.415727424021141</v>
       </c>
       <c r="J34" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K34" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L34" t="n">
-        <v>0.03525866586387405</v>
+        <v>0.03712078363398619</v>
       </c>
       <c r="M34" t="n">
-        <v>47.21326763358066</v>
+        <v>47.16306242446453</v>
       </c>
       <c r="N34" t="n">
-        <v>2977.440478211468</v>
+        <v>2967.871340389593</v>
       </c>
       <c r="O34" t="n">
-        <v>54.56592781408072</v>
+        <v>54.47817306398585</v>
       </c>
       <c r="P34" t="n">
-        <v>325.9542745957989</v>
+        <v>326.2776553054131</v>
       </c>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
@@ -36588,7 +36726,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI341"/>
+  <dimension ref="A1:AI343"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80738,11 +80876,7 @@
       <c r="M339" t="inlineStr"/>
       <c r="N339" t="inlineStr"/>
       <c r="O339" t="inlineStr"/>
-      <c r="P339" t="inlineStr">
-        <is>
-          <t>-38.27821384573785,174.71697363150753</t>
-        </is>
-      </c>
+      <c r="P339" t="inlineStr"/>
       <c r="Q339" t="inlineStr">
         <is>
           <t>-38.27742389166202,174.7166858482037</t>
@@ -80771,11 +80905,7 @@
           <t>-38.26982377249829,174.7144143604411</t>
         </is>
       </c>
-      <c r="AC339" t="inlineStr">
-        <is>
-          <t>-38.2689294410417,174.7163983285459</t>
-        </is>
-      </c>
+      <c r="AC339" t="inlineStr"/>
       <c r="AD339" t="inlineStr">
         <is>
           <t>-38.2682487362281,174.716081317329</t>
@@ -80818,11 +80948,7 @@
           <t>-38.28815082438809,174.71503708023977</t>
         </is>
       </c>
-      <c r="C340" t="inlineStr">
-        <is>
-          <t>-38.287476799025036,174.71627783960807</t>
-        </is>
-      </c>
+      <c r="C340" t="inlineStr"/>
       <c r="D340" t="inlineStr">
         <is>
           <t>-38.28677011635067,174.71622774694907</t>
@@ -80833,36 +80959,20 @@
           <t>-38.28604201183021,174.71533103734717</t>
         </is>
       </c>
-      <c r="F340" t="inlineStr">
-        <is>
-          <t>-38.28538937080967,174.71741839349417</t>
-        </is>
-      </c>
+      <c r="F340" t="inlineStr"/>
       <c r="G340" t="inlineStr">
         <is>
           <t>-38.28464353287485,174.71582073721635</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>-38.28393454863641,174.71568076887775</t>
-        </is>
-      </c>
-      <c r="I340" t="inlineStr">
-        <is>
-          <t>-38.283270696299205,174.71732558529484</t>
-        </is>
-      </c>
+      <c r="H340" t="inlineStr"/>
+      <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr">
         <is>
           <t>-38.282555461873805,174.71693888473203</t>
         </is>
       </c>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>-38.28185523451441,174.71714595528618</t>
-        </is>
-      </c>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="inlineStr"/>
       <c r="M340" t="inlineStr"/>
       <c r="N340" t="inlineStr">
@@ -80871,11 +80981,7 @@
         </is>
       </c>
       <c r="O340" t="inlineStr"/>
-      <c r="P340" t="inlineStr">
-        <is>
-          <t>-38.27821162254729,174.71703785531238</t>
-        </is>
-      </c>
+      <c r="P340" t="inlineStr"/>
       <c r="Q340" t="inlineStr">
         <is>
           <t>-38.277412667498965,174.7168067409696</t>
@@ -80924,11 +81030,7 @@
           <t>-38.269823849267894,174.71441353349132</t>
         </is>
       </c>
-      <c r="AC340" t="inlineStr">
-        <is>
-          <t>-38.26892059811153,174.71649356392285</t>
-        </is>
-      </c>
+      <c r="AC340" t="inlineStr"/>
       <c r="AD340" t="inlineStr">
         <is>
           <t>-38.26824812786156,174.71608786938327</t>
@@ -80971,11 +81073,7 @@
           <t>-38.288150788850594,174.71503567555047</t>
         </is>
       </c>
-      <c r="C341" t="inlineStr">
-        <is>
-          <t>-38.2874762399179,174.71625573107806</t>
-        </is>
-      </c>
+      <c r="C341" t="inlineStr"/>
       <c r="D341" t="inlineStr">
         <is>
           <t>-38.286768626309254,174.71616882952716</t>
@@ -80986,36 +81084,20 @@
           <t>-38.28604171633928,174.71531935710215</t>
         </is>
       </c>
-      <c r="F341" t="inlineStr">
-        <is>
-          <t>-38.2853892321653,174.71741290936484</t>
-        </is>
-      </c>
+      <c r="F341" t="inlineStr"/>
       <c r="G341" t="inlineStr">
         <is>
           <t>-38.28464135666175,174.715734705824</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>-38.28393637892765,174.71575312202822</t>
-        </is>
-      </c>
-      <c r="I341" t="inlineStr">
-        <is>
-          <t>-38.28327036218202,174.7173123704514</t>
-        </is>
-      </c>
+      <c r="H341" t="inlineStr"/>
+      <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr">
         <is>
           <t>-38.28255421586753,174.7168896110973</t>
         </is>
       </c>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>-38.28186352776912,174.7174739509785</t>
-        </is>
-      </c>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="inlineStr"/>
       <c r="M341" t="inlineStr"/>
       <c r="N341" t="inlineStr">
@@ -81089,11 +81171,7 @@
           <t>-38.26982095008239,174.71444476300508</t>
         </is>
       </c>
-      <c r="AC341" t="inlineStr">
-        <is>
-          <t>-38.26892122898165,174.71648676969255</t>
-        </is>
-      </c>
+      <c r="AC341" t="inlineStr"/>
       <c r="AD341" t="inlineStr">
         <is>
           <t>-38.26825475568407,174.71601648809894</t>
@@ -81122,6 +81200,212 @@
       <c r="AI341" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-09 22:05:45+00:00</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr"/>
+      <c r="C342" t="inlineStr"/>
+      <c r="D342" t="inlineStr"/>
+      <c r="E342" t="inlineStr"/>
+      <c r="F342" t="inlineStr"/>
+      <c r="G342" t="inlineStr"/>
+      <c r="H342" t="inlineStr"/>
+      <c r="I342" t="inlineStr"/>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
+      <c r="L342" t="inlineStr"/>
+      <c r="M342" t="inlineStr"/>
+      <c r="N342" t="inlineStr"/>
+      <c r="O342" t="inlineStr"/>
+      <c r="P342" t="inlineStr"/>
+      <c r="Q342" t="inlineStr"/>
+      <c r="R342" t="inlineStr"/>
+      <c r="S342" t="inlineStr"/>
+      <c r="T342" t="inlineStr"/>
+      <c r="U342" t="inlineStr"/>
+      <c r="V342" t="inlineStr"/>
+      <c r="W342" t="inlineStr"/>
+      <c r="X342" t="inlineStr"/>
+      <c r="Y342" t="inlineStr"/>
+      <c r="Z342" t="inlineStr"/>
+      <c r="AA342" t="inlineStr">
+        <is>
+          <t>-38.27055627777697,174.7141732715485</t>
+        </is>
+      </c>
+      <c r="AB342" t="inlineStr">
+        <is>
+          <t>-38.26982659340108,174.7143839740892</t>
+        </is>
+      </c>
+      <c r="AC342" t="inlineStr">
+        <is>
+          <t>-38.269106589581625,174.7144903187159</t>
+        </is>
+      </c>
+      <c r="AD342" t="inlineStr"/>
+      <c r="AE342" t="inlineStr"/>
+      <c r="AF342" t="inlineStr"/>
+      <c r="AG342" t="inlineStr"/>
+      <c r="AH342" t="inlineStr"/>
+      <c r="AI342" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:06:18+00:00</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>-38.28814962171511,174.71498954259692</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>-38.28745288660279,174.7153324287546</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>-38.286757354201384,174.71572315945178</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>-38.28603374631586,174.71500433326722</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>-38.28534050876885,174.71548626687175</t>
+        </is>
+      </c>
+      <c r="G343" t="inlineStr">
+        <is>
+          <t>-38.28463241994178,174.715381440162</t>
+        </is>
+      </c>
+      <c r="H343" t="inlineStr">
+        <is>
+          <t>-38.28391787536133,174.715021739978</t>
+        </is>
+      </c>
+      <c r="I343" t="inlineStr">
+        <is>
+          <t>-38.28325874418235,174.71685289762067</t>
+        </is>
+      </c>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>-38.28183847486639,174.71648322738093</t>
+        </is>
+      </c>
+      <c r="L343" t="inlineStr"/>
+      <c r="M343" t="inlineStr"/>
+      <c r="N343" t="inlineStr">
+        <is>
+          <t>-38.27969841628318,174.71554929440524</t>
+        </is>
+      </c>
+      <c r="O343" t="inlineStr">
+        <is>
+          <t>-38.27899683538215,174.71572907903544</t>
+        </is>
+      </c>
+      <c r="P343" t="inlineStr">
+        <is>
+          <t>-38.278229540905436,174.71652019857171</t>
+        </is>
+      </c>
+      <c r="Q343" t="inlineStr"/>
+      <c r="R343" t="inlineStr"/>
+      <c r="S343" t="inlineStr"/>
+      <c r="T343" t="inlineStr"/>
+      <c r="U343" t="inlineStr">
+        <is>
+          <t>-38.274732429679105,174.7150829852776</t>
+        </is>
+      </c>
+      <c r="V343" t="inlineStr">
+        <is>
+          <t>-38.27400984882299,174.7152176017541</t>
+        </is>
+      </c>
+      <c r="W343" t="inlineStr">
+        <is>
+          <t>-38.273331106608296,174.7148799222514</t>
+        </is>
+      </c>
+      <c r="X343" t="inlineStr">
+        <is>
+          <t>-38.27264834063775,174.71458550968944</t>
+        </is>
+      </c>
+      <c r="Y343" t="inlineStr">
+        <is>
+          <t>-38.27195728678169,174.71438030051254</t>
+        </is>
+      </c>
+      <c r="Z343" t="inlineStr">
+        <is>
+          <t>-38.2712413648766,174.71444290072031</t>
+        </is>
+      </c>
+      <c r="AA343" t="inlineStr">
+        <is>
+          <t>-38.27054197929114,174.71432729657315</t>
+        </is>
+      </c>
+      <c r="AB343" t="inlineStr">
+        <is>
+          <t>-38.26984546193874,174.71418072272903</t>
+        </is>
+      </c>
+      <c r="AC343" t="inlineStr">
+        <is>
+          <t>-38.26911688181526,174.71437945385654</t>
+        </is>
+      </c>
+      <c r="AD343" t="inlineStr">
+        <is>
+          <t>-38.26827891362648,174.7157563043289</t>
+        </is>
+      </c>
+      <c r="AE343" t="inlineStr">
+        <is>
+          <t>-38.26759246019312,174.71550112524406</t>
+        </is>
+      </c>
+      <c r="AF343" t="inlineStr">
+        <is>
+          <t>-38.26693437566132,174.714940318957</t>
+        </is>
+      </c>
+      <c r="AG343" t="inlineStr">
+        <is>
+          <t>-38.26623073629389,174.7148700940826</t>
+        </is>
+      </c>
+      <c r="AH343" t="inlineStr">
+        <is>
+          <t>-38.265545957551836,174.7145966511466</t>
+        </is>
+      </c>
+      <c r="AI343" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>

--- a/data/nzd0252/nzd0252.xlsx
+++ b/data/nzd0252/nzd0252.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI343"/>
+  <dimension ref="A1:AI345"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30253,9 +30253,7 @@
       </c>
       <c r="H340" t="inlineStr"/>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>179.0142857142857</v>
-      </c>
+      <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr"/>
       <c r="L340" t="inlineStr"/>
       <c r="M340" t="inlineStr"/>
@@ -30338,9 +30336,7 @@
       </c>
       <c r="H341" t="inlineStr"/>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>183.3271428571429</v>
-      </c>
+      <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr"/>
       <c r="L341" t="inlineStr"/>
       <c r="M341" t="inlineStr"/>
@@ -30487,13 +30483,9 @@
       <c r="H343" t="n">
         <v>339.8485714285715</v>
       </c>
-      <c r="I343" t="n">
-        <v>183.0566666666666</v>
-      </c>
+      <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="n">
-        <v>222.381724137931</v>
-      </c>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="inlineStr"/>
       <c r="M343" t="inlineStr"/>
       <c r="N343" t="n">
@@ -30502,10 +30494,10 @@
       <c r="O343" t="n">
         <v>302.3357142857143</v>
       </c>
-      <c r="P343" t="n">
-        <v>236.3585714285715</v>
-      </c>
-      <c r="Q343" t="inlineStr"/>
+      <c r="P343" t="inlineStr"/>
+      <c r="Q343" t="n">
+        <v>254.27</v>
+      </c>
       <c r="R343" t="inlineStr"/>
       <c r="S343" t="inlineStr"/>
       <c r="T343" t="inlineStr"/>
@@ -30552,6 +30544,208 @@
         <v>255.5685714285714</v>
       </c>
       <c r="AI343" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:06:28+00:00</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>317.6858823529412</v>
+      </c>
+      <c r="C344" t="n">
+        <v>317.59</v>
+      </c>
+      <c r="D344" t="n">
+        <v>260.8655555555555</v>
+      </c>
+      <c r="E344" t="n">
+        <v>330.1392307692308</v>
+      </c>
+      <c r="F344" t="n">
+        <v>320.04</v>
+      </c>
+      <c r="G344" t="n">
+        <v>304.95</v>
+      </c>
+      <c r="H344" t="n">
+        <v>337.3014285714286</v>
+      </c>
+      <c r="I344" t="n">
+        <v>323.5755555555555</v>
+      </c>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="n">
+        <v>285.9493103448276</v>
+      </c>
+      <c r="L344" t="inlineStr"/>
+      <c r="M344" t="n">
+        <v>251.5881818181819</v>
+      </c>
+      <c r="N344" t="inlineStr"/>
+      <c r="O344" t="n">
+        <v>308.667619047619</v>
+      </c>
+      <c r="P344" t="inlineStr"/>
+      <c r="Q344" t="n">
+        <v>259.24</v>
+      </c>
+      <c r="R344" t="inlineStr"/>
+      <c r="S344" t="inlineStr"/>
+      <c r="T344" t="inlineStr"/>
+      <c r="U344" t="n">
+        <v>310.9714285714285</v>
+      </c>
+      <c r="V344" t="n">
+        <v>271.08</v>
+      </c>
+      <c r="W344" t="inlineStr"/>
+      <c r="X344" t="n">
+        <v>328.3314285714285</v>
+      </c>
+      <c r="Y344" t="n">
+        <v>353.1814285714286</v>
+      </c>
+      <c r="Z344" t="n">
+        <v>339.9257142857143</v>
+      </c>
+      <c r="AA344" t="n">
+        <v>323.72</v>
+      </c>
+      <c r="AB344" t="n">
+        <v>344.6057142857143</v>
+      </c>
+      <c r="AC344" t="n">
+        <v>330.6839534883721</v>
+      </c>
+      <c r="AD344" t="n">
+        <v>185.8936363636364</v>
+      </c>
+      <c r="AE344" t="n">
+        <v>204.4333333333333</v>
+      </c>
+      <c r="AF344" t="n">
+        <v>243.87</v>
+      </c>
+      <c r="AG344" t="n">
+        <v>239.1255555555556</v>
+      </c>
+      <c r="AH344" t="n">
+        <v>257.7514285714286</v>
+      </c>
+      <c r="AI344" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-26 22:06:33+00:00</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>314.2064705882353</v>
+      </c>
+      <c r="C345" t="n">
+        <v>314.16</v>
+      </c>
+      <c r="D345" t="inlineStr"/>
+      <c r="E345" t="n">
+        <v>344.18</v>
+      </c>
+      <c r="F345" t="n">
+        <v>348.58</v>
+      </c>
+      <c r="G345" t="n">
+        <v>333.65</v>
+      </c>
+      <c r="H345" t="n">
+        <v>338.9257142857143</v>
+      </c>
+      <c r="I345" t="n">
+        <v>335.8533333333333</v>
+      </c>
+      <c r="J345" t="n">
+        <v>333.0642857142857</v>
+      </c>
+      <c r="K345" t="n">
+        <v>324.1679310344827</v>
+      </c>
+      <c r="L345" t="n">
+        <v>311.14</v>
+      </c>
+      <c r="M345" t="n">
+        <v>267.3718181818182</v>
+      </c>
+      <c r="N345" t="n">
+        <v>320.8928571428572</v>
+      </c>
+      <c r="O345" t="n">
+        <v>308.4271428571428</v>
+      </c>
+      <c r="P345" t="n">
+        <v>291.7557142857143</v>
+      </c>
+      <c r="Q345" t="inlineStr"/>
+      <c r="R345" t="n">
+        <v>306.01</v>
+      </c>
+      <c r="S345" t="n">
+        <v>322.5</v>
+      </c>
+      <c r="T345" t="n">
+        <v>323.59</v>
+      </c>
+      <c r="U345" t="n">
+        <v>298.0657142857143</v>
+      </c>
+      <c r="V345" t="n">
+        <v>276.04</v>
+      </c>
+      <c r="W345" t="n">
+        <v>300.58</v>
+      </c>
+      <c r="X345" t="n">
+        <v>324.7457142857143</v>
+      </c>
+      <c r="Y345" t="n">
+        <v>334.1957142857143</v>
+      </c>
+      <c r="Z345" t="n">
+        <v>335.5328571428572</v>
+      </c>
+      <c r="AA345" t="n">
+        <v>324.05</v>
+      </c>
+      <c r="AB345" t="n">
+        <v>335.2228571428572</v>
+      </c>
+      <c r="AC345" t="n">
+        <v>328.1337209302326</v>
+      </c>
+      <c r="AD345" t="n">
+        <v>181.0463636363636</v>
+      </c>
+      <c r="AE345" t="n">
+        <v>205.94</v>
+      </c>
+      <c r="AF345" t="n">
+        <v>237.63</v>
+      </c>
+      <c r="AG345" t="n">
+        <v>236.3233333333333</v>
+      </c>
+      <c r="AH345" t="n">
+        <v>237.3057142857143</v>
+      </c>
+      <c r="AI345" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -30568,7 +30762,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B347"/>
+  <dimension ref="A1:B349"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34046,6 +34240,26 @@
       </c>
       <c r="B347" t="n">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B348" t="n">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>2025-08-26 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B349" t="n">
+        <v>0.78</v>
       </c>
     </row>
   </sheetData>
@@ -34219,28 +34433,28 @@
         <v>0.0953</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1689248616147369</v>
+        <v>-0.1619875499092439</v>
       </c>
       <c r="J2" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K2" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01801912470007194</v>
+        <v>0.01682002680152694</v>
       </c>
       <c r="M2" t="n">
-        <v>7.006077321199953</v>
+        <v>6.985025844777152</v>
       </c>
       <c r="N2" t="n">
-        <v>82.75331668220046</v>
+        <v>82.30484767428011</v>
       </c>
       <c r="O2" t="n">
-        <v>9.096884998844411</v>
+        <v>9.072201919836226</v>
       </c>
       <c r="P2" t="n">
-        <v>315.6427890012511</v>
+        <v>315.5732793727168</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -34297,28 +34511,28 @@
         <v>0.0954</v>
       </c>
       <c r="I3" t="n">
-        <v>0.104870628110798</v>
+        <v>0.1138185144036394</v>
       </c>
       <c r="J3" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K3" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001678261888176436</v>
+        <v>0.002009330961795897</v>
       </c>
       <c r="M3" t="n">
-        <v>11.19170898855075</v>
+        <v>11.13523980083844</v>
       </c>
       <c r="N3" t="n">
-        <v>348.0112480400512</v>
+        <v>345.3808996968452</v>
       </c>
       <c r="O3" t="n">
-        <v>18.65505958285985</v>
+        <v>18.58442626762648</v>
       </c>
       <c r="P3" t="n">
-        <v>307.6909316857317</v>
+        <v>307.6011472627236</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -34375,28 +34589,28 @@
         <v>0.0548</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.9930356553672355</v>
+        <v>-1.02804441251315</v>
       </c>
       <c r="J4" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K4" t="n">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03566906194511765</v>
+        <v>0.03827713030415303</v>
       </c>
       <c r="M4" t="n">
-        <v>27.98536085512247</v>
+        <v>28.13518284322979</v>
       </c>
       <c r="N4" t="n">
-        <v>1463.624978303874</v>
+        <v>1464.175043234461</v>
       </c>
       <c r="O4" t="n">
-        <v>38.25735195101556</v>
+        <v>38.26454028515776</v>
       </c>
       <c r="P4" t="n">
-        <v>326.3471992751599</v>
+        <v>326.6968370263636</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -34447,28 +34661,28 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>0.139060374996935</v>
+        <v>0.1279772795933438</v>
       </c>
       <c r="J5" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K5" t="n">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L5" t="n">
-        <v>0.002413386939131956</v>
+        <v>0.002079633480156495</v>
       </c>
       <c r="M5" t="n">
-        <v>16.32448535676117</v>
+        <v>16.25134881054363</v>
       </c>
       <c r="N5" t="n">
-        <v>422.6508537836854</v>
+        <v>419.7655069916487</v>
       </c>
       <c r="O5" t="n">
-        <v>20.55847401398473</v>
+        <v>20.48817968955878</v>
       </c>
       <c r="P5" t="n">
-        <v>340.0167761516772</v>
+        <v>340.1271925021836</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -34519,28 +34733,28 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>1.268364185789822</v>
+        <v>1.221084271945154</v>
       </c>
       <c r="J6" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K6" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03437734737565656</v>
+        <v>0.03251982196243786</v>
       </c>
       <c r="M6" t="n">
-        <v>26.76779620311125</v>
+        <v>26.74857866724063</v>
       </c>
       <c r="N6" t="n">
-        <v>2399.696636823142</v>
+        <v>2383.659550188345</v>
       </c>
       <c r="O6" t="n">
-        <v>48.98669857035829</v>
+        <v>48.82273599654514</v>
       </c>
       <c r="P6" t="n">
-        <v>325.8412120169583</v>
+        <v>326.3081551572453</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -34597,28 +34811,28 @@
         <v>0.0527</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1970252542992101</v>
+        <v>-0.2100823950232227</v>
       </c>
       <c r="J7" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K7" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L7" t="n">
-        <v>0.003145952608696878</v>
+        <v>0.003634641416797812</v>
       </c>
       <c r="M7" t="n">
-        <v>18.51798932536293</v>
+        <v>18.5021271872085</v>
       </c>
       <c r="N7" t="n">
-        <v>640.4400197101896</v>
+        <v>636.6201427203578</v>
       </c>
       <c r="O7" t="n">
-        <v>25.30691644017875</v>
+        <v>25.23133255934687</v>
       </c>
       <c r="P7" t="n">
-        <v>331.1455069214265</v>
+        <v>331.2784846487881</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -34675,28 +34889,28 @@
         <v>0.0386</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3342015959575524</v>
+        <v>0.3367862209487643</v>
       </c>
       <c r="J8" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K8" t="n">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02385923562849801</v>
+        <v>0.02471580463928946</v>
       </c>
       <c r="M8" t="n">
-        <v>11.69104035807454</v>
+        <v>11.5943297147357</v>
       </c>
       <c r="N8" t="n">
-        <v>238.8902584115144</v>
+        <v>236.6804284065</v>
       </c>
       <c r="O8" t="n">
-        <v>15.45607512958948</v>
+        <v>15.38442161429867</v>
       </c>
       <c r="P8" t="n">
-        <v>328.1833204006886</v>
+        <v>328.1575150263993</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -34753,28 +34967,28 @@
         <v>0.0507</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1146816388787728</v>
+        <v>0.2883574126994564</v>
       </c>
       <c r="J9" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K9" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0004687864137752351</v>
+        <v>0.003155085166736793</v>
       </c>
       <c r="M9" t="n">
-        <v>20.44943483143298</v>
+        <v>19.4032121360513</v>
       </c>
       <c r="N9" t="n">
-        <v>1473.983224129236</v>
+        <v>1389.45037746832</v>
       </c>
       <c r="O9" t="n">
-        <v>38.39248916297608</v>
+        <v>37.27533202358257</v>
       </c>
       <c r="P9" t="n">
-        <v>304.9477998860765</v>
+        <v>303.2119493790415</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -34825,28 +35039,28 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>0.07170194552273169</v>
+        <v>0.3628010058649552</v>
       </c>
       <c r="J10" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K10" t="n">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0005673879800122128</v>
+        <v>0.02478050312164914</v>
       </c>
       <c r="M10" t="n">
-        <v>12.26494384640927</v>
+        <v>10.67302759334081</v>
       </c>
       <c r="N10" t="n">
-        <v>493.2908451711687</v>
+        <v>280.8868120243972</v>
       </c>
       <c r="O10" t="n">
-        <v>22.21015184934963</v>
+        <v>16.75967815992888</v>
       </c>
       <c r="P10" t="n">
-        <v>320.8420968634425</v>
+        <v>317.9632205342156</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -34897,28 +35111,28 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>0.109949912213161</v>
+        <v>0.1683311700870322</v>
       </c>
       <c r="J11" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K11" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L11" t="n">
-        <v>0.002510809107839185</v>
+        <v>0.007081217962160657</v>
       </c>
       <c r="M11" t="n">
-        <v>11.34488618284114</v>
+        <v>10.89172029776972</v>
       </c>
       <c r="N11" t="n">
-        <v>262.2157626468418</v>
+        <v>218.0749317358733</v>
       </c>
       <c r="O11" t="n">
-        <v>16.19307761504408</v>
+        <v>14.767360350986</v>
       </c>
       <c r="P11" t="n">
-        <v>321.3977871896761</v>
+        <v>320.8253013608795</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -34975,28 +35189,28 @@
         <v>0.0576</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2480455511486769</v>
+        <v>0.2490715192579132</v>
       </c>
       <c r="J12" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K12" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L12" t="n">
-        <v>0.02164714889085195</v>
+        <v>0.02204633083011798</v>
       </c>
       <c r="M12" t="n">
-        <v>9.433924004978168</v>
+        <v>9.391870765544256</v>
       </c>
       <c r="N12" t="n">
-        <v>149.9946133775372</v>
+        <v>149.2500688456081</v>
       </c>
       <c r="O12" t="n">
-        <v>12.24722880400041</v>
+        <v>12.21679454053346</v>
       </c>
       <c r="P12" t="n">
-        <v>303.7225829308318</v>
+        <v>303.7123699747297</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -35053,28 +35267,28 @@
         <v>0.0663</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3467229095946051</v>
+        <v>0.2738710121918967</v>
       </c>
       <c r="J13" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K13" t="n">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L13" t="n">
-        <v>0.009578929508549661</v>
+        <v>0.006015519876487407</v>
       </c>
       <c r="M13" t="n">
-        <v>19.40958509959435</v>
+        <v>19.69629017302144</v>
       </c>
       <c r="N13" t="n">
-        <v>665.9139454544031</v>
+        <v>672.4585134210566</v>
       </c>
       <c r="O13" t="n">
-        <v>25.80530847431208</v>
+        <v>25.93180505520309</v>
       </c>
       <c r="P13" t="n">
-        <v>286.6897096400512</v>
+        <v>287.3970152021525</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -35131,28 +35345,28 @@
         <v>0.0833</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3285105650465584</v>
+        <v>0.3333967634701756</v>
       </c>
       <c r="J14" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K14" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L14" t="n">
-        <v>0.03605799622229</v>
+        <v>0.0373908371966063</v>
       </c>
       <c r="M14" t="n">
-        <v>8.80675580750715</v>
+        <v>8.794211516293425</v>
       </c>
       <c r="N14" t="n">
-        <v>155.0459858005638</v>
+        <v>154.5572710843741</v>
       </c>
       <c r="O14" t="n">
-        <v>12.45174629522156</v>
+        <v>12.43210646207529</v>
       </c>
       <c r="P14" t="n">
-        <v>306.5200281492149</v>
+        <v>306.4721495409544</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -35203,28 +35417,28 @@
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="n">
-        <v>0.3214805418497786</v>
+        <v>0.3215919217188329</v>
       </c>
       <c r="J15" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K15" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L15" t="n">
-        <v>0.01516484488688463</v>
+        <v>0.01546023332928326</v>
       </c>
       <c r="M15" t="n">
-        <v>13.87513056634868</v>
+        <v>13.76143191855905</v>
       </c>
       <c r="N15" t="n">
-        <v>344.1552041492365</v>
+        <v>341.3111141201223</v>
       </c>
       <c r="O15" t="n">
-        <v>18.55142054262251</v>
+        <v>18.47460727918519</v>
       </c>
       <c r="P15" t="n">
-        <v>300.2370014879151</v>
+        <v>300.2358836631664</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -35281,28 +35495,28 @@
         <v>0.0466</v>
       </c>
       <c r="I16" t="n">
-        <v>0.6988097849733633</v>
+        <v>0.7543931582116351</v>
       </c>
       <c r="J16" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K16" t="n">
         <v>187</v>
       </c>
       <c r="L16" t="n">
-        <v>0.02909618235680933</v>
+        <v>0.03496062509161657</v>
       </c>
       <c r="M16" t="n">
-        <v>20.99265038685545</v>
+        <v>20.6307398674362</v>
       </c>
       <c r="N16" t="n">
-        <v>887.0183615660757</v>
+        <v>855.2889455862585</v>
       </c>
       <c r="O16" t="n">
-        <v>29.78285348260095</v>
+        <v>29.24532348233232</v>
       </c>
       <c r="P16" t="n">
-        <v>299.3296358965489</v>
+        <v>298.7742631184755</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -35359,28 +35573,28 @@
         <v>0.033</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4464619767015216</v>
+        <v>0.3505224224254342</v>
       </c>
       <c r="J17" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K17" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L17" t="n">
-        <v>0.00849527489002766</v>
+        <v>0.005246672734686597</v>
       </c>
       <c r="M17" t="n">
-        <v>28.80801527573308</v>
+        <v>29.12385220269661</v>
       </c>
       <c r="N17" t="n">
-        <v>1284.17355509927</v>
+        <v>1296.863356248229</v>
       </c>
       <c r="O17" t="n">
-        <v>35.8353673777634</v>
+        <v>36.0119890626473</v>
       </c>
       <c r="P17" t="n">
-        <v>295.7182229017818</v>
+        <v>296.6848895049574</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -35437,28 +35651,28 @@
         <v>0.1387</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1551341058824468</v>
+        <v>0.1784796114536404</v>
       </c>
       <c r="J18" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K18" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0006956735049395979</v>
+        <v>0.000929001670065488</v>
       </c>
       <c r="M18" t="n">
-        <v>38.34707352699089</v>
+        <v>38.25611805258023</v>
       </c>
       <c r="N18" t="n">
-        <v>1864.924117662317</v>
+        <v>1858.82120484799</v>
       </c>
       <c r="O18" t="n">
-        <v>43.18476719472176</v>
+        <v>43.11404881066019</v>
       </c>
       <c r="P18" t="n">
-        <v>277.6895894017548</v>
+        <v>277.4613680776247</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -35515,28 +35729,28 @@
         <v>0.068</v>
       </c>
       <c r="I19" t="n">
-        <v>0.5930595474127793</v>
+        <v>0.608532236078644</v>
       </c>
       <c r="J19" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K19" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L19" t="n">
-        <v>0.02313881045798116</v>
+        <v>0.02450786474594002</v>
       </c>
       <c r="M19" t="n">
-        <v>21.29451610444839</v>
+        <v>21.25347443644075</v>
       </c>
       <c r="N19" t="n">
-        <v>804.3465954055331</v>
+        <v>802.2830391609421</v>
       </c>
       <c r="O19" t="n">
-        <v>28.36100483772627</v>
+        <v>28.3246013063016</v>
       </c>
       <c r="P19" t="n">
-        <v>289.0521421650553</v>
+        <v>288.8990229163707</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -35593,28 +35807,28 @@
         <v>0.0447</v>
       </c>
       <c r="I20" t="n">
-        <v>0.7353635071267102</v>
+        <v>0.7468953707047058</v>
       </c>
       <c r="J20" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K20" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0668363997185083</v>
+        <v>0.06922446731634246</v>
       </c>
       <c r="M20" t="n">
-        <v>15.95691916843026</v>
+        <v>15.94512500363386</v>
       </c>
       <c r="N20" t="n">
-        <v>410.3043804407671</v>
+        <v>409.4205627935809</v>
       </c>
       <c r="O20" t="n">
-        <v>20.2559714761047</v>
+        <v>20.2341434904861</v>
       </c>
       <c r="P20" t="n">
-        <v>290.4816967980796</v>
+        <v>290.3668612363048</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -35671,28 +35885,28 @@
         <v>0.0387</v>
       </c>
       <c r="I21" t="n">
-        <v>0.3750106341057444</v>
+        <v>0.3651009811443319</v>
       </c>
       <c r="J21" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K21" t="n">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L21" t="n">
-        <v>0.02459230116247124</v>
+        <v>0.02370297463909854</v>
       </c>
       <c r="M21" t="n">
-        <v>13.45350312785255</v>
+        <v>13.39797870183844</v>
       </c>
       <c r="N21" t="n">
-        <v>301.3652082763676</v>
+        <v>299.3707995050287</v>
       </c>
       <c r="O21" t="n">
-        <v>17.35987350980322</v>
+        <v>17.30233508821941</v>
       </c>
       <c r="P21" t="n">
-        <v>300.7451506566804</v>
+        <v>300.8440808415331</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -35749,28 +35963,28 @@
         <v>0.0469</v>
       </c>
       <c r="I22" t="n">
-        <v>0.03435881763194806</v>
+        <v>0.008378227579089566</v>
       </c>
       <c r="J22" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K22" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0001187935002243679</v>
+        <v>7.154908085782452e-06</v>
       </c>
       <c r="M22" t="n">
-        <v>18.39063640690634</v>
+        <v>18.36833155360091</v>
       </c>
       <c r="N22" t="n">
-        <v>521.0342624576983</v>
+        <v>518.7670763405821</v>
       </c>
       <c r="O22" t="n">
-        <v>22.8261749414504</v>
+        <v>22.77645881915321</v>
       </c>
       <c r="P22" t="n">
-        <v>288.6073961984572</v>
+        <v>288.874264922712</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -35821,28 +36035,28 @@
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="n">
-        <v>-0.01184309468900558</v>
+        <v>-0.009509404259888828</v>
       </c>
       <c r="J23" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K23" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L23" t="n">
-        <v>1.158957115787729e-05</v>
+        <v>7.535398312885633e-06</v>
       </c>
       <c r="M23" t="n">
-        <v>19.15570470919612</v>
+        <v>19.08071281307897</v>
       </c>
       <c r="N23" t="n">
-        <v>632.0201176955695</v>
+        <v>629.1938174227721</v>
       </c>
       <c r="O23" t="n">
-        <v>25.14001029625027</v>
+        <v>25.08373611372062</v>
       </c>
       <c r="P23" t="n">
-        <v>298.1445204200008</v>
+        <v>298.1200456819637</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -35899,28 +36113,28 @@
         <v>0.0385</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.02399310128374831</v>
+        <v>-8.709183875595737e-05</v>
       </c>
       <c r="J24" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K24" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L24" t="n">
-        <v>9.190848754891956e-05</v>
+        <v>1.223138701433868e-09</v>
       </c>
       <c r="M24" t="n">
-        <v>14.64006454284637</v>
+        <v>14.62688659950613</v>
       </c>
       <c r="N24" t="n">
-        <v>340.6950018357171</v>
+        <v>339.8160745468345</v>
       </c>
       <c r="O24" t="n">
-        <v>18.45792517689128</v>
+        <v>18.43410086081864</v>
       </c>
       <c r="P24" t="n">
-        <v>311.6924476133375</v>
+        <v>311.4498582111491</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -35977,28 +36191,28 @@
         <v>0.037</v>
       </c>
       <c r="I25" t="n">
-        <v>0.2049504327909834</v>
+        <v>0.2318863762411062</v>
       </c>
       <c r="J25" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K25" t="n">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L25" t="n">
-        <v>0.006735344398707599</v>
+        <v>0.00863936878576621</v>
       </c>
       <c r="M25" t="n">
-        <v>14.39187449393649</v>
+        <v>14.4144462674743</v>
       </c>
       <c r="N25" t="n">
-        <v>336.2917019072455</v>
+        <v>337.1343155370895</v>
       </c>
       <c r="O25" t="n">
-        <v>18.33825787547022</v>
+        <v>18.36121770300351</v>
       </c>
       <c r="P25" t="n">
-        <v>319.4096641839815</v>
+        <v>319.1344683457352</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -36055,28 +36269,28 @@
         <v>0.0867</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.1106582983713531</v>
+        <v>-0.08628713134267441</v>
       </c>
       <c r="J26" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K26" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L26" t="n">
-        <v>0.001152376360730623</v>
+        <v>0.0007094095253766808</v>
       </c>
       <c r="M26" t="n">
-        <v>19.18235413523094</v>
+        <v>19.1296369883331</v>
       </c>
       <c r="N26" t="n">
-        <v>580.4199515799079</v>
+        <v>577.7030501394405</v>
       </c>
       <c r="O26" t="n">
-        <v>24.09190635005681</v>
+        <v>24.03545402399215</v>
       </c>
       <c r="P26" t="n">
-        <v>324.5788987734662</v>
+        <v>324.3326850834265</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -36133,28 +36347,28 @@
         <v>0.0905</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.03732910716136602</v>
+        <v>-0.03763599654494539</v>
       </c>
       <c r="J27" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K27" t="n">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="L27" t="n">
-        <v>0.0002952644335956212</v>
+        <v>0.0003042146470703111</v>
       </c>
       <c r="M27" t="n">
-        <v>12.1724537324835</v>
+        <v>12.08667853222834</v>
       </c>
       <c r="N27" t="n">
-        <v>260.8650927680725</v>
+        <v>258.9889500912424</v>
       </c>
       <c r="O27" t="n">
-        <v>16.15131860771969</v>
+        <v>16.0931336318084</v>
       </c>
       <c r="P27" t="n">
-        <v>325.0767067989983</v>
+        <v>325.0797786814742</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -36211,28 +36425,28 @@
         <v>0.08359999999999999</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.001622203199885607</v>
+        <v>0.009839157550937297</v>
       </c>
       <c r="J28" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K28" t="n">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="L28" t="n">
-        <v>6.380440692455025e-07</v>
+        <v>2.372130446648413e-05</v>
       </c>
       <c r="M28" t="n">
-        <v>11.56745612746128</v>
+        <v>11.53661942401034</v>
       </c>
       <c r="N28" t="n">
-        <v>229.9371543034813</v>
+        <v>228.9853362868937</v>
       </c>
       <c r="O28" t="n">
-        <v>15.1636787852909</v>
+        <v>15.13226143994657</v>
       </c>
       <c r="P28" t="n">
-        <v>331.1964622799166</v>
+        <v>331.0828099136071</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -36283,28 +36497,28 @@
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="n">
-        <v>0.6969205659057071</v>
+        <v>0.6932472065270465</v>
       </c>
       <c r="J29" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K29" t="n">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="L29" t="n">
-        <v>0.0146898542467071</v>
+        <v>0.0147960384763578</v>
       </c>
       <c r="M29" t="n">
-        <v>22.5169122052726</v>
+        <v>22.3332823709071</v>
       </c>
       <c r="N29" t="n">
-        <v>1865.626314532243</v>
+        <v>1848.330156293366</v>
       </c>
       <c r="O29" t="n">
-        <v>43.19289657492587</v>
+        <v>42.99221041413625</v>
       </c>
       <c r="P29" t="n">
-        <v>313.7140454963822</v>
+        <v>313.7495959511584</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
@@ -36355,28 +36569,28 @@
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="n">
-        <v>0.2392028406498494</v>
+        <v>0.1036799351853589</v>
       </c>
       <c r="J30" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K30" t="n">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L30" t="n">
-        <v>0.0005037030092159833</v>
+        <v>9.51079269961852e-05</v>
       </c>
       <c r="M30" t="n">
-        <v>73.05035539450789</v>
+        <v>73.36356227243856</v>
       </c>
       <c r="N30" t="n">
-        <v>6196.540591238909</v>
+        <v>6211.449927641755</v>
       </c>
       <c r="O30" t="n">
-        <v>78.71810840739829</v>
+        <v>78.81275231611795</v>
       </c>
       <c r="P30" t="n">
-        <v>267.8884363633172</v>
+        <v>269.2621829167084</v>
       </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
@@ -36433,28 +36647,28 @@
         <v>0.1366</v>
       </c>
       <c r="I31" t="n">
-        <v>1.016168409269109</v>
+        <v>0.8886686086433305</v>
       </c>
       <c r="J31" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K31" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L31" t="n">
-        <v>0.01156575150841777</v>
+        <v>0.008938654174052707</v>
       </c>
       <c r="M31" t="n">
-        <v>65.35820679173924</v>
+        <v>65.53717239179042</v>
       </c>
       <c r="N31" t="n">
-        <v>4693.130437686561</v>
+        <v>4695.623892318048</v>
       </c>
       <c r="O31" t="n">
-        <v>68.50642625102087</v>
+        <v>68.52462252590705</v>
       </c>
       <c r="P31" t="n">
-        <v>250.4685634408023</v>
+        <v>251.7846668111127</v>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
@@ -36511,28 +36725,28 @@
         <v>0.0565</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.257508610136871</v>
+        <v>-0.3469609233645184</v>
       </c>
       <c r="J32" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K32" t="n">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L32" t="n">
-        <v>0.001049849198065278</v>
+        <v>0.001932754896615263</v>
       </c>
       <c r="M32" t="n">
-        <v>52.29459263286667</v>
+        <v>52.29296294934478</v>
       </c>
       <c r="N32" t="n">
-        <v>3351.513345011048</v>
+        <v>3337.31390380796</v>
       </c>
       <c r="O32" t="n">
-        <v>57.89225634755523</v>
+        <v>57.7694893850375</v>
       </c>
       <c r="P32" t="n">
-        <v>292.3772237950269</v>
+        <v>293.2819966379955</v>
       </c>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
@@ -36589,28 +36803,28 @@
         <v>0.068</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.6095169076802394</v>
+        <v>-0.7076024078342997</v>
       </c>
       <c r="J33" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K33" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L33" t="n">
-        <v>0.006666076899570994</v>
+        <v>0.009036717341221578</v>
       </c>
       <c r="M33" t="n">
-        <v>48.03703491708467</v>
+        <v>48.20176328018223</v>
       </c>
       <c r="N33" t="n">
-        <v>2949.915585906699</v>
+        <v>2949.256908779102</v>
       </c>
       <c r="O33" t="n">
-        <v>54.31312535572501</v>
+        <v>54.30706131599372</v>
       </c>
       <c r="P33" t="n">
-        <v>307.7908343028578</v>
+        <v>308.8088051761462</v>
       </c>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
@@ -36667,28 +36881,28 @@
         <v>0.0429</v>
       </c>
       <c r="I34" t="n">
-        <v>-1.415727424021141</v>
+        <v>-1.49280364820613</v>
       </c>
       <c r="J34" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K34" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L34" t="n">
-        <v>0.03712078363398619</v>
+        <v>0.04155138846328976</v>
       </c>
       <c r="M34" t="n">
-        <v>47.16306242446453</v>
+        <v>47.13589010913068</v>
       </c>
       <c r="N34" t="n">
-        <v>2967.871340389593</v>
+        <v>2955.954793812659</v>
       </c>
       <c r="O34" t="n">
-        <v>54.47817306398585</v>
+        <v>54.36869314056261</v>
       </c>
       <c r="P34" t="n">
-        <v>326.2776553054131</v>
+        <v>327.0483718396741</v>
       </c>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
@@ -36726,7 +36940,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI343"/>
+  <dimension ref="A1:AI345"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80967,11 +81181,7 @@
       </c>
       <c r="H340" t="inlineStr"/>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr">
-        <is>
-          <t>-38.282555461873805,174.71693888473203</t>
-        </is>
-      </c>
+      <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr"/>
       <c r="L340" t="inlineStr"/>
       <c r="M340" t="inlineStr"/>
@@ -81092,11 +81302,7 @@
       </c>
       <c r="H341" t="inlineStr"/>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr">
-        <is>
-          <t>-38.28255421586753,174.7168896110973</t>
-        </is>
-      </c>
+      <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr"/>
       <c r="L341" t="inlineStr"/>
       <c r="M341" t="inlineStr"/>
@@ -81301,17 +81507,9 @@
           <t>-38.28391787536133,174.715021739978</t>
         </is>
       </c>
-      <c r="I343" t="inlineStr">
-        <is>
-          <t>-38.28325874418235,174.71685289762067</t>
-        </is>
-      </c>
+      <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>-38.28183847486639,174.71648322738093</t>
-        </is>
-      </c>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="inlineStr"/>
       <c r="M343" t="inlineStr"/>
       <c r="N343" t="inlineStr">
@@ -81324,12 +81522,12 @@
           <t>-38.27899683538215,174.71572907903544</t>
         </is>
       </c>
-      <c r="P343" t="inlineStr">
-        <is>
-          <t>-38.278229540905436,174.71652019857171</t>
-        </is>
-      </c>
-      <c r="Q343" t="inlineStr"/>
+      <c r="P343" t="inlineStr"/>
+      <c r="Q343" t="inlineStr">
+        <is>
+          <t>-38.277467617291585,174.71621487683166</t>
+        </is>
+      </c>
       <c r="R343" t="inlineStr"/>
       <c r="S343" t="inlineStr"/>
       <c r="T343" t="inlineStr"/>
@@ -81409,6 +81607,320 @@
         </is>
       </c>
     </row>
+    <row r="344">
+      <c r="A344" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:06:28+00:00</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>-38.288150798032525,174.71503603848456</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>-38.28744642349061,174.71507695250872</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>-38.28675840936784,174.715764875163</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>-38.286033970904064,174.7150132099008</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>-38.285332467501846,174.71516841612265</t>
+        </is>
+      </c>
+      <c r="G344" t="inlineStr">
+        <is>
+          <t>-38.28463239970867,174.7153806404015</t>
+        </is>
+      </c>
+      <c r="H344" t="inlineStr">
+        <is>
+          <t>-38.28391861169329,174.71505084118138</t>
+        </is>
+      </c>
+      <c r="I344" t="inlineStr">
+        <is>
+          <t>-38.2832181361931,174.71524747896567</t>
+        </is>
+      </c>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>-38.28182010472288,174.7157569861375</t>
+        </is>
+      </c>
+      <c r="L344" t="inlineStr"/>
+      <c r="M344" t="inlineStr">
+        <is>
+          <t>-38.280421100706384,174.71622917444216</t>
+        </is>
+      </c>
+      <c r="N344" t="inlineStr"/>
+      <c r="O344" t="inlineStr">
+        <is>
+          <t>-38.27899507897962,174.7156567387329</t>
+        </is>
+      </c>
+      <c r="P344" t="inlineStr"/>
+      <c r="Q344" t="inlineStr">
+        <is>
+          <t>-38.277472854966966,174.71615846011704</t>
+        </is>
+      </c>
+      <c r="R344" t="inlineStr"/>
+      <c r="S344" t="inlineStr"/>
+      <c r="T344" t="inlineStr"/>
+      <c r="U344" t="inlineStr">
+        <is>
+          <t>-38.27472212689703,174.7151939660437</t>
+        </is>
+      </c>
+      <c r="V344" t="inlineStr">
+        <is>
+          <t>-38.27397876210961,174.71555245400992</t>
+        </is>
+      </c>
+      <c r="W344" t="inlineStr"/>
+      <c r="X344" t="inlineStr">
+        <is>
+          <t>-38.27263641555485,174.71471396748112</t>
+        </is>
+      </c>
+      <c r="Y344" t="inlineStr">
+        <is>
+          <t>-38.27196125167305,174.71433758973194</t>
+        </is>
+      </c>
+      <c r="Z344" t="inlineStr">
+        <is>
+          <t>-38.27124592889664,174.71439373678663</t>
+        </is>
+      </c>
+      <c r="AA344" t="inlineStr">
+        <is>
+          <t>-38.270527490937354,174.71448336460173</t>
+        </is>
+      </c>
+      <c r="AB344" t="inlineStr">
+        <is>
+          <t>-38.26984812924589,174.71415199025756</t>
+        </is>
+      </c>
+      <c r="AC344" t="inlineStr">
+        <is>
+          <t>-38.2691320846073,174.71421569181638</t>
+        </is>
+      </c>
+      <c r="AD344" t="inlineStr">
+        <is>
+          <t>-38.268278129000535,174.715764754939</t>
+        </is>
+      </c>
+      <c r="AE344" t="inlineStr">
+        <is>
+          <t>-38.267596278484945,174.71546000068548</t>
+        </is>
+      </c>
+      <c r="AF344" t="inlineStr">
+        <is>
+          <t>-38.26693644102021,174.71491807328746</t>
+        </is>
+      </c>
+      <c r="AG344" t="inlineStr">
+        <is>
+          <t>-38.26623003964781,174.71487759751025</t>
+        </is>
+      </c>
+      <c r="AH344" t="inlineStr">
+        <is>
+          <t>-38.2655482576801,174.71457187654497</t>
+        </is>
+      </c>
+      <c r="AI344" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-26 22:06:33+00:00</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>-38.28815180378798,174.7150757932084</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>-38.287447414961285,174.71511614228905</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr"/>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>-38.28602991197981,174.71485278892183</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>-38.285324217224485,174.71484233922496</t>
+        </is>
+      </c>
+      <c r="G345" t="inlineStr">
+        <is>
+          <t>-38.28462410367255,174.7150527386158</t>
+        </is>
+      </c>
+      <c r="H345" t="inlineStr">
+        <is>
+          <t>-38.28391814214313,174.71503228365572</t>
+        </is>
+      </c>
+      <c r="I345" t="inlineStr">
+        <is>
+          <t>-38.28321458704128,174.71510720624326</t>
+        </is>
+      </c>
+      <c r="J345" t="inlineStr">
+        <is>
+          <t>-38.28251094318566,174.71517889111985</t>
+        </is>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>-38.28180905790675,174.71532034957045</t>
+        </is>
+      </c>
+      <c r="L345" t="inlineStr">
+        <is>
+          <t>-38.28110835993339,174.7155090076501</t>
+        </is>
+      </c>
+      <c r="M345" t="inlineStr">
+        <is>
+          <t>-38.28041653937705,174.71604885446766</t>
+        </is>
+      </c>
+      <c r="N345" t="inlineStr">
+        <is>
+          <t>-38.27969659275568,174.715477222918</t>
+        </is>
+      </c>
+      <c r="O345" t="inlineStr">
+        <is>
+          <t>-38.27899514568595,174.71565948610842</t>
+        </is>
+      </c>
+      <c r="P345" t="inlineStr">
+        <is>
+          <t>-38.278251434199476,174.71588761710183</t>
+        </is>
+      </c>
+      <c r="Q345" t="inlineStr"/>
+      <c r="R345" t="inlineStr">
+        <is>
+          <t>-38.2768208417802,174.71553323506282</t>
+        </is>
+      </c>
+      <c r="S345" t="inlineStr">
+        <is>
+          <t>-38.276136911017204,174.71525173561216</t>
+        </is>
+      </c>
+      <c r="T345" t="inlineStr">
+        <is>
+          <t>-38.27543674512461,174.71514504741612</t>
+        </is>
+      </c>
+      <c r="U345" t="inlineStr">
+        <is>
+          <t>-38.274708527185425,174.71534045930358</t>
+        </is>
+      </c>
+      <c r="V345" t="inlineStr">
+        <is>
+          <t>-38.273983988959,174.71549615344972</t>
+        </is>
+      </c>
+      <c r="W345" t="inlineStr">
+        <is>
+          <t>-38.273308514182915,174.7151232839534</t>
+        </is>
+      </c>
+      <c r="X345" t="inlineStr">
+        <is>
+          <t>-38.27263263719221,174.71475466793288</t>
+        </is>
+      </c>
+      <c r="Y345" t="inlineStr">
+        <is>
+          <t>-38.27194124642577,174.71455308940307</t>
+        </is>
+      </c>
+      <c r="Z345" t="inlineStr">
+        <is>
+          <t>-38.27124130014925,174.714443597966</t>
+        </is>
+      </c>
+      <c r="AA345" t="inlineStr">
+        <is>
+          <t>-38.27052783866026,174.71447961896985</t>
+        </is>
+      </c>
+      <c r="AB345" t="inlineStr">
+        <is>
+          <t>-38.269838242713476,174.7142584884808</t>
+        </is>
+      </c>
+      <c r="AC345" t="inlineStr">
+        <is>
+          <t>-38.26912939746827,174.71424463743105</t>
+        </is>
+      </c>
+      <c r="AD345" t="inlineStr">
+        <is>
+          <t>-38.268273020773904,174.71581977160446</t>
+        </is>
+      </c>
+      <c r="AE345" t="inlineStr">
+        <is>
+          <t>-38.267597866215695,174.71544290013165</t>
+        </is>
+      </c>
+      <c r="AF345" t="inlineStr">
+        <is>
+          <t>-38.266929865577296,174.71498889623035</t>
+        </is>
+      </c>
+      <c r="AG345" t="inlineStr">
+        <is>
+          <t>-38.26622708679984,174.71490940195295</t>
+        </is>
+      </c>
+      <c r="AH345" t="inlineStr">
+        <is>
+          <t>-38.26552671334306,174.71480392758758</t>
+        </is>
+      </c>
+      <c r="AI345" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0252/nzd0252.xlsx
+++ b/data/nzd0252/nzd0252.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI345"/>
+  <dimension ref="A1:AI346"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30656,7 +30656,9 @@
       <c r="C345" t="n">
         <v>314.16</v>
       </c>
-      <c r="D345" t="inlineStr"/>
+      <c r="D345" t="n">
+        <v>331.6333333333333</v>
+      </c>
       <c r="E345" t="n">
         <v>344.18</v>
       </c>
@@ -30748,6 +30750,113 @@
       <c r="AI345" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-03 22:06:33+00:00</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
+        <v>316.1017647058824</v>
+      </c>
+      <c r="C346" t="n">
+        <v>317.84</v>
+      </c>
+      <c r="D346" t="n">
+        <v>314.3811111111111</v>
+      </c>
+      <c r="E346" t="n">
+        <v>318.3130769230769</v>
+      </c>
+      <c r="F346" t="n">
+        <v>352.79</v>
+      </c>
+      <c r="G346" t="n">
+        <v>316.41</v>
+      </c>
+      <c r="H346" t="n">
+        <v>326.6442857142857</v>
+      </c>
+      <c r="I346" t="n">
+        <v>313.3011111111111</v>
+      </c>
+      <c r="J346" t="n">
+        <v>329.9957142857143</v>
+      </c>
+      <c r="K346" t="n">
+        <v>321.2882758620689</v>
+      </c>
+      <c r="L346" t="n">
+        <v>303.29</v>
+      </c>
+      <c r="M346" t="n">
+        <v>297.84</v>
+      </c>
+      <c r="N346" t="n">
+        <v>307.0271428571428</v>
+      </c>
+      <c r="O346" t="n">
+        <v>309.0595238095238</v>
+      </c>
+      <c r="P346" t="n">
+        <v>306.0642857142857</v>
+      </c>
+      <c r="Q346" t="inlineStr"/>
+      <c r="R346" t="n">
+        <v>317.4066666666666</v>
+      </c>
+      <c r="S346" t="n">
+        <v>304.5933333333333</v>
+      </c>
+      <c r="T346" t="n">
+        <v>301.98</v>
+      </c>
+      <c r="U346" t="n">
+        <v>281.7142857142857</v>
+      </c>
+      <c r="V346" t="n">
+        <v>296.84</v>
+      </c>
+      <c r="W346" t="n">
+        <v>314.5733333333333</v>
+      </c>
+      <c r="X346" t="n">
+        <v>321.4542857142857</v>
+      </c>
+      <c r="Y346" t="n">
+        <v>326.6942857142857</v>
+      </c>
+      <c r="Z346" t="n">
+        <v>320.9171428571428</v>
+      </c>
+      <c r="AA346" t="n">
+        <v>331.97</v>
+      </c>
+      <c r="AB346" t="n">
+        <v>340.2771428571428</v>
+      </c>
+      <c r="AC346" t="n">
+        <v>331.9502325581395</v>
+      </c>
+      <c r="AD346" t="inlineStr"/>
+      <c r="AE346" t="n">
+        <v>196.6966666666666</v>
+      </c>
+      <c r="AF346" t="n">
+        <v>216.85</v>
+      </c>
+      <c r="AG346" t="n">
+        <v>223.2511111111111</v>
+      </c>
+      <c r="AH346" t="n">
+        <v>212.9942857142857</v>
+      </c>
+      <c r="AI346" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -30762,7 +30871,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B349"/>
+  <dimension ref="A1:B350"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34260,6 +34369,16 @@
       </c>
       <c r="B349" t="n">
         <v>0.78</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>2025-09-03 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B350" t="n">
+        <v>-0.22</v>
       </c>
     </row>
   </sheetData>
@@ -34433,28 +34552,28 @@
         <v>0.0953</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1619875499092439</v>
+        <v>-0.1585019517311299</v>
       </c>
       <c r="J2" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K2" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01682002680152694</v>
+        <v>0.01622493608552056</v>
       </c>
       <c r="M2" t="n">
-        <v>6.985025844777152</v>
+        <v>6.974690040453614</v>
       </c>
       <c r="N2" t="n">
-        <v>82.30484767428011</v>
+        <v>82.07457376061164</v>
       </c>
       <c r="O2" t="n">
-        <v>9.072201919836226</v>
+        <v>9.059501849473383</v>
       </c>
       <c r="P2" t="n">
-        <v>315.5732793727168</v>
+        <v>315.5382673221475</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -34511,28 +34630,28 @@
         <v>0.0954</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1138185144036394</v>
+        <v>0.1197278704794605</v>
       </c>
       <c r="J3" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K3" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002009330961795897</v>
+        <v>0.002240541739415236</v>
       </c>
       <c r="M3" t="n">
-        <v>11.13523980083844</v>
+        <v>11.11332378835722</v>
       </c>
       <c r="N3" t="n">
-        <v>345.3808996968452</v>
+        <v>344.1669874375453</v>
       </c>
       <c r="O3" t="n">
-        <v>18.58442626762648</v>
+        <v>18.55173812443312</v>
       </c>
       <c r="P3" t="n">
-        <v>307.6011472627236</v>
+        <v>307.5417066031591</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -34589,28 +34708,28 @@
         <v>0.0548</v>
       </c>
       <c r="I4" t="n">
-        <v>-1.02804441251315</v>
+        <v>-0.9891971598761349</v>
       </c>
       <c r="J4" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K4" t="n">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03827713030415303</v>
+        <v>0.03602763865550496</v>
       </c>
       <c r="M4" t="n">
-        <v>28.13518284322979</v>
+        <v>27.97728122492384</v>
       </c>
       <c r="N4" t="n">
-        <v>1464.175043234461</v>
+        <v>1455.914944421809</v>
       </c>
       <c r="O4" t="n">
-        <v>38.26454028515776</v>
+        <v>38.15645350948917</v>
       </c>
       <c r="P4" t="n">
-        <v>326.6968370263636</v>
+        <v>326.3078433937069</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -34661,28 +34780,28 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>0.1279772795933438</v>
+        <v>0.1064779369448581</v>
       </c>
       <c r="J5" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K5" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L5" t="n">
-        <v>0.002079633480156495</v>
+        <v>0.001444587265140296</v>
       </c>
       <c r="M5" t="n">
-        <v>16.25134881054363</v>
+        <v>16.30451039478703</v>
       </c>
       <c r="N5" t="n">
-        <v>419.7655069916487</v>
+        <v>420.6356731992105</v>
       </c>
       <c r="O5" t="n">
-        <v>20.48817968955878</v>
+        <v>20.50940450620667</v>
       </c>
       <c r="P5" t="n">
-        <v>340.1271925021836</v>
+        <v>340.3420638993199</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -34733,28 +34852,28 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>1.221084271945154</v>
+        <v>1.216328727628399</v>
       </c>
       <c r="J6" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K6" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03251982196243786</v>
+        <v>0.03260586184807368</v>
       </c>
       <c r="M6" t="n">
-        <v>26.74857866724063</v>
+        <v>26.64233219990228</v>
       </c>
       <c r="N6" t="n">
-        <v>2383.659550188345</v>
+        <v>2372.146807348314</v>
       </c>
       <c r="O6" t="n">
-        <v>48.82273599654514</v>
+        <v>48.70468978803082</v>
       </c>
       <c r="P6" t="n">
-        <v>326.3081551572453</v>
+        <v>326.3552460106348</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -34811,28 +34930,28 @@
         <v>0.0527</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2100823950232227</v>
+        <v>-0.2191297268792596</v>
       </c>
       <c r="J7" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K7" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L7" t="n">
-        <v>0.003634641416797812</v>
+        <v>0.003990009547184092</v>
       </c>
       <c r="M7" t="n">
-        <v>18.5021271872085</v>
+        <v>18.4744986265653</v>
       </c>
       <c r="N7" t="n">
-        <v>636.6201427203578</v>
+        <v>633.9457797875801</v>
       </c>
       <c r="O7" t="n">
-        <v>25.23133255934687</v>
+        <v>25.17827992114593</v>
       </c>
       <c r="P7" t="n">
-        <v>331.2784846487881</v>
+        <v>331.3710247226122</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -34889,28 +35008,28 @@
         <v>0.0386</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3367862209487643</v>
+        <v>0.3272315386939789</v>
       </c>
       <c r="J8" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K8" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02471580463928946</v>
+        <v>0.02355323454259006</v>
       </c>
       <c r="M8" t="n">
-        <v>11.5943297147357</v>
+        <v>11.587518293249</v>
       </c>
       <c r="N8" t="n">
-        <v>236.6804284065</v>
+        <v>236.0531795551898</v>
       </c>
       <c r="O8" t="n">
-        <v>15.38442161429867</v>
+        <v>15.36402224533634</v>
       </c>
       <c r="P8" t="n">
-        <v>328.1575150263993</v>
+        <v>328.2530447929939</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -34967,28 +35086,28 @@
         <v>0.0507</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2883574126994564</v>
+        <v>0.2910998310702756</v>
       </c>
       <c r="J9" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K9" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L9" t="n">
-        <v>0.003155085166736793</v>
+        <v>0.003250649118605731</v>
       </c>
       <c r="M9" t="n">
-        <v>19.4032121360513</v>
+        <v>19.31038312779046</v>
       </c>
       <c r="N9" t="n">
-        <v>1389.45037746832</v>
+        <v>1382.397421386722</v>
       </c>
       <c r="O9" t="n">
-        <v>37.27533202358257</v>
+        <v>37.18060544674766</v>
       </c>
       <c r="P9" t="n">
-        <v>303.2119493790415</v>
+        <v>303.1844238741691</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -35039,28 +35158,28 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>0.3628010058649552</v>
+        <v>0.3655063660414769</v>
       </c>
       <c r="J10" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K10" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02478050312164914</v>
+        <v>0.02539956222147222</v>
       </c>
       <c r="M10" t="n">
-        <v>10.67302759334081</v>
+        <v>10.6322769034651</v>
       </c>
       <c r="N10" t="n">
-        <v>280.8868120243972</v>
+        <v>279.4689355856368</v>
       </c>
       <c r="O10" t="n">
-        <v>16.75967815992888</v>
+        <v>16.71732441467942</v>
       </c>
       <c r="P10" t="n">
-        <v>317.9632205342156</v>
+        <v>317.9361656172185</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -35111,28 +35230,28 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>0.1683311700870322</v>
+        <v>0.1647876845907104</v>
       </c>
       <c r="J11" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K11" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L11" t="n">
-        <v>0.007081217962160657</v>
+        <v>0.006852761357919457</v>
       </c>
       <c r="M11" t="n">
-        <v>10.89172029776972</v>
+        <v>10.86320261079444</v>
       </c>
       <c r="N11" t="n">
-        <v>218.0749317358733</v>
+        <v>217.1064650626915</v>
       </c>
       <c r="O11" t="n">
-        <v>14.767360350986</v>
+        <v>14.73453307922214</v>
       </c>
       <c r="P11" t="n">
-        <v>320.8253013608795</v>
+        <v>320.8602835442707</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -35189,28 +35308,28 @@
         <v>0.0576</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2490715192579132</v>
+        <v>0.2424940548290748</v>
       </c>
       <c r="J12" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K12" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L12" t="n">
-        <v>0.02204633083011798</v>
+        <v>0.02110151667682858</v>
       </c>
       <c r="M12" t="n">
-        <v>9.391870765544256</v>
+        <v>9.38017709977529</v>
       </c>
       <c r="N12" t="n">
-        <v>149.2500688456081</v>
+        <v>148.735528218698</v>
       </c>
       <c r="O12" t="n">
-        <v>12.21679454053346</v>
+        <v>12.1957176180288</v>
       </c>
       <c r="P12" t="n">
-        <v>303.7123699747297</v>
+        <v>303.7779144855403</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -35267,28 +35386,28 @@
         <v>0.0663</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2738710121918967</v>
+        <v>0.2772684463088602</v>
       </c>
       <c r="J13" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K13" t="n">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L13" t="n">
-        <v>0.006015519876487407</v>
+        <v>0.006232522624597614</v>
       </c>
       <c r="M13" t="n">
-        <v>19.69629017302144</v>
+        <v>19.60931857442396</v>
       </c>
       <c r="N13" t="n">
-        <v>672.4585134210566</v>
+        <v>669.1860495851965</v>
       </c>
       <c r="O13" t="n">
-        <v>25.93180505520309</v>
+        <v>25.86863060900589</v>
       </c>
       <c r="P13" t="n">
-        <v>287.3970152021525</v>
+        <v>287.3639564950707</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -35345,28 +35464,28 @@
         <v>0.0833</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3333967634701756</v>
+        <v>0.3268793241158365</v>
       </c>
       <c r="J14" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K14" t="n">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0373908371966063</v>
+        <v>0.03624901817917858</v>
       </c>
       <c r="M14" t="n">
-        <v>8.794211516293425</v>
+        <v>8.791802025858507</v>
       </c>
       <c r="N14" t="n">
-        <v>154.5572710843741</v>
+        <v>154.1879744357039</v>
       </c>
       <c r="O14" t="n">
-        <v>12.43210646207529</v>
+        <v>12.41724504210591</v>
       </c>
       <c r="P14" t="n">
-        <v>306.4721495409544</v>
+        <v>306.5360766751517</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -35417,28 +35536,28 @@
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="n">
-        <v>0.3215919217188329</v>
+        <v>0.3220703530160756</v>
       </c>
       <c r="J15" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K15" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L15" t="n">
-        <v>0.01546023332928326</v>
+        <v>0.0156477516427489</v>
       </c>
       <c r="M15" t="n">
-        <v>13.76143191855905</v>
+        <v>13.70673876211542</v>
       </c>
       <c r="N15" t="n">
-        <v>341.3111141201223</v>
+        <v>339.9078209232255</v>
       </c>
       <c r="O15" t="n">
-        <v>18.47460727918519</v>
+        <v>18.43658918898031</v>
       </c>
       <c r="P15" t="n">
-        <v>300.2358836631664</v>
+        <v>300.2310635930947</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -35495,28 +35614,28 @@
         <v>0.0466</v>
       </c>
       <c r="I16" t="n">
-        <v>0.7543931582116351</v>
+        <v>0.742262365741535</v>
       </c>
       <c r="J16" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K16" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L16" t="n">
-        <v>0.03496062509161657</v>
+        <v>0.03419761932841858</v>
       </c>
       <c r="M16" t="n">
-        <v>20.6307398674362</v>
+        <v>20.59742615723426</v>
       </c>
       <c r="N16" t="n">
-        <v>855.2889455862585</v>
+        <v>851.5050730427603</v>
       </c>
       <c r="O16" t="n">
-        <v>29.24532348233232</v>
+        <v>29.18055984800086</v>
       </c>
       <c r="P16" t="n">
-        <v>298.7742631184755</v>
+        <v>298.8964034398259</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -35576,7 +35695,7 @@
         <v>0.3505224224254342</v>
       </c>
       <c r="J17" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K17" t="n">
         <v>187</v>
@@ -35651,28 +35770,28 @@
         <v>0.1387</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1784796114536404</v>
+        <v>0.2119535246638152</v>
       </c>
       <c r="J18" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K18" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L18" t="n">
-        <v>0.000929001670065488</v>
+        <v>0.001319195270857554</v>
       </c>
       <c r="M18" t="n">
-        <v>38.25611805258023</v>
+        <v>38.20534314542649</v>
       </c>
       <c r="N18" t="n">
-        <v>1858.82120484799</v>
+        <v>1855.848063877556</v>
       </c>
       <c r="O18" t="n">
-        <v>43.11404881066019</v>
+        <v>43.07955505663396</v>
       </c>
       <c r="P18" t="n">
-        <v>277.4613680776247</v>
+        <v>277.1338009810578</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -35729,28 +35848,28 @@
         <v>0.068</v>
       </c>
       <c r="I19" t="n">
-        <v>0.608532236078644</v>
+        <v>0.6085825263423986</v>
       </c>
       <c r="J19" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K19" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L19" t="n">
-        <v>0.02450786474594002</v>
+        <v>0.0247284392351701</v>
       </c>
       <c r="M19" t="n">
-        <v>21.25347443644075</v>
+        <v>21.16202978031135</v>
       </c>
       <c r="N19" t="n">
-        <v>802.2830391609421</v>
+        <v>798.8249378761002</v>
       </c>
       <c r="O19" t="n">
-        <v>28.3246013063016</v>
+        <v>28.26349125419753</v>
       </c>
       <c r="P19" t="n">
-        <v>288.8990229163707</v>
+        <v>288.8985247139478</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -35807,28 +35926,28 @@
         <v>0.0447</v>
       </c>
       <c r="I20" t="n">
-        <v>0.7468953707047058</v>
+        <v>0.7408211796811328</v>
       </c>
       <c r="J20" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K20" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L20" t="n">
-        <v>0.06922446731634246</v>
+        <v>0.06868392727269268</v>
       </c>
       <c r="M20" t="n">
-        <v>15.94512500363386</v>
+        <v>15.91208666913147</v>
       </c>
       <c r="N20" t="n">
-        <v>409.4205627935809</v>
+        <v>407.9446340713594</v>
       </c>
       <c r="O20" t="n">
-        <v>20.2341434904861</v>
+        <v>20.19763931927094</v>
       </c>
       <c r="P20" t="n">
-        <v>290.3668612363048</v>
+        <v>290.4274140947559</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -35885,28 +36004,28 @@
         <v>0.0387</v>
       </c>
       <c r="I21" t="n">
-        <v>0.3651009811443319</v>
+        <v>0.3412061243715624</v>
       </c>
       <c r="J21" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K21" t="n">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L21" t="n">
-        <v>0.02370297463909854</v>
+        <v>0.02070565306507832</v>
       </c>
       <c r="M21" t="n">
-        <v>13.39797870183844</v>
+        <v>13.47725451222063</v>
       </c>
       <c r="N21" t="n">
-        <v>299.3707995050287</v>
+        <v>301.5758544109995</v>
       </c>
       <c r="O21" t="n">
-        <v>17.30233508821941</v>
+        <v>17.36593949117063</v>
       </c>
       <c r="P21" t="n">
-        <v>300.8440808415331</v>
+        <v>301.0828597582125</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -35963,28 +36082,28 @@
         <v>0.0469</v>
       </c>
       <c r="I22" t="n">
-        <v>0.008378227579089566</v>
+        <v>0.01464920420574607</v>
       </c>
       <c r="J22" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K22" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L22" t="n">
-        <v>7.154908085782452e-06</v>
+        <v>2.204543520978319e-05</v>
       </c>
       <c r="M22" t="n">
-        <v>18.36833155360091</v>
+        <v>18.32304146045896</v>
       </c>
       <c r="N22" t="n">
-        <v>518.7670763405821</v>
+        <v>516.8284881136076</v>
       </c>
       <c r="O22" t="n">
-        <v>22.77645881915321</v>
+        <v>22.73386214688581</v>
       </c>
       <c r="P22" t="n">
-        <v>288.874264922712</v>
+        <v>288.8096999308959</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -36035,28 +36154,28 @@
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="n">
-        <v>-0.009509404259888828</v>
+        <v>0.004563795508588302</v>
       </c>
       <c r="J23" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K23" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L23" t="n">
-        <v>7.535398312885633e-06</v>
+        <v>1.746754727083299e-06</v>
       </c>
       <c r="M23" t="n">
-        <v>19.08071281307897</v>
+        <v>19.06475549762553</v>
       </c>
       <c r="N23" t="n">
-        <v>629.1938174227721</v>
+        <v>627.599430173062</v>
       </c>
       <c r="O23" t="n">
-        <v>25.08373611372062</v>
+        <v>25.05193465928454</v>
       </c>
       <c r="P23" t="n">
-        <v>298.1200456819637</v>
+        <v>297.9722865312212</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -36113,28 +36232,28 @@
         <v>0.0385</v>
       </c>
       <c r="I24" t="n">
-        <v>-8.709183875595737e-05</v>
+        <v>0.007592029436404458</v>
       </c>
       <c r="J24" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K24" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L24" t="n">
-        <v>1.223138701433868e-09</v>
+        <v>9.355646463538037e-06</v>
       </c>
       <c r="M24" t="n">
-        <v>14.62688659950613</v>
+        <v>14.6005510965282</v>
       </c>
       <c r="N24" t="n">
-        <v>339.8160745468345</v>
+        <v>338.8039935907269</v>
       </c>
       <c r="O24" t="n">
-        <v>18.43410086081864</v>
+        <v>18.40662906647295</v>
       </c>
       <c r="P24" t="n">
-        <v>311.4498582111491</v>
+        <v>311.3717407347442</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -36191,28 +36310,28 @@
         <v>0.037</v>
       </c>
       <c r="I25" t="n">
-        <v>0.2318863762411062</v>
+        <v>0.2330146099739829</v>
       </c>
       <c r="J25" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K25" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L25" t="n">
-        <v>0.00863936878576621</v>
+        <v>0.008783709451158139</v>
       </c>
       <c r="M25" t="n">
-        <v>14.4144462674743</v>
+        <v>14.3640541799764</v>
       </c>
       <c r="N25" t="n">
-        <v>337.1343155370895</v>
+        <v>335.8323886597966</v>
       </c>
       <c r="O25" t="n">
-        <v>18.36121770300351</v>
+        <v>18.32573023537661</v>
       </c>
       <c r="P25" t="n">
-        <v>319.1344683457352</v>
+        <v>319.1229073276812</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -36269,28 +36388,28 @@
         <v>0.0867</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.08628713134267441</v>
+        <v>-0.08719411323159772</v>
       </c>
       <c r="J26" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K26" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0007094095253766808</v>
+        <v>0.0007299700717975366</v>
       </c>
       <c r="M26" t="n">
-        <v>19.1296369883331</v>
+        <v>19.05604971800325</v>
       </c>
       <c r="N26" t="n">
-        <v>577.7030501394405</v>
+        <v>575.3118335444191</v>
       </c>
       <c r="O26" t="n">
-        <v>24.03545402399215</v>
+        <v>23.98565891411823</v>
       </c>
       <c r="P26" t="n">
-        <v>324.3326850834265</v>
+        <v>324.3418709468201</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -36347,28 +36466,28 @@
         <v>0.0905</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.03763599654494539</v>
+        <v>-0.0325126064850431</v>
       </c>
       <c r="J27" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K27" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L27" t="n">
-        <v>0.0003042146470703111</v>
+        <v>0.0002283687754185415</v>
       </c>
       <c r="M27" t="n">
-        <v>12.08667853222834</v>
+        <v>12.06938645418284</v>
       </c>
       <c r="N27" t="n">
-        <v>258.9889500912424</v>
+        <v>258.279688746739</v>
       </c>
       <c r="O27" t="n">
-        <v>16.0931336318084</v>
+        <v>16.07108237632858</v>
       </c>
       <c r="P27" t="n">
-        <v>325.0797786814742</v>
+        <v>325.0283311166818</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -36425,28 +36544,28 @@
         <v>0.08359999999999999</v>
       </c>
       <c r="I28" t="n">
-        <v>0.009839157550937297</v>
+        <v>0.01566041009065237</v>
       </c>
       <c r="J28" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K28" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L28" t="n">
-        <v>2.372130446648413e-05</v>
+        <v>6.042222828628319e-05</v>
       </c>
       <c r="M28" t="n">
-        <v>11.53661942401034</v>
+        <v>11.52190657112614</v>
       </c>
       <c r="N28" t="n">
-        <v>228.9853362868937</v>
+        <v>228.4501444527515</v>
       </c>
       <c r="O28" t="n">
-        <v>15.13226143994657</v>
+        <v>15.11456729293801</v>
       </c>
       <c r="P28" t="n">
-        <v>331.0828099136071</v>
+        <v>331.0249136021404</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -36497,28 +36616,28 @@
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="n">
-        <v>0.6932472065270465</v>
+        <v>0.6935721454011636</v>
       </c>
       <c r="J29" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K29" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L29" t="n">
-        <v>0.0147960384763578</v>
+        <v>0.01493846178306912</v>
       </c>
       <c r="M29" t="n">
-        <v>22.3332823709071</v>
+        <v>22.23118125762233</v>
       </c>
       <c r="N29" t="n">
-        <v>1848.330156293366</v>
+        <v>1839.773766067268</v>
       </c>
       <c r="O29" t="n">
-        <v>42.99221041413625</v>
+        <v>42.89258404511516</v>
       </c>
       <c r="P29" t="n">
-        <v>313.7495959511584</v>
+        <v>313.7464459487832</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
@@ -36572,7 +36691,7 @@
         <v>0.1036799351853589</v>
       </c>
       <c r="J30" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K30" t="n">
         <v>244</v>
@@ -36647,28 +36766,28 @@
         <v>0.1366</v>
       </c>
       <c r="I31" t="n">
-        <v>0.8886686086433305</v>
+        <v>0.8196847865269526</v>
       </c>
       <c r="J31" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K31" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L31" t="n">
-        <v>0.008938654174052707</v>
+        <v>0.007635489694609698</v>
       </c>
       <c r="M31" t="n">
-        <v>65.53717239179042</v>
+        <v>65.65668293605931</v>
       </c>
       <c r="N31" t="n">
-        <v>4695.623892318048</v>
+        <v>4701.841990400959</v>
       </c>
       <c r="O31" t="n">
-        <v>68.52462252590705</v>
+        <v>68.56997878372837</v>
       </c>
       <c r="P31" t="n">
-        <v>251.7846668111127</v>
+        <v>252.4983933163781</v>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
@@ -36725,28 +36844,28 @@
         <v>0.0565</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.3469609233645184</v>
+        <v>-0.4132793477849744</v>
       </c>
       <c r="J32" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K32" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L32" t="n">
-        <v>0.001932754896615263</v>
+        <v>0.002749167548317111</v>
       </c>
       <c r="M32" t="n">
-        <v>52.29296294934478</v>
+        <v>52.41951210773317</v>
       </c>
       <c r="N32" t="n">
-        <v>3337.31390380796</v>
+        <v>3343.220027295044</v>
       </c>
       <c r="O32" t="n">
-        <v>57.7694893850375</v>
+        <v>57.82058480588936</v>
       </c>
       <c r="P32" t="n">
-        <v>293.2819966379955</v>
+        <v>293.9541806792529</v>
       </c>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
@@ -36803,28 +36922,28 @@
         <v>0.068</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.7076024078342997</v>
+        <v>-0.7677442472147321</v>
       </c>
       <c r="J33" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K33" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L33" t="n">
-        <v>0.009036717341221578</v>
+        <v>0.01063494577739099</v>
       </c>
       <c r="M33" t="n">
-        <v>48.20176328018223</v>
+        <v>48.35661217471737</v>
       </c>
       <c r="N33" t="n">
-        <v>2949.256908779102</v>
+        <v>2956.7868541977</v>
       </c>
       <c r="O33" t="n">
-        <v>54.30706131599372</v>
+        <v>54.37634461967539</v>
       </c>
       <c r="P33" t="n">
-        <v>308.8088051761462</v>
+        <v>309.4344369262553</v>
       </c>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
@@ -36881,28 +37000,28 @@
         <v>0.0429</v>
       </c>
       <c r="I34" t="n">
-        <v>-1.49280364820613</v>
+        <v>-1.560846924028537</v>
       </c>
       <c r="J34" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K34" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L34" t="n">
-        <v>0.04155138846328976</v>
+        <v>0.04519338604221756</v>
       </c>
       <c r="M34" t="n">
-        <v>47.13589010913068</v>
+        <v>47.30226331056279</v>
       </c>
       <c r="N34" t="n">
-        <v>2955.954793812659</v>
+        <v>2970.284433676908</v>
       </c>
       <c r="O34" t="n">
-        <v>54.36869314056261</v>
+        <v>54.50031590437718</v>
       </c>
       <c r="P34" t="n">
-        <v>327.0483718396741</v>
+        <v>327.7303396424145</v>
       </c>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
@@ -36940,7 +37059,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI345"/>
+  <dimension ref="A1:AI346"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81768,7 +81887,11 @@
           <t>-38.287447414961285,174.71511614228905</t>
         </is>
       </c>
-      <c r="D345" t="inlineStr"/>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>-38.286737954921186,174.71495631917264</t>
+        </is>
+      </c>
       <c r="E345" t="inlineStr">
         <is>
           <t>-38.28602991197981,174.71485278892183</t>
@@ -81918,6 +82041,175 @@
       <c r="AI345" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-03 22:06:33+00:00</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>-38.288151255937755,174.71505413814148</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>-38.287446351225455,174.71507409611075</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>-38.28674294195213,174.71515343410937</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>-38.28603738945376,174.71514832808774</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>-38.285323000130504,174.71479423888707</t>
+        </is>
+      </c>
+      <c r="G346" t="inlineStr">
+        <is>
+          <t>-38.28462908718562,174.7152497081854</t>
+        </is>
+      </c>
+      <c r="H346" t="inlineStr">
+        <is>
+          <t>-38.28392169239799,174.71517259944468</t>
+        </is>
+      </c>
+      <c r="I346" t="inlineStr">
+        <is>
+          <t>-38.28322110610976,174.71536486375538</t>
+        </is>
+      </c>
+      <c r="J346" t="inlineStr">
+        <is>
+          <t>-38.28251183022607,174.71521394898664</t>
+        </is>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>-38.281809890307,174.71535324878636</t>
+        </is>
+      </c>
+      <c r="L346" t="inlineStr">
+        <is>
+          <t>-38.28111062893445,174.71559869073596</t>
+        </is>
+      </c>
+      <c r="M346" t="inlineStr">
+        <is>
+          <t>-38.280407733560075,174.71570077110448</t>
+        </is>
+      </c>
+      <c r="N346" t="inlineStr">
+        <is>
+          <t>-38.27970060065877,174.7156356300435</t>
+        </is>
+      </c>
+      <c r="O346" t="inlineStr">
+        <is>
+          <t>-38.27899497026797,174.71565226132688</t>
+        </is>
+      </c>
+      <c r="P346" t="inlineStr">
+        <is>
+          <t>-38.278257088482476,174.71572422705563</t>
+        </is>
+      </c>
+      <c r="Q346" t="inlineStr"/>
+      <c r="R346" t="inlineStr">
+        <is>
+          <t>-38.276832851477394,174.7154038673484</t>
+        </is>
+      </c>
+      <c r="S346" t="inlineStr">
+        <is>
+          <t>-38.27611804132265,174.7154549987915</t>
+        </is>
+      </c>
+      <c r="T346" t="inlineStr">
+        <is>
+          <t>-38.2754139730831,174.71539034575144</t>
+        </is>
+      </c>
+      <c r="U346" t="inlineStr">
+        <is>
+          <t>-38.274691296207216,174.71552606491068</t>
+        </is>
+      </c>
+      <c r="V346" t="inlineStr">
+        <is>
+          <t>-38.274005907712564,174.71526005422737</t>
+        </is>
+      </c>
+      <c r="W346" t="inlineStr">
+        <is>
+          <t>-38.27332325973132,174.71496444808568</t>
+        </is>
+      </c>
+      <c r="X346" t="inlineStr">
+        <is>
+          <t>-38.27262916891388,174.71479202802468</t>
+        </is>
+      </c>
+      <c r="Y346" t="inlineStr">
+        <is>
+          <t>-38.27193334206203,174.7146382352485</t>
+        </is>
+      </c>
+      <c r="Z346" t="inlineStr">
+        <is>
+          <t>-38.27122589944013,174.71460949376072</t>
+        </is>
+      </c>
+      <c r="AA346" t="inlineStr">
+        <is>
+          <t>-38.270536183974386,174.71438972379295</t>
+        </is>
+      </c>
+      <c r="AB346" t="inlineStr">
+        <is>
+          <t>-38.26984356832706,174.71420112083658</t>
+        </is>
+      </c>
+      <c r="AC346" t="inlineStr">
+        <is>
+          <t>-38.26913341886256,174.71420131931214</t>
+        </is>
+      </c>
+      <c r="AD346" t="inlineStr"/>
+      <c r="AE346" t="inlineStr">
+        <is>
+          <t>-38.267588125518806,174.7155478112596</t>
+        </is>
+      </c>
+      <c r="AF346" t="inlineStr">
+        <is>
+          <t>-38.26690796820313,174.71522474560643</t>
+        </is>
+      </c>
+      <c r="AG346" t="inlineStr">
+        <is>
+          <t>-38.266213311802964,174.71505776800046</t>
+        </is>
+      </c>
+      <c r="AH346" t="inlineStr">
+        <is>
+          <t>-38.26550109497935,174.71507985280897</t>
+        </is>
+      </c>
+      <c r="AI346" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>

--- a/data/nzd0252/nzd0252.xlsx
+++ b/data/nzd0252/nzd0252.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI346"/>
+  <dimension ref="A1:AI347"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30804,7 +30804,9 @@
       <c r="P346" t="n">
         <v>306.0642857142857</v>
       </c>
-      <c r="Q346" t="inlineStr"/>
+      <c r="Q346" t="n">
+        <v>310.52</v>
+      </c>
       <c r="R346" t="n">
         <v>317.4066666666666</v>
       </c>
@@ -30841,7 +30843,9 @@
       <c r="AC346" t="n">
         <v>331.9502325581395</v>
       </c>
-      <c r="AD346" t="inlineStr"/>
+      <c r="AD346" t="n">
+        <v>305.67</v>
+      </c>
       <c r="AE346" t="n">
         <v>196.6966666666666</v>
       </c>
@@ -30855,6 +30859,107 @@
         <v>212.9942857142857</v>
       </c>
       <c r="AI346" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:06:39+00:00</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
+        <v>316.3035294117647</v>
+      </c>
+      <c r="C347" t="n">
+        <v>317.405</v>
+      </c>
+      <c r="D347" t="n">
+        <v>329.9966666666667</v>
+      </c>
+      <c r="E347" t="n">
+        <v>329.9276923076923</v>
+      </c>
+      <c r="F347" t="n">
+        <v>348.11</v>
+      </c>
+      <c r="G347" t="n">
+        <v>332.74</v>
+      </c>
+      <c r="H347" t="n">
+        <v>326.1885714285714</v>
+      </c>
+      <c r="I347" t="n">
+        <v>314.9366666666667</v>
+      </c>
+      <c r="J347" t="n">
+        <v>320.0114285714285</v>
+      </c>
+      <c r="K347" t="n">
+        <v>322.1772413793104</v>
+      </c>
+      <c r="L347" t="n">
+        <v>309.12</v>
+      </c>
+      <c r="M347" t="inlineStr"/>
+      <c r="N347" t="n">
+        <v>309.1442857142857</v>
+      </c>
+      <c r="O347" t="n">
+        <v>298.5857142857143</v>
+      </c>
+      <c r="P347" t="n">
+        <v>315.1885714285714</v>
+      </c>
+      <c r="Q347" t="n">
+        <v>321.93</v>
+      </c>
+      <c r="R347" t="n">
+        <v>293.23</v>
+      </c>
+      <c r="S347" t="n">
+        <v>299.97</v>
+      </c>
+      <c r="T347" t="n">
+        <v>309.16</v>
+      </c>
+      <c r="U347" t="n">
+        <v>301.8785714285714</v>
+      </c>
+      <c r="V347" t="n">
+        <v>269.44</v>
+      </c>
+      <c r="W347" t="n">
+        <v>291.09</v>
+      </c>
+      <c r="X347" t="n">
+        <v>326.4285714285714</v>
+      </c>
+      <c r="Y347" t="n">
+        <v>330.9285714285714</v>
+      </c>
+      <c r="Z347" t="n">
+        <v>321.2142857142857</v>
+      </c>
+      <c r="AA347" t="n">
+        <v>330.405</v>
+      </c>
+      <c r="AB347" t="n">
+        <v>333.7742857142857</v>
+      </c>
+      <c r="AC347" t="n">
+        <v>331.3551162790698</v>
+      </c>
+      <c r="AD347" t="n">
+        <v>327.4272727272727</v>
+      </c>
+      <c r="AE347" t="inlineStr"/>
+      <c r="AF347" t="inlineStr"/>
+      <c r="AG347" t="inlineStr"/>
+      <c r="AH347" t="inlineStr"/>
+      <c r="AI347" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -30871,7 +30976,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B350"/>
+  <dimension ref="A1:B351"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34379,6 +34484,16 @@
       </c>
       <c r="B350" t="n">
         <v>-0.22</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B351" t="n">
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>
@@ -37059,7 +37174,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI346"/>
+  <dimension ref="A1:AI347"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82125,7 +82240,11 @@
           <t>-38.278257088482476,174.71572422705563</t>
         </is>
       </c>
-      <c r="Q346" t="inlineStr"/>
+      <c r="Q346" t="inlineStr">
+        <is>
+          <t>-38.27752689524293,174.7155763571446</t>
+        </is>
+      </c>
       <c r="R346" t="inlineStr">
         <is>
           <t>-38.276832851477394,174.7154038673484</t>
@@ -82186,7 +82305,11 @@
           <t>-38.26913341886256,174.71420131931214</t>
         </is>
       </c>
-      <c r="AD346" t="inlineStr"/>
+      <c r="AD346" t="inlineStr">
+        <is>
+          <t>-38.26840434540721,174.7144052874905</t>
+        </is>
+      </c>
       <c r="AE346" t="inlineStr">
         <is>
           <t>-38.267588125518806,174.7155478112596</t>
@@ -82208,6 +82331,163 @@
         </is>
       </c>
       <c r="AI346" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:06:39+00:00</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>-38.28815119761577,174.715051832838</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>-38.28744647696675,174.7150790662432</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>-38.28673842804013,174.71497501887586</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>-38.286034032054204,174.715015626806</t>
+        </is>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>-38.28532435309835,174.7148477090965</t>
+        </is>
+      </c>
+      <c r="G347" t="inlineStr">
+        <is>
+          <t>-38.2846243667317,174.71506313550108</t>
+        </is>
+      </c>
+      <c r="H347" t="inlineStr">
+        <is>
+          <t>-38.28392182413039,174.71517780599788</t>
+        </is>
+      </c>
+      <c r="I347" t="inlineStr">
+        <is>
+          <t>-38.28322063334622,174.7153461776503</t>
+        </is>
+      </c>
+      <c r="J347" t="inlineStr">
+        <is>
+          <t>-38.28251471633836,174.7153280176263</t>
+        </is>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>-38.28180963334142,174.71534309261597</t>
+        </is>
+      </c>
+      <c r="L347" t="inlineStr">
+        <is>
+          <t>-38.281108943810295,174.71553208533558</t>
+        </is>
+      </c>
+      <c r="M347" t="inlineStr"/>
+      <c r="N347" t="inlineStr">
+        <is>
+          <t>-38.27969998870969,174.71561144300807</t>
+        </is>
+      </c>
+      <c r="O347" t="inlineStr">
+        <is>
+          <t>-38.2789978755709,174.71577192177392</t>
+        </is>
+      </c>
+      <c r="P347" t="inlineStr">
+        <is>
+          <t>-38.27826069398547,174.7156200365202</t>
+        </is>
+      </c>
+      <c r="Q347" t="inlineStr">
+        <is>
+          <t>-38.27753891902482,174.71544683683086</t>
+        </is>
+      </c>
+      <c r="R347" t="inlineStr">
+        <is>
+          <t>-38.27680737417109,174.71567830544072</t>
+        </is>
+      </c>
+      <c r="S347" t="inlineStr">
+        <is>
+          <t>-38.27611316928771,174.71550747941816</t>
+        </is>
+      </c>
+      <c r="T347" t="inlineStr">
+        <is>
+          <t>-38.27542153923209,174.71530884451897</t>
+        </is>
+      </c>
+      <c r="U347" t="inlineStr">
+        <is>
+          <t>-38.27471254509567,174.7152971794217</t>
+        </is>
+      </c>
+      <c r="V347" t="inlineStr">
+        <is>
+          <t>-38.27397703387123,174.71557106951573</t>
+        </is>
+      </c>
+      <c r="W347" t="inlineStr">
+        <is>
+          <t>-38.27329851392404,174.71523100323463</t>
+        </is>
+      </c>
+      <c r="X347" t="inlineStr">
+        <is>
+          <t>-38.27263441046536,174.7147355662872</t>
+        </is>
+      </c>
+      <c r="Y347" t="inlineStr">
+        <is>
+          <t>-38.271937803797655,174.71459017349406</t>
+        </is>
+      </c>
+      <c r="Z347" t="inlineStr">
+        <is>
+          <t>-38.27122621254455,174.71460612103888</t>
+        </is>
+      </c>
+      <c r="AA347" t="inlineStr">
+        <is>
+          <t>-38.270534534937305,174.71440748717256</t>
+        </is>
+      </c>
+      <c r="AB347" t="inlineStr">
+        <is>
+          <t>-38.26983671637364,174.71427493019507</t>
+        </is>
+      </c>
+      <c r="AC347" t="inlineStr">
+        <is>
+          <t>-38.269132791799564,174.7142080739933</t>
+        </is>
+      </c>
+      <c r="AD347" t="inlineStr">
+        <is>
+          <t>-38.26842727082851,174.7141583408373</t>
+        </is>
+      </c>
+      <c r="AE347" t="inlineStr"/>
+      <c r="AF347" t="inlineStr"/>
+      <c r="AG347" t="inlineStr"/>
+      <c r="AH347" t="inlineStr"/>
+      <c r="AI347" t="inlineStr">
         <is>
           <t>L8</t>
         </is>

--- a/data/nzd0252/nzd0252.xlsx
+++ b/data/nzd0252/nzd0252.xlsx
@@ -34658,13 +34658,13 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="G2" t="n">
-        <v>0.07439999999999999</v>
+        <v>0.0843</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0953</v>
+        <v>0.0969</v>
       </c>
       <c r="I2" t="n">
         <v>-0.1549391861397971</v>
@@ -34736,13 +34736,13 @@
         <v>0.9687498137388449</v>
       </c>
       <c r="F3" t="n">
-        <v>0.08</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07240000000000001</v>
+        <v>0.06270000000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0954</v>
+        <v>0.1224</v>
       </c>
       <c r="I3" t="n">
         <v>0.1251634305514681</v>
@@ -34814,13 +34814,13 @@
         <v>0.9374996274779807</v>
       </c>
       <c r="F4" t="n">
-        <v>0.045</v>
+        <v>0.075</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0382</v>
+        <v>0.0581</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0548</v>
+        <v>0.1072</v>
       </c>
       <c r="I4" t="n">
         <v>-0.9644191318996712</v>
@@ -34891,9 +34891,15 @@
       <c r="E5" t="n">
         <v>0.9062494412168256</v>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.0383</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.0531</v>
+      </c>
       <c r="I5" t="n">
         <v>0.09528528674867018</v>
       </c>
@@ -34963,9 +34969,15 @@
       <c r="E6" t="n">
         <v>0.8749992549560129</v>
       </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0276</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.043</v>
+      </c>
       <c r="I6" t="n">
         <v>1.207147303505344</v>
       </c>
@@ -35036,13 +35048,13 @@
         <v>0.8437490686948579</v>
       </c>
       <c r="F7" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0339</v>
+        <v>0.0251</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0527</v>
+        <v>0.0342</v>
       </c>
       <c r="I7" t="n">
         <v>-0.2125049180460741</v>
@@ -35114,13 +35126,13 @@
         <v>0.8124988824337545</v>
       </c>
       <c r="F8" t="n">
-        <v>0.035</v>
+        <v>0.03</v>
       </c>
       <c r="G8" t="n">
-        <v>0.033</v>
+        <v>0.0247</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0386</v>
+        <v>0.0402</v>
       </c>
       <c r="I8" t="n">
         <v>0.3174887662730657</v>
@@ -35192,13 +35204,13 @@
         <v>0.7812486961725994</v>
       </c>
       <c r="F9" t="n">
-        <v>0.045</v>
+        <v>0.035</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0434</v>
+        <v>0.03</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0507</v>
+        <v>0.0448</v>
       </c>
       <c r="I9" t="n">
         <v>0.2954421539852211</v>
@@ -35269,9 +35281,15 @@
       <c r="E10" t="n">
         <v>0.7499985099117351</v>
       </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.0282</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.0444</v>
+      </c>
       <c r="I10" t="n">
         <v>0.3582740793945401</v>
       </c>
@@ -35341,9 +35359,15 @@
       <c r="E11" t="n">
         <v>0.7187483236505802</v>
       </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
+      <c r="F11" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.0247</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.0344</v>
+      </c>
       <c r="I11" t="n">
         <v>0.1620861633684164</v>
       </c>
@@ -35414,13 +35438,13 @@
         <v>0.6874981373894251</v>
       </c>
       <c r="F12" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="G12" t="n">
-        <v>0.045</v>
+        <v>0.0341</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0576</v>
+        <v>0.0509</v>
       </c>
       <c r="I12" t="n">
         <v>0.2416369915997932</v>
@@ -35492,13 +35516,13 @@
         <v>0.6562479511282701</v>
       </c>
       <c r="F13" t="n">
-        <v>0.055</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0483</v>
+        <v>0.0597</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0663</v>
+        <v>0.1584</v>
       </c>
       <c r="I13" t="n">
         <v>0.2772860795711445</v>
@@ -35570,13 +35594,13 @@
         <v>0.6249977648671151</v>
       </c>
       <c r="F14" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0631</v>
+        <v>0.0486</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0833</v>
+        <v>0.07630000000000001</v>
       </c>
       <c r="I14" t="n">
         <v>0.3222344316178477</v>
@@ -35647,9 +35671,15 @@
       <c r="E15" t="n">
         <v>0.5937475786059602</v>
       </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
+      <c r="F15" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.0399</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.0733</v>
+      </c>
       <c r="I15" t="n">
         <v>0.3136661446614332</v>
       </c>
@@ -35720,13 +35750,13 @@
         <v>0.5625033526992407</v>
       </c>
       <c r="F16" t="n">
-        <v>0.035</v>
+        <v>0.04</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0299</v>
+        <v>0.0343</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0466</v>
+        <v>0.0542</v>
       </c>
       <c r="I16" t="n">
         <v>0.7394801896229206</v>
@@ -35798,13 +35828,13 @@
         <v>0.531253166438275</v>
       </c>
       <c r="F17" t="n">
-        <v>0.025</v>
+        <v>0.045</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0233</v>
+        <v>0.0393</v>
       </c>
       <c r="H17" t="n">
-        <v>0.033</v>
+        <v>0.0527</v>
       </c>
       <c r="I17" t="n">
         <v>0.3702202706577626</v>
@@ -35876,13 +35906,13 @@
         <v>0.5000029801773094</v>
       </c>
       <c r="F18" t="n">
-        <v>0.075</v>
+        <v>0.045</v>
       </c>
       <c r="G18" t="n">
-        <v>0.05</v>
+        <v>0.0385</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1387</v>
+        <v>0.0555</v>
       </c>
       <c r="I18" t="n">
         <v>0.221924060759094</v>
@@ -35954,13 +35984,13 @@
         <v>0.4687527939163437</v>
       </c>
       <c r="F19" t="n">
-        <v>0.06</v>
+        <v>0.055</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0504</v>
+        <v>0.045</v>
       </c>
       <c r="H19" t="n">
-        <v>0.068</v>
+        <v>0.07140000000000001</v>
       </c>
       <c r="I19" t="n">
         <v>0.6047565428218016</v>
@@ -36032,13 +36062,13 @@
         <v>0.4375026076550886</v>
       </c>
       <c r="F20" t="n">
-        <v>0.04</v>
+        <v>0.065</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0341</v>
+        <v>0.0492</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0447</v>
+        <v>0.0891</v>
       </c>
       <c r="I20" t="n">
         <v>0.7405564068080706</v>
@@ -36110,13 +36140,13 @@
         <v>0.4062524213941229</v>
       </c>
       <c r="F21" t="n">
-        <v>0.035</v>
+        <v>0.05</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0307</v>
+        <v>0.0444</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0387</v>
+        <v>0.0558</v>
       </c>
       <c r="I21" t="n">
         <v>0.3345662330524209</v>
@@ -36188,13 +36218,13 @@
         <v>0.3750022351331573</v>
       </c>
       <c r="F22" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0327</v>
+        <v>0.0413</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0469</v>
+        <v>0.0641</v>
       </c>
       <c r="I22" t="n">
         <v>-0.001198219260020979</v>
@@ -36265,9 +36295,15 @@
       <c r="E23" t="n">
         <v>0.3437520488717799</v>
       </c>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
+      <c r="F23" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.0249</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.0352</v>
+      </c>
       <c r="I23" t="n">
         <v>-0.001294615900490403</v>
       </c>
@@ -36338,13 +36374,13 @@
         <v>0.3125018626105248</v>
       </c>
       <c r="F24" t="n">
-        <v>0.035</v>
+        <v>0.03</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0288</v>
+        <v>0.0281</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0385</v>
+        <v>0.0373</v>
       </c>
       <c r="I24" t="n">
         <v>0.0188942940909085</v>
@@ -36416,13 +36452,13 @@
         <v>0.2812516763492697</v>
       </c>
       <c r="F25" t="n">
-        <v>0.035</v>
+        <v>0.05</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0297</v>
+        <v>0.0396</v>
       </c>
       <c r="H25" t="n">
-        <v>0.037</v>
+        <v>0.0675</v>
       </c>
       <c r="I25" t="n">
         <v>0.2370618340945574</v>
@@ -36494,13 +36530,13 @@
         <v>0.2500014900884263</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0573</v>
+        <v>0.047</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0867</v>
+        <v>0.0897</v>
       </c>
       <c r="I26" t="n">
         <v>-0.08780311534330741</v>
@@ -36572,13 +36608,13 @@
         <v>0.2187513038273384</v>
       </c>
       <c r="F27" t="n">
-        <v>0.08</v>
+        <v>0.115</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0684</v>
+        <v>0.0736</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0905</v>
+        <v>0.2</v>
       </c>
       <c r="I27" t="n">
         <v>-0.02847836095774021</v>
@@ -36650,13 +36686,13 @@
         <v>0.1875011175663728</v>
       </c>
       <c r="F28" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="G28" t="n">
-        <v>0.064</v>
+        <v>0.0653</v>
       </c>
       <c r="H28" t="n">
-        <v>0.08359999999999999</v>
+        <v>0.1098</v>
       </c>
       <c r="I28" t="n">
         <v>0.01722172518611216</v>
@@ -36727,9 +36763,15 @@
       <c r="E29" t="n">
         <v>0.1562509313054071</v>
       </c>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
+      <c r="F29" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.0494</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.129</v>
+      </c>
       <c r="I29" t="n">
         <v>0.6933578525635896</v>
       </c>
@@ -36799,9 +36841,15 @@
       <c r="E30" t="n">
         <v>0.125000745044152</v>
       </c>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
+      <c r="F30" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.0455</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.0977</v>
+      </c>
       <c r="I30" t="n">
         <v>0.1694047036160422</v>
       </c>
@@ -36872,13 +36920,13 @@
         <v>0.09375055878318639</v>
       </c>
       <c r="F31" t="n">
-        <v>0.075</v>
+        <v>0.065</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0515</v>
+        <v>0.0467</v>
       </c>
       <c r="H31" t="n">
-        <v>0.1366</v>
+        <v>0.1014</v>
       </c>
       <c r="I31" t="n">
         <v>0.8196832689285829</v>
@@ -36950,13 +36998,13 @@
         <v>0.06250037252222074</v>
       </c>
       <c r="F32" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0321</v>
+        <v>0.0414</v>
       </c>
       <c r="H32" t="n">
-        <v>0.0565</v>
+        <v>0.0721</v>
       </c>
       <c r="I32" t="n">
         <v>-0.4132793477849744</v>
@@ -37028,13 +37076,13 @@
         <v>0.03125018626125509</v>
       </c>
       <c r="F33" t="n">
-        <v>0.045</v>
+        <v>0.055</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0337</v>
+        <v>0.0443</v>
       </c>
       <c r="H33" t="n">
-        <v>0.068</v>
+        <v>0.0735</v>
       </c>
       <c r="I33" t="n">
         <v>-0.7676904896523813</v>
@@ -37106,13 +37154,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.035</v>
+        <v>0.045</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0279</v>
+        <v>0.0387</v>
       </c>
       <c r="H34" t="n">
-        <v>0.0429</v>
+        <v>0.0569</v>
       </c>
       <c r="I34" t="n">
         <v>-1.560854587090814</v>
